--- a/Engine List.xlsx
+++ b/Engine List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\ROEngines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\ROEngines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E86420-2761-4C9D-8F4A-7DBAAC7065D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remove" sheetId="1" r:id="rId1"/>
     <sheet name="List" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="322">
   <si>
     <t>engineType</t>
   </si>
@@ -244,9 +244,6 @@
     <t>AJ10_Adv</t>
   </si>
   <si>
-    <t>Apollo Alt</t>
-  </si>
-  <si>
     <t>SSTU</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Vulcan, Blue Origin</t>
   </si>
   <si>
-    <t>Baby Sergeant</t>
-  </si>
-  <si>
     <t>FASA, Vens, BDB</t>
   </si>
   <si>
@@ -958,9 +952,6 @@
     <t>SpaceX</t>
   </si>
   <si>
-    <t>Star-63</t>
-  </si>
-  <si>
     <t>Star-48B</t>
   </si>
   <si>
@@ -974,12 +965,39 @@
   </si>
   <si>
     <t>Wrobz</t>
+  </si>
+  <si>
+    <t>McDouble</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Star-63D</t>
+  </si>
+  <si>
+    <t>BabySergeant</t>
+  </si>
+  <si>
+    <t>FASA, BDB</t>
+  </si>
+  <si>
+    <t>FASAExplorerSgt11Dec</t>
+  </si>
+  <si>
+    <t>FASAExplorerSgt3Dec</t>
+  </si>
+  <si>
+    <t>rn_junoii_sgt_11_dec</t>
+  </si>
+  <si>
+    <t>rn_junoii_sgt_3_dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,28 +1082,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J182" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:J182" xr:uid="{27FBE21E-C7DF-4921-B597-AE3F9299E4DA}">
-    <filterColumn colId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K182" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:K182">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Solid"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:J182">
+  <sortState ref="A2:K182">
     <sortCondition ref="A1:A182"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mods"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Craft"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Include" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mod Choice" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Added to RP1" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="REMOVE" dataDxfId="0">
+  <tableColumns count="11">
+    <tableColumn id="1" name="Engine"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Mods"/>
+    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="5" name="Craft"/>
+    <tableColumn id="11" name="Year"/>
+    <tableColumn id="6" name="Include" dataDxfId="4"/>
+    <tableColumn id="7" name="Mod Choice" dataDxfId="3"/>
+    <tableColumn id="8" name="Complete" dataDxfId="2"/>
+    <tableColumn id="9" name="Added to RP1" dataDxfId="1"/>
+    <tableColumn id="10" name="REMOVE" dataDxfId="0">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1355,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,11 +1639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,16 +1651,17 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1653,22 +1678,25 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1679,26 +1707,29 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="str">
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[A-4]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1706,44 +1737,50 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A3&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Aerobee]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="1" t="str">
+      <c r="F4">
+        <v>1996</v>
+      </c>
+      <c r="K4" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A4&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1751,31 +1788,34 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>70</v>
+      <c r="F5">
+        <v>1965</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A5&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Agena]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -1783,12 +1823,15 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="F6">
+        <v>1965</v>
+      </c>
+      <c r="K6" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A6&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1796,29 +1839,32 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>1968</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A7&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_137]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1826,29 +1872,32 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
+      <c r="F8">
+        <v>1981</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A8&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_190]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1856,17 +1905,29 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1" t="str">
+        <v>313</v>
+      </c>
+      <c r="F9">
+        <v>1972</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A9&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Adv]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1874,26 +1935,29 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>311</v>
+      </c>
+      <c r="F10">
+        <v>1959</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A10&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Early]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1901,26 +1965,29 @@
         <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>311</v>
+      </c>
+      <c r="F11">
+        <v>1960</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A11&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Mid]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1933,24 +2000,27 @@
       <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
+      <c r="F12">
+        <v>1972</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A12&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ260FL]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1963,24 +2033,27 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
+      <c r="F13">
+        <v>1966</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A13&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ260SL]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1993,15 +2066,18 @@
       <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="1" t="str">
+      <c r="F14">
+        <v>2002</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A14&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2017,12 +2093,15 @@
       <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="F15">
+        <v>1974</v>
+      </c>
+      <c r="K15" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A15&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2035,15 +2114,18 @@
       <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1" t="str">
+      <c r="F16">
+        <v>1960</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A16&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2056,15 +2138,18 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1" t="str">
+      <c r="F17">
+        <v>1962</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A17&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2077,12 +2162,15 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="F18">
+        <v>1972</v>
+      </c>
+      <c r="K18" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A18&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2098,15 +2186,18 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1" t="str">
+      <c r="F19">
+        <v>1959</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A19&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2122,15 +2213,18 @@
       <c r="E20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="1" t="str">
+      <c r="F20">
+        <v>1965</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A20&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2146,15 +2240,18 @@
       <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="1" t="str">
+      <c r="F21">
+        <v>1963</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A21&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2170,15 +2267,18 @@
       <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="1" t="str">
+      <c r="F22">
+        <v>1960</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A22&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2194,15 +2294,18 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="1" t="str">
+      <c r="F23">
+        <v>1962</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A23&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2215,149 +2318,191 @@
       <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="F24">
+        <v>1979</v>
+      </c>
+      <c r="K24" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A24&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="1" t="str">
+      <c r="F25">
+        <v>2018</v>
+      </c>
+      <c r="K25" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A25&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>1968</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A26&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>1955</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A27&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[BabySergeant]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A26&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A27&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="1" t="str">
+      <c r="K28" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A28&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="1" t="str">
+      <c r="K29" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A29&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="1" t="str">
+        <v>118</v>
+      </c>
+      <c r="K30" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A30&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="E31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" s="1" t="str">
+        <v>116</v>
+      </c>
+      <c r="F31">
+        <v>1955</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A31&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Castor-1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="1" t="str">
+        <v>103</v>
+      </c>
+      <c r="F32">
+        <v>1989</v>
+      </c>
+      <c r="K32" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A32&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -2365,98 +2510,119 @@
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="F33">
+        <v>1965</v>
+      </c>
+      <c r="K33" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A33&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>2013</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A34&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>2013</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A35&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>2013</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A36&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37">
+        <v>1975</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A37&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38">
+        <v>1989</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A38&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A34&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A35&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A36&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A37&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A38&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="1" t="str">
+      <c r="F39">
+        <v>2001</v>
+      </c>
+      <c r="K39" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A39&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -2465,16 +2631,19 @@
         <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="J40" s="1" t="str">
+        <v>101</v>
+      </c>
+      <c r="F40">
+        <v>1970</v>
+      </c>
+      <c r="K40" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A40&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -2482,36 +2651,42 @@
       <c r="C41" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" s="1" t="str">
+      <c r="F41">
+        <v>1963</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A41&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
-      </c>
       <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J42" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="F42">
+        <v>2002</v>
+      </c>
+      <c r="K42" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A42&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2519,191 +2694,224 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>1967</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A43&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[F1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="F44">
+        <v>1977</v>
+      </c>
+      <c r="K44" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A44&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45" s="1" t="str">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>2022</v>
+      </c>
+      <c r="K45" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A45&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="1" t="str">
+        <v>147</v>
+      </c>
+      <c r="F46">
+        <v>1956</v>
+      </c>
+      <c r="K46" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A46&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="1" t="str">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>1956</v>
+      </c>
+      <c r="K47" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A47&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J48" s="1" t="str">
+        <v>145</v>
+      </c>
+      <c r="F48">
+        <v>1955</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A48&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J49" s="1" t="str">
+        <v>111</v>
+      </c>
+      <c r="F49">
+        <v>1990</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A49&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="1" t="str">
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>1998</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A50&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="1" t="str">
+        <v>140</v>
+      </c>
+      <c r="F51">
+        <v>2002</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A51&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="J52" s="1" t="str">
+        <v>138</v>
+      </c>
+      <c r="F52">
+        <v>2018</v>
+      </c>
+      <c r="K52" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A52&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
-      </c>
-      <c r="J53" s="1" t="str">
+        <v>136</v>
+      </c>
+      <c r="F53">
+        <v>2020</v>
+      </c>
+      <c r="K53" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A53&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2711,59 +2919,62 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="F54">
+        <v>1961</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A54&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[H1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" s="1" t="str">
+        <v>133</v>
+      </c>
+      <c r="K55" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A55&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="J56" s="1" t="str">
+        <v>131</v>
+      </c>
+      <c r="K56" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A56&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2771,28 +2982,28 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="J57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A57&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -2800,12 +3011,12 @@
       <c r="C58" t="s">
         <v>32</v>
       </c>
-      <c r="J58" s="1" t="str">
+      <c r="K58" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A58&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2813,28 +3024,28 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="J59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A59&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2X]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -2843,22 +3054,25 @@
         <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>70</v>
+        <v>127</v>
+      </c>
+      <c r="F60">
+        <v>1963</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="K60" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A60&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -2867,76 +3081,85 @@
         <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>70</v>
+        <v>127</v>
+      </c>
+      <c r="F61">
+        <v>1960</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="K61" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A61&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
-      </c>
-      <c r="J62" s="1" t="str">
+        <v>124</v>
+      </c>
+      <c r="F62">
+        <v>2006</v>
+      </c>
+      <c r="K62" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A62&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
-      </c>
-      <c r="J63" s="1" t="str">
+        <v>124</v>
+      </c>
+      <c r="F63">
+        <v>2008</v>
+      </c>
+      <c r="K63" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A63&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="J64" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K64" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A64&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="J65" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K65" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A65&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -2945,110 +3168,113 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
-      </c>
-      <c r="J66" s="1" t="str">
+        <v>174</v>
+      </c>
+      <c r="F66">
+        <v>1966</v>
+      </c>
+      <c r="K66" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A66&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
         <v>172</v>
       </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>174</v>
-      </c>
       <c r="E67" t="s">
-        <v>173</v>
-      </c>
-      <c r="J67" s="1" t="str">
+        <v>171</v>
+      </c>
+      <c r="K67" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A67&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" s="1" t="str">
+        <v>169</v>
+      </c>
+      <c r="K68" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A68&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
-      </c>
-      <c r="J69" s="1" t="str">
+        <v>167</v>
+      </c>
+      <c r="K69" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A69&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J70" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A70&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K71" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A71&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3059,26 +3285,29 @@
         <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
+      </c>
+      <c r="F72">
+        <v>1956</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J72" s="1" t="str">
+      <c r="J72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K72" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A72&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR101]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3089,26 +3318,29 @@
         <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
+      </c>
+      <c r="F73">
+        <v>1958</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J73" s="1" t="str">
+      <c r="J73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K73" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A73&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR105]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3116,77 +3348,86 @@
         <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>70</v>
+        <v>162</v>
+      </c>
+      <c r="F74">
+        <v>1956</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J74" s="1" t="str">
+      <c r="J74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K74" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A74&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR79]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
-      </c>
-      <c r="J75" s="1" t="str">
+        <v>160</v>
+      </c>
+      <c r="F75">
+        <v>1958</v>
+      </c>
+      <c r="K75" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A75&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J76" s="1" t="str">
+        <v>156</v>
+      </c>
+      <c r="F76">
+        <v>1959</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K76" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A76&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J77" s="1" t="str">
+      <c r="G77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K77" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A77&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3197,164 +3438,176 @@
         <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>70</v>
+        <v>154</v>
+      </c>
+      <c r="F78">
+        <v>1958</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J78" s="1" t="str">
+      <c r="J78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K78" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A78&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR89]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J79" s="1" t="str">
+        <v>156</v>
+      </c>
+      <c r="F79">
+        <v>1959</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K79" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A79&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J80" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A80&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
-      </c>
-      <c r="J81" s="1" t="str">
+        <v>152</v>
+      </c>
+      <c r="F81">
+        <v>1962</v>
+      </c>
+      <c r="K81" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A81&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>70</v>
+        <v>150</v>
+      </c>
+      <c r="F82">
+        <v>2006</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J82" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K82" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A82&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" t="s">
+        <v>186</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A83&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A84&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" t="s">
+        <v>188</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A85&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" t="s">
         <v>187</v>
       </c>
-      <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" t="s">
-        <v>188</v>
-      </c>
-      <c r="J83" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A83&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A84&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" t="s">
-        <v>190</v>
-      </c>
-      <c r="J85" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A85&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86" t="s">
-        <v>189</v>
-      </c>
-      <c r="J86" s="1" t="str">
+      <c r="K86" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A86&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3365,256 +3618,262 @@
         <v>69</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
+      </c>
+      <c r="F87">
+        <v>1952</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J87" s="1" t="str">
+      <c r="J87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K87" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A87&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NAA75_110]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="K88" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A88&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A89&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="J88" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A88&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A90&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="J89" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A89&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="J90" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A90&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>181</v>
-      </c>
       <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="J91" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K91" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A91&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>70</v>
+        <v>176</v>
+      </c>
+      <c r="F92">
+        <v>1955</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J92" s="1" t="str">
+      <c r="J92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A92&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Nike-M5E1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A93&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A94&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A95&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B93" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" t="s">
-        <v>193</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J93" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A93&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" t="s">
-        <v>193</v>
-      </c>
-      <c r="J94" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A94&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J95" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A95&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
       <c r="B96" t="s">
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J96" s="1" t="str">
+        <v>191</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A96&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
-      </c>
-      <c r="J97" s="1" t="str">
+        <v>215</v>
+      </c>
+      <c r="K97" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A97&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="J98" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K98" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A98&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
-      </c>
-      <c r="J99" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K99" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A99&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
-      </c>
-      <c r="J100" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K100" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A100&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
         <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>74</v>
-      </c>
-      <c r="J101" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="K101" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A101&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
       </c>
       <c r="E102" t="s">
-        <v>210</v>
-      </c>
-      <c r="J102" s="1" t="str">
+        <v>208</v>
+      </c>
+      <c r="K102" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A102&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -3623,38 +3882,41 @@
         <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J103" s="1" t="str">
+      <c r="K103" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A103&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J104" s="1" t="str">
+        <v>198</v>
+      </c>
+      <c r="F104">
+        <v>1958</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K104" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A104&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3662,188 +3924,197 @@
         <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J105" s="1" t="str">
+        <v>197</v>
+      </c>
+      <c r="F105">
+        <v>1960</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A105&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" t="s">
         <v>196</v>
       </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" t="s">
-        <v>197</v>
-      </c>
-      <c r="E106" t="s">
-        <v>198</v>
-      </c>
-      <c r="J106" s="1" t="str">
+      <c r="F106">
+        <v>2013</v>
+      </c>
+      <c r="K106" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A106&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E107" t="s">
-        <v>228</v>
-      </c>
-      <c r="J107" s="1" t="str">
+        <v>226</v>
+      </c>
+      <c r="F107">
+        <v>2013</v>
+      </c>
+      <c r="K107" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A107&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>226</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J108" s="1" t="str">
+        <v>224</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K108" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A108&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>223</v>
-      </c>
-      <c r="J109" s="1" t="str">
+        <v>221</v>
+      </c>
+      <c r="K109" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A109&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
-      </c>
-      <c r="J110" s="1" t="str">
+        <v>219</v>
+      </c>
+      <c r="K110" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A110&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
       </c>
       <c r="E111" t="s">
+        <v>239</v>
+      </c>
+      <c r="K111" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A111&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" t="s">
+        <v>239</v>
+      </c>
+      <c r="K112" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A112&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+      <c r="K113" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A113&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>241</v>
       </c>
-      <c r="J111" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A111&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" t="s">
-        <v>65</v>
-      </c>
-      <c r="E112" t="s">
-        <v>241</v>
-      </c>
-      <c r="J112" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A112&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>244</v>
-      </c>
-      <c r="B113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" t="s">
-        <v>241</v>
-      </c>
-      <c r="J113" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A113&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>243</v>
-      </c>
       <c r="B114" t="s">
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E114" t="s">
-        <v>241</v>
-      </c>
-      <c r="J114" s="1" t="str">
+        <v>239</v>
+      </c>
+      <c r="K114" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A114&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
       </c>
-      <c r="J115" s="1" t="str">
+      <c r="K115" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A115&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
-      </c>
-      <c r="J116" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K116" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A116&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3853,24 +4124,27 @@
       <c r="C117" t="s">
         <v>69</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>70</v>
+      <c r="F117">
+        <v>0</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J117" s="1" t="str">
+      <c r="J117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K117" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A117&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD100]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -3878,29 +4152,32 @@
         <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E118" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>70</v>
+        <v>198</v>
+      </c>
+      <c r="F118">
+        <v>1956</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J118" s="1" t="str">
+      <c r="J118" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K118" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A118&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD107-117]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3908,44 +4185,47 @@
         <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E119" t="s">
-        <v>200</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>70</v>
+        <v>198</v>
+      </c>
+      <c r="F119">
+        <v>1956</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="1" t="str">
+      <c r="J119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K119" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A119&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD108-118]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>206</v>
-      </c>
-      <c r="J120" s="1" t="str">
+        <v>204</v>
+      </c>
+      <c r="K120" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A120&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3953,29 +4233,29 @@
         <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J121" s="1" t="str">
+      <c r="J121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K121" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A121&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD170]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3983,29 +4263,29 @@
         <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E122" t="s">
         <v>63</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G122" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J122" s="1" t="str">
+      <c r="J122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K122" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A122&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD180]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4013,208 +4293,214 @@
         <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E123" t="s">
-        <v>247</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J123" s="1" t="str">
+      <c r="J123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K123" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A123&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD191]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
-      </c>
-      <c r="J124" s="1" t="str">
+        <v>239</v>
+      </c>
+      <c r="K124" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A124&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>239</v>
-      </c>
-      <c r="J125" s="1" t="str">
+        <v>237</v>
+      </c>
+      <c r="K125" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A125&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
         <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
-      </c>
-      <c r="J126" s="1" t="str">
+        <v>235</v>
+      </c>
+      <c r="K126" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A126&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" t="s">
+        <v>191</v>
+      </c>
+      <c r="K127" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A127&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K128" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A128&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" t="s">
+        <v>231</v>
+      </c>
+      <c r="K129" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A129&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" t="s">
+        <v>231</v>
+      </c>
+      <c r="K130" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A130&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" t="s">
+        <v>195</v>
+      </c>
+      <c r="E131" t="s">
         <v>204</v>
       </c>
-      <c r="B127" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" t="s">
-        <v>193</v>
-      </c>
-      <c r="J127" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A127&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" t="s">
-        <v>65</v>
-      </c>
-      <c r="E128" t="s">
-        <v>203</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J128" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A128&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" t="s">
-        <v>65</v>
-      </c>
-      <c r="E129" t="s">
-        <v>233</v>
-      </c>
-      <c r="J129" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A129&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" t="s">
-        <v>65</v>
-      </c>
-      <c r="E130" t="s">
-        <v>233</v>
-      </c>
-      <c r="J130" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A130&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>205</v>
-      </c>
-      <c r="B131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D131" t="s">
-        <v>197</v>
-      </c>
-      <c r="E131" t="s">
-        <v>206</v>
-      </c>
-      <c r="J131" s="1" t="str">
+      <c r="K131" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A131&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B132" t="s">
         <v>65</v>
       </c>
       <c r="E132" t="s">
-        <v>206</v>
-      </c>
-      <c r="J132" s="1" t="str">
+        <v>204</v>
+      </c>
+      <c r="K132" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A132&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B133" t="s">
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
-        <v>230</v>
-      </c>
-      <c r="J133" s="1" t="str">
+        <v>228</v>
+      </c>
+      <c r="F133">
+        <v>1964</v>
+      </c>
+      <c r="K133" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A133&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E134" t="s">
-        <v>230</v>
-      </c>
-      <c r="J134" s="1" t="str">
+        <v>228</v>
+      </c>
+      <c r="F134">
+        <v>1964</v>
+      </c>
+      <c r="K134" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A134&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B135" t="s">
         <v>31</v>
@@ -4223,14 +4509,17 @@
         <v>32</v>
       </c>
       <c r="E135" t="s">
-        <v>103</v>
-      </c>
-      <c r="J135" s="1" t="str">
+        <v>101</v>
+      </c>
+      <c r="F135">
+        <v>1975</v>
+      </c>
+      <c r="K135" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A135&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -4238,44 +4527,44 @@
         <v>65</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E136" t="s">
-        <v>250</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J136" s="1" t="str">
+      <c r="J136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K136" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A136&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RL10]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
         <v>65</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
-      </c>
-      <c r="J137" s="1" t="str">
+        <v>247</v>
+      </c>
+      <c r="K137" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A137&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -4283,79 +4572,85 @@
         <v>65</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E138" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J138" s="1" t="str">
+      <c r="J138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K138" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A138&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RS68]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
         <v>65</v>
       </c>
       <c r="E139" t="s">
-        <v>274</v>
-      </c>
-      <c r="J139" s="1" t="str">
+        <v>272</v>
+      </c>
+      <c r="K139" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A139&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
       </c>
       <c r="E140" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J140" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="F140">
+        <v>1981</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K140" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A140&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s">
         <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
-      </c>
-      <c r="J141" s="1" t="str">
+        <v>269</v>
+      </c>
+      <c r="F141">
+        <v>2012</v>
+      </c>
+      <c r="K141" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A141&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B142" t="s">
         <v>31</v>
@@ -4364,110 +4659,128 @@
         <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
-      </c>
-      <c r="J142" s="1" t="str">
+        <v>101</v>
+      </c>
+      <c r="F142">
+        <v>1965</v>
+      </c>
+      <c r="K142" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A142&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B143" t="s">
         <v>65</v>
       </c>
       <c r="E143" t="s">
-        <v>268</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J143" s="1" t="str">
+        <v>266</v>
+      </c>
+      <c r="F143">
+        <v>1953</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K143" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A143&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
         <v>65</v>
       </c>
       <c r="E144" t="s">
-        <v>266</v>
-      </c>
-      <c r="J144" s="1" t="str">
+        <v>264</v>
+      </c>
+      <c r="F144">
+        <v>2000</v>
+      </c>
+      <c r="K144" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A144&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B145" t="s">
         <v>65</v>
       </c>
       <c r="E145" t="s">
-        <v>264</v>
-      </c>
-      <c r="J145" s="1" t="str">
+        <v>262</v>
+      </c>
+      <c r="F145">
+        <v>2000</v>
+      </c>
+      <c r="K145" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A145&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
         <v>65</v>
       </c>
       <c r="D146" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
-      </c>
-      <c r="J146" s="1" t="str">
+        <v>95</v>
+      </c>
+      <c r="F146">
+        <v>1967</v>
+      </c>
+      <c r="K146" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A146&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>82</v>
-      </c>
-      <c r="J147" s="1" t="str">
+        <v>81</v>
+      </c>
+      <c r="K147" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A147&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
         <v>31</v>
       </c>
       <c r="E148" t="s">
-        <v>259</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J148" s="1" t="str">
+        <v>257</v>
+      </c>
+      <c r="F148">
+        <v>1989</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K148" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A148&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -4475,477 +4788,531 @@
         <v>65</v>
       </c>
       <c r="C149" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" t="s">
         <v>73</v>
       </c>
-      <c r="E149" t="s">
-        <v>74</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G149" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J149" s="1" t="str">
+      <c r="J149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K149" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A149&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[SSME]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>284</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A150&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A151&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>1968</v>
+      </c>
+      <c r="K152" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A152&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A153&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A154&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A155&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A156&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A157&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A158&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A159&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>275</v>
+      </c>
+      <c r="B160" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160">
+        <v>1966</v>
+      </c>
+      <c r="K160" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A160&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>274</v>
+      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161">
+        <v>1966</v>
+      </c>
+      <c r="K161" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A161&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>273</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162">
+        <v>1984</v>
+      </c>
+      <c r="K162" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A162&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>308</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163">
+        <v>1985</v>
+      </c>
+      <c r="K163" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A163&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>254</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164">
+        <v>2000</v>
+      </c>
+      <c r="K164" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A164&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>253</v>
+      </c>
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165">
+        <v>1989</v>
+      </c>
+      <c r="K165" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A165&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>315</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166">
+        <v>1985</v>
+      </c>
+      <c r="K166" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A166&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>252</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167">
+        <v>1985</v>
+      </c>
+      <c r="K167" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A167&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168">
+        <v>1993</v>
+      </c>
+      <c r="K168" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A168&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>307</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K169" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A169&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" t="s">
+        <v>305</v>
+      </c>
+      <c r="K170" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A170&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>101</v>
+      </c>
+      <c r="F171">
+        <v>1965</v>
+      </c>
+      <c r="K171" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A171&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" t="s">
+        <v>302</v>
+      </c>
+      <c r="F172">
+        <v>1965</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K172" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A172&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" t="s">
+        <v>300</v>
+      </c>
+      <c r="F173">
+        <v>1989</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K173" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A173&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>298</v>
+      </c>
+      <c r="B174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174">
+        <v>1964</v>
+      </c>
+      <c r="K174" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A174&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>296</v>
+      </c>
+      <c r="B175" t="s">
+        <v>65</v>
+      </c>
+      <c r="E175" t="s">
+        <v>297</v>
+      </c>
+      <c r="K175" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A175&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" t="s">
+        <v>295</v>
+      </c>
+      <c r="K176" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A176&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>293</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
+        <v>147</v>
+      </c>
+      <c r="F177">
+        <v>1967</v>
+      </c>
+      <c r="K177" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A177&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" t="s">
+        <v>145</v>
+      </c>
+      <c r="F178">
+        <v>1956</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K178" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A178&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>291</v>
+      </c>
+      <c r="B179" t="s">
+        <v>215</v>
+      </c>
+      <c r="K179" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A179&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180" t="s">
+        <v>290</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A180&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" t="s">
+        <v>288</v>
+      </c>
+      <c r="F181">
+        <v>1959</v>
+      </c>
+      <c r="K181" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A181&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>285</v>
+      </c>
+      <c r="B182" t="s">
+        <v>65</v>
+      </c>
+      <c r="E182" t="s">
         <v>286</v>
       </c>
-      <c r="B150" t="s">
-        <v>31</v>
-      </c>
-      <c r="J150" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A150&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>285</v>
-      </c>
-      <c r="B151" t="s">
-        <v>31</v>
-      </c>
-      <c r="J151" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A151&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>284</v>
-      </c>
-      <c r="B152" t="s">
-        <v>31</v>
-      </c>
-      <c r="J152" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A152&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>283</v>
-      </c>
-      <c r="B153" t="s">
-        <v>31</v>
-      </c>
-      <c r="J153" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A153&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>282</v>
-      </c>
-      <c r="B154" t="s">
-        <v>31</v>
-      </c>
-      <c r="J154" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A154&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>281</v>
-      </c>
-      <c r="B155" t="s">
-        <v>31</v>
-      </c>
-      <c r="J155" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A155&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>280</v>
-      </c>
-      <c r="B156" t="s">
-        <v>31</v>
-      </c>
-      <c r="J156" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A156&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>257</v>
-      </c>
-      <c r="B157" t="s">
-        <v>31</v>
-      </c>
-      <c r="J157" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A157&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>279</v>
-      </c>
-      <c r="B158" t="s">
-        <v>31</v>
-      </c>
-      <c r="J158" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A158&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>278</v>
-      </c>
-      <c r="B159" t="s">
-        <v>31</v>
-      </c>
-      <c r="J159" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A159&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>277</v>
-      </c>
-      <c r="B160" t="s">
-        <v>31</v>
-      </c>
-      <c r="J160" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A160&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>276</v>
-      </c>
-      <c r="B161" t="s">
-        <v>31</v>
-      </c>
-      <c r="J161" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A161&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>275</v>
-      </c>
-      <c r="B162" t="s">
-        <v>31</v>
-      </c>
-      <c r="J162" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A162&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>311</v>
-      </c>
-      <c r="B163" t="s">
-        <v>31</v>
-      </c>
-      <c r="J163" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A163&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>256</v>
-      </c>
-      <c r="B164" t="s">
-        <v>31</v>
-      </c>
-      <c r="J164" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A164&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>255</v>
-      </c>
-      <c r="B165" t="s">
-        <v>31</v>
-      </c>
-      <c r="J165" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A165&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>310</v>
-      </c>
-      <c r="B166" t="s">
-        <v>31</v>
-      </c>
-      <c r="J166" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A166&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>254</v>
-      </c>
-      <c r="B167" t="s">
-        <v>31</v>
-      </c>
-      <c r="J167" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A167&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>253</v>
-      </c>
-      <c r="B168" t="s">
-        <v>31</v>
-      </c>
-      <c r="J168" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A168&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>308</v>
-      </c>
-      <c r="B169" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169" t="s">
-        <v>73</v>
-      </c>
-      <c r="E169" t="s">
-        <v>309</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J169" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A169&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>306</v>
-      </c>
-      <c r="B170" t="s">
-        <v>65</v>
-      </c>
-      <c r="E170" t="s">
-        <v>307</v>
-      </c>
-      <c r="J170" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A170&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>305</v>
-      </c>
-      <c r="B171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E171" t="s">
-        <v>103</v>
-      </c>
-      <c r="J171" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A171&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>303</v>
-      </c>
-      <c r="B172" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172" t="s">
-        <v>304</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J172" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A172&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>301</v>
-      </c>
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173" t="s">
-        <v>302</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J173" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A173&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>300</v>
-      </c>
-      <c r="B174" t="s">
-        <v>65</v>
-      </c>
-      <c r="E174" t="s">
-        <v>103</v>
-      </c>
-      <c r="J174" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A174&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>298</v>
-      </c>
-      <c r="B175" t="s">
-        <v>65</v>
-      </c>
-      <c r="E175" t="s">
-        <v>299</v>
-      </c>
-      <c r="J175" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A175&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>296</v>
-      </c>
-      <c r="B176" t="s">
-        <v>65</v>
-      </c>
-      <c r="E176" t="s">
-        <v>297</v>
-      </c>
-      <c r="J176" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A176&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>295</v>
-      </c>
-      <c r="B177" t="s">
-        <v>31</v>
-      </c>
-      <c r="E177" t="s">
-        <v>149</v>
-      </c>
-      <c r="J177" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A177&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>294</v>
-      </c>
-      <c r="B178" t="s">
-        <v>65</v>
-      </c>
-      <c r="E178" t="s">
-        <v>147</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J178" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A178&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>293</v>
-      </c>
-      <c r="B179" t="s">
-        <v>217</v>
-      </c>
-      <c r="J179" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A179&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>291</v>
-      </c>
-      <c r="B180" t="s">
-        <v>65</v>
-      </c>
-      <c r="E180" t="s">
-        <v>292</v>
-      </c>
-      <c r="J180" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A180&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>289</v>
-      </c>
-      <c r="B181" t="s">
-        <v>65</v>
-      </c>
-      <c r="E181" t="s">
-        <v>290</v>
-      </c>
-      <c r="J181" s="1" t="str">
-        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A181&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>287</v>
-      </c>
-      <c r="B182" t="s">
-        <v>65</v>
-      </c>
-      <c r="E182" t="s">
-        <v>288</v>
-      </c>
-      <c r="J182" s="1" t="str">
+      <c r="K182" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A182&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
@@ -4956,4 +5323,58 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"!PART["&amp;A1&amp;"] {}"</f>
+        <v>!PART[FASAExplorerSgt11Dec] {}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"!PART["&amp;A2&amp;"] {}"</f>
+        <v>!PART[FASAExplorerSgt3Dec] {}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"!PART["&amp;A3&amp;"] {}"</f>
+        <v>!PART[rn_junoii_sgt_11_dec] {}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"!PART["&amp;A4&amp;"] {}"</f>
+        <v>!PART[rn_junoii_sgt_3_dec] {}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Engine List.xlsx
+++ b/Engine List.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan paplaczyk\Dropbox\GAMES\KSP\Git\ROEngines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\ROEngines\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60DABA-8DD8-4D08-8BC8-3E85483C9360}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remove" sheetId="1" r:id="rId1"/>
     <sheet name="List" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Other Parts" sheetId="3" r:id="rId3"/>
+    <sheet name="RaiderNick" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="379">
   <si>
     <t>engineType</t>
   </si>
@@ -652,9 +654,6 @@
     <t>R42</t>
   </si>
   <si>
-    <t>Kick Motor</t>
-  </si>
-  <si>
     <t>R40</t>
   </si>
   <si>
@@ -979,9 +978,6 @@
     <t>BabySergeant</t>
   </si>
   <si>
-    <t>FASA, BDB</t>
-  </si>
-  <si>
     <t>FASAExplorerSgt11Dec</t>
   </si>
   <si>
@@ -992,12 +988,189 @@
   </si>
   <si>
     <t>rn_junoii_sgt_3_dec</t>
+  </si>
+  <si>
+    <t>aerobee300_srb</t>
+  </si>
+  <si>
+    <t>aerobee170_srb</t>
+  </si>
+  <si>
+    <t>aerobee150_srb</t>
+  </si>
+  <si>
+    <t>junoii_sgt</t>
+  </si>
+  <si>
+    <t>junoii_sgt_3</t>
+  </si>
+  <si>
+    <t>junoii_sgt_3_dec</t>
+  </si>
+  <si>
+    <t>junoii_sgt_11</t>
+  </si>
+  <si>
+    <t>junoii_sgt_11_dec</t>
+  </si>
+  <si>
+    <t>thor_star37d</t>
+  </si>
+  <si>
+    <t>srmu_mb</t>
+  </si>
+  <si>
+    <t>srmu_nc</t>
+  </si>
+  <si>
+    <t>ua1207</t>
+  </si>
+  <si>
+    <t>ua1207_nc</t>
+  </si>
+  <si>
+    <t>Baby Sergeant</t>
+  </si>
+  <si>
+    <t>3x Decoupler</t>
+  </si>
+  <si>
+    <t>Baby Sergeant x3</t>
+  </si>
+  <si>
+    <t>11x Decoupler</t>
+  </si>
+  <si>
+    <t>Baby Sergeant x11</t>
+  </si>
+  <si>
+    <t>thor_star20</t>
+  </si>
+  <si>
+    <t>TE-M-640-1 Star 20</t>
+  </si>
+  <si>
+    <t>Thor-Burner 1</t>
+  </si>
+  <si>
+    <t>TE-M-364-3 Star-37D</t>
+  </si>
+  <si>
+    <t>Delta J-M</t>
+  </si>
+  <si>
+    <t>USA1207 SRM</t>
+  </si>
+  <si>
+    <t>ua1205 (1205)</t>
+  </si>
+  <si>
+    <t>ua1206 (1206)</t>
+  </si>
+  <si>
+    <t>USA1207 Nosecone</t>
+  </si>
+  <si>
+    <t>ua1205_nc (1205)</t>
+  </si>
+  <si>
+    <t>ua1206_nc (1205)</t>
+  </si>
+  <si>
+    <t>SRMU Nosecone</t>
+  </si>
+  <si>
+    <t>2.5KS-18000</t>
+  </si>
+  <si>
+    <t>M5E1 Nike</t>
+  </si>
+  <si>
+    <t>1.8KS-7800</t>
+  </si>
+  <si>
+    <t>FASA, BDB, RN</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Maneuver Motor (Cassini)</t>
+  </si>
+  <si>
+    <t>Niche Parts</t>
+  </si>
+  <si>
+    <t>NicheParts</t>
+  </si>
+  <si>
+    <t>BE-3</t>
+  </si>
+  <si>
+    <t>Addon</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t>RutherfordVac</t>
+  </si>
+  <si>
+    <t>400N</t>
+  </si>
+  <si>
+    <t>S-400 Maneuvers (Galileo, Venus Express)</t>
+  </si>
+  <si>
+    <t>MR80B</t>
+  </si>
+  <si>
+    <t>Mars Landing Engine (Curiosity)</t>
+  </si>
+  <si>
+    <t>MR80TDE</t>
+  </si>
+  <si>
+    <t>Viking Landers</t>
+  </si>
+  <si>
+    <t>MR104</t>
+  </si>
+  <si>
+    <t>Voyager 1-2</t>
+  </si>
+  <si>
+    <t>MR107</t>
+  </si>
+  <si>
+    <t>Probes, Landers (Phoenix Mars, Mars Polar)</t>
+  </si>
+  <si>
+    <t>Star-5D</t>
+  </si>
+  <si>
+    <t>Pathfinder Lander</t>
+  </si>
+  <si>
+    <t>Star-8</t>
+  </si>
+  <si>
+    <t>MER (Spirit / Opportunity Landers)</t>
+  </si>
+  <si>
+    <t>LEROS1b</t>
+  </si>
+  <si>
+    <t>Satellite Engines</t>
+  </si>
+  <si>
+    <t>R4D11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1082,34 +1255,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K182" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:K182">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Solid"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K194" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:K194" xr:uid="{02A2150E-C9F6-46C9-AAD1-F16658D4FC30}"/>
   <sortState ref="A2:K182">
     <sortCondition ref="A1:A182"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Engine"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Mods"/>
-    <tableColumn id="4" name="Notes"/>
-    <tableColumn id="5" name="Craft"/>
-    <tableColumn id="11" name="Year"/>
-    <tableColumn id="6" name="Include" dataDxfId="4"/>
-    <tableColumn id="7" name="Mod Choice" dataDxfId="3"/>
-    <tableColumn id="8" name="Complete" dataDxfId="2"/>
-    <tableColumn id="9" name="Added to RP1" dataDxfId="1"/>
-    <tableColumn id="10" name="REMOVE" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mods"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Craft"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Year"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Include" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mod Choice" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Added to RP1" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="REMOVE" dataDxfId="0">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1379,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1639,11 +1801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1840,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>66</v>
@@ -1690,13 +1852,13 @@
         <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1891,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[A-4]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1924,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Aerobee]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1780,7 +1942,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1975,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Agena]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1831,7 +1993,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +2026,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_137]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +2059,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_190]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1905,7 +2067,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9">
         <v>1972</v>
@@ -1914,7 +2076,7 @@
         <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>70</v>
@@ -1927,7 +2089,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Adv]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +2097,7 @@
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F10">
         <v>1959</v>
@@ -1957,7 +2119,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Early]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1965,7 +2127,7 @@
         <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F11">
         <v>1960</v>
@@ -2053,7 +2215,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ260SL]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2101,7 +2263,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2125,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2149,7 +2311,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2170,7 +2332,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2224,7 +2386,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2251,7 +2413,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2305,7 +2467,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2326,7 +2488,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -2347,7 +2509,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -2370,7 +2532,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -2401,7 +2563,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[BabySergeant]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2419,7 +2581,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -2434,7 +2596,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2457,7 +2619,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
@@ -2469,7 +2631,7 @@
         <v>70</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>70</v>
@@ -2482,7 +2644,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Castor-1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2500,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -2518,7 +2680,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2533,7 +2695,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -2548,7 +2710,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2566,7 +2728,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -2584,7 +2746,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2602,7 +2764,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -2620,7 +2782,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2641,7 +2803,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -2662,7 +2824,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2686,7 +2848,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2719,7 +2881,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[F1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2737,7 +2899,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2755,7 +2917,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2773,7 +2935,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -2791,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -2812,7 +2974,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2833,7 +2995,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -2854,7 +3016,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>139</v>
       </c>
@@ -2875,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2893,7 +3055,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -2911,7 +3073,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +3106,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[H1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -2959,7 +3121,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -2974,7 +3136,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3001,7 +3163,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -3016,7 +3178,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3205,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2X]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -3070,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -3097,7 +3259,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -3115,7 +3277,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -3133,7 +3295,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3145,7 +3307,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3157,7 +3319,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3178,7 +3340,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -3196,7 +3358,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -3211,7 +3373,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -3226,7 +3388,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -3250,7 +3412,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -3274,7 +3436,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3307,7 +3469,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR101]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -3340,7 +3502,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR105]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3535,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR79]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -3391,7 +3553,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -3412,7 +3574,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -3427,7 +3589,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3622,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR89]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -3481,7 +3643,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -3502,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3520,7 +3682,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -3547,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>185</v>
       </c>
@@ -3562,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -3577,7 +3739,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>183</v>
       </c>
@@ -3592,7 +3754,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -3607,7 +3769,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -3640,7 +3802,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NAA75_110]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -3652,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -3664,7 +3826,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -3676,7 +3838,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -3696,7 +3858,7 @@
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E92" t="s">
         <v>176</v>
@@ -3708,7 +3870,7 @@
         <v>70</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>70</v>
@@ -3721,7 +3883,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Nike-M5E1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -3739,9 +3901,9 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
@@ -3754,7 +3916,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -3772,7 +3934,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -3790,21 +3952,21 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" t="s">
         <v>214</v>
-      </c>
-      <c r="B97" t="s">
-        <v>215</v>
       </c>
       <c r="K97" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A97&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s">
         <v>81</v>
@@ -3814,9 +3976,9 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B99" t="s">
         <v>81</v>
@@ -3826,9 +3988,9 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>81</v>
@@ -3838,40 +4000,58 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" t="s">
         <v>209</v>
-      </c>
-      <c r="B101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" t="s">
-        <v>210</v>
       </c>
       <c r="E101" t="s">
         <v>73</v>
       </c>
+      <c r="G101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="K101" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A101&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>207</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
       </c>
+      <c r="C102" t="s">
+        <v>356</v>
+      </c>
       <c r="E102" t="s">
-        <v>208</v>
+        <v>355</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A102&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -3895,7 +4075,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -3916,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3937,7 +4117,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -3958,9 +4138,9 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -3969,7 +4149,7 @@
         <v>195</v>
       </c>
       <c r="E107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F107">
         <v>2013</v>
@@ -3979,15 +4159,15 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" t="s">
         <v>223</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="E108" t="s">
-        <v>224</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>70</v>
@@ -3997,84 +4177,84 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" t="s">
         <v>220</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109" t="s">
-        <v>221</v>
       </c>
       <c r="K109" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A109&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" t="s">
         <v>218</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D110" t="s">
-        <v>219</v>
       </c>
       <c r="K110" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A110&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K111" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A111&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K112" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A112&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K113" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A113&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -4083,16 +4263,16 @@
         <v>195</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K114" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A114&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -4102,9 +4282,9 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
         <v>81</v>
@@ -4114,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -4144,7 +4324,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD100]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4177,7 +4357,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD107-117]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4210,9 +4390,9 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD108-118]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -4225,7 +4405,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4236,7 +4416,7 @@
         <v>72</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>70</v>
@@ -4255,7 +4435,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD170]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4465,7 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD180]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4476,7 @@
         <v>72</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>70</v>
@@ -4315,52 +4495,52 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD191]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" t="s">
         <v>238</v>
-      </c>
-      <c r="B124" t="s">
-        <v>65</v>
-      </c>
-      <c r="E124" t="s">
-        <v>239</v>
       </c>
       <c r="K124" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A124&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" t="s">
         <v>236</v>
-      </c>
-      <c r="B125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" t="s">
-        <v>237</v>
       </c>
       <c r="K125" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A125&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" t="s">
         <v>234</v>
-      </c>
-      <c r="B126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E126" t="s">
-        <v>235</v>
       </c>
       <c r="K126" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A126&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>202</v>
       </c>
@@ -4375,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>200</v>
       </c>
@@ -4393,37 +4573,37 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
         <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K129" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A129&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" t="s">
         <v>230</v>
-      </c>
-      <c r="B130" t="s">
-        <v>65</v>
-      </c>
-      <c r="E130" t="s">
-        <v>231</v>
       </c>
       <c r="K130" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A130&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -4441,9 +4621,9 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
         <v>65</v>
@@ -4456,9 +4636,9 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133" t="s">
         <v>65</v>
@@ -4467,7 +4647,7 @@
         <v>195</v>
       </c>
       <c r="E133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133">
         <v>1964</v>
@@ -4477,9 +4657,9 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B134" t="s">
         <v>65</v>
@@ -4488,7 +4668,7 @@
         <v>195</v>
       </c>
       <c r="E134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F134">
         <v>1964</v>
@@ -4498,9 +4678,9 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B135" t="s">
         <v>31</v>
@@ -4519,7 +4699,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -4530,7 +4710,7 @@
         <v>72</v>
       </c>
       <c r="E136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>70</v>
@@ -4549,22 +4729,22 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RL10]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="E137" t="s">
         <v>246</v>
-      </c>
-      <c r="B137" t="s">
-        <v>65</v>
-      </c>
-      <c r="E137" t="s">
-        <v>247</v>
       </c>
       <c r="K137" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A137&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -4594,24 +4774,24 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RS68]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="E139" t="s">
         <v>271</v>
-      </c>
-      <c r="B139" t="s">
-        <v>65</v>
-      </c>
-      <c r="E139" t="s">
-        <v>272</v>
       </c>
       <c r="K139" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A139&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B140" t="s">
         <v>31</v>
@@ -4630,15 +4810,15 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" t="s">
         <v>268</v>
-      </c>
-      <c r="B141" t="s">
-        <v>31</v>
-      </c>
-      <c r="E141" t="s">
-        <v>269</v>
       </c>
       <c r="F141">
         <v>2012</v>
@@ -4648,9 +4828,9 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
         <v>31</v>
@@ -4669,15 +4849,15 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>264</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143" t="s">
         <v>265</v>
-      </c>
-      <c r="B143" t="s">
-        <v>65</v>
-      </c>
-      <c r="E143" t="s">
-        <v>266</v>
       </c>
       <c r="F143">
         <v>1953</v>
@@ -4690,15 +4870,15 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" t="s">
+        <v>65</v>
+      </c>
+      <c r="E144" t="s">
         <v>263</v>
-      </c>
-      <c r="B144" t="s">
-        <v>65</v>
-      </c>
-      <c r="E144" t="s">
-        <v>264</v>
       </c>
       <c r="F144">
         <v>2000</v>
@@ -4708,15 +4888,15 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="E145" t="s">
         <v>261</v>
-      </c>
-      <c r="B145" t="s">
-        <v>65</v>
-      </c>
-      <c r="E145" t="s">
-        <v>262</v>
       </c>
       <c r="F145">
         <v>2000</v>
@@ -4726,15 +4906,15 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" t="s">
         <v>259</v>
-      </c>
-      <c r="B146" t="s">
-        <v>65</v>
-      </c>
-      <c r="D146" t="s">
-        <v>260</v>
       </c>
       <c r="E146" t="s">
         <v>95</v>
@@ -4747,9 +4927,9 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
         <v>81</v>
@@ -4759,15 +4939,15 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>255</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" t="s">
         <v>256</v>
-      </c>
-      <c r="B148" t="s">
-        <v>31</v>
-      </c>
-      <c r="E148" t="s">
-        <v>257</v>
       </c>
       <c r="F148">
         <v>1989</v>
@@ -4780,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -4810,9 +4990,9 @@
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[SSME]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B150" t="s">
         <v>31</v>
@@ -4822,9 +5002,9 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B151" t="s">
         <v>31</v>
@@ -4834,9 +5014,9 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B152" t="s">
         <v>31</v>
@@ -4849,9 +5029,9 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
         <v>31</v>
@@ -4861,9 +5041,9 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B154" t="s">
         <v>31</v>
@@ -4873,9 +5053,9 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
         <v>31</v>
@@ -4885,9 +5065,9 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
@@ -4897,9 +5077,9 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B157" t="s">
         <v>31</v>
@@ -4909,9 +5089,9 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B158" t="s">
         <v>31</v>
@@ -4921,9 +5101,9 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B159" t="s">
         <v>31</v>
@@ -4933,9 +5113,9 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
@@ -4948,9 +5128,9 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
@@ -4963,9 +5143,9 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
         <v>31</v>
@@ -4978,9 +5158,9 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B163" t="s">
         <v>31</v>
@@ -4993,9 +5173,9 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>31</v>
@@ -5008,9 +5188,9 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
         <v>31</v>
@@ -5023,9 +5203,9 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
@@ -5038,9 +5218,9 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" t="s">
         <v>31</v>
@@ -5053,9 +5233,9 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B168" t="s">
         <v>31</v>
@@ -5068,9 +5248,9 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B169" t="s">
         <v>65</v>
@@ -5079,7 +5259,7 @@
         <v>72</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>70</v>
@@ -5092,24 +5272,24 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" t="s">
         <v>304</v>
-      </c>
-      <c r="B170" t="s">
-        <v>65</v>
-      </c>
-      <c r="E170" t="s">
-        <v>305</v>
       </c>
       <c r="K170" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A170&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
@@ -5125,15 +5305,15 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" t="s">
         <v>301</v>
-      </c>
-      <c r="B172" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172" t="s">
-        <v>302</v>
       </c>
       <c r="F172">
         <v>1965</v>
@@ -5146,15 +5326,15 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" t="s">
         <v>299</v>
-      </c>
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173" t="s">
-        <v>300</v>
       </c>
       <c r="F173">
         <v>1989</v>
@@ -5167,9 +5347,9 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
         <v>65</v>
@@ -5185,39 +5365,39 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>295</v>
+      </c>
+      <c r="B175" t="s">
+        <v>65</v>
+      </c>
+      <c r="E175" t="s">
         <v>296</v>
-      </c>
-      <c r="B175" t="s">
-        <v>65</v>
-      </c>
-      <c r="E175" t="s">
-        <v>297</v>
       </c>
       <c r="K175" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A175&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>293</v>
+      </c>
+      <c r="B176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" t="s">
         <v>294</v>
-      </c>
-      <c r="B176" t="s">
-        <v>65</v>
-      </c>
-      <c r="E176" t="s">
-        <v>295</v>
       </c>
       <c r="K176" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A176&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
@@ -5233,9 +5413,9 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B178" t="s">
         <v>65</v>
@@ -5254,27 +5434,27 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K179" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A179&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>288</v>
+      </c>
+      <c r="B180" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180" t="s">
         <v>289</v>
-      </c>
-      <c r="B180" t="s">
-        <v>65</v>
-      </c>
-      <c r="E180" t="s">
-        <v>290</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5284,15 +5464,15 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>286</v>
+      </c>
+      <c r="B181" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" t="s">
         <v>287</v>
-      </c>
-      <c r="B181" t="s">
-        <v>65</v>
-      </c>
-      <c r="E181" t="s">
-        <v>288</v>
       </c>
       <c r="F181">
         <v>1959</v>
@@ -5302,18 +5482,255 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>284</v>
+      </c>
+      <c r="B182" t="s">
+        <v>65</v>
+      </c>
+      <c r="E182" t="s">
         <v>285</v>
-      </c>
-      <c r="B182" t="s">
-        <v>65</v>
-      </c>
-      <c r="E182" t="s">
-        <v>286</v>
       </c>
       <c r="K182" s="1" t="str">
         <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A182&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" t="s">
+        <v>356</v>
+      </c>
+      <c r="K183" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A183&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184" t="s">
+        <v>356</v>
+      </c>
+      <c r="K184" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A184&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" t="s">
+        <v>359</v>
+      </c>
+      <c r="C185" t="s">
+        <v>356</v>
+      </c>
+      <c r="K185" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A185&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="s">
+        <v>356</v>
+      </c>
+      <c r="E186" t="s">
+        <v>363</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K186" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A186&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" t="s">
+        <v>359</v>
+      </c>
+      <c r="C187" t="s">
+        <v>356</v>
+      </c>
+      <c r="E187" t="s">
+        <v>365</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K187" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A187&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" t="s">
+        <v>356</v>
+      </c>
+      <c r="E188" t="s">
+        <v>367</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K188" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A188&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>368</v>
+      </c>
+      <c r="B189" t="s">
+        <v>359</v>
+      </c>
+      <c r="C189" t="s">
+        <v>356</v>
+      </c>
+      <c r="E189" t="s">
+        <v>369</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K189" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A189&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" t="s">
+        <v>371</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A190&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" t="s">
+        <v>356</v>
+      </c>
+      <c r="E191" t="s">
+        <v>373</v>
+      </c>
+      <c r="K191" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A191&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>374</v>
+      </c>
+      <c r="B192" t="s">
+        <v>359</v>
+      </c>
+      <c r="C192" t="s">
+        <v>356</v>
+      </c>
+      <c r="E192" t="s">
+        <v>375</v>
+      </c>
+      <c r="K192" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A192&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" t="s">
+        <v>359</v>
+      </c>
+      <c r="C193" t="s">
+        <v>356</v>
+      </c>
+      <c r="E193" t="s">
+        <v>377</v>
+      </c>
+      <c r="K193" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A193&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>378</v>
+      </c>
+      <c r="B194" t="s">
+        <v>65</v>
+      </c>
+      <c r="C194" t="s">
+        <v>356</v>
+      </c>
+      <c r="E194" t="s">
+        <v>377</v>
+      </c>
+      <c r="K194" s="1" t="str">
+        <f>IF(Table2[[#This Row],[Added to RP1]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A194&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
     </row>
@@ -5326,7 +5743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5340,7 +5757,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" t="str">
         <f>"!PART["&amp;A1&amp;"] {}"</f>
@@ -5349,7 +5766,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B2" t="str">
         <f>"!PART["&amp;A2&amp;"] {}"</f>
@@ -5358,7 +5775,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" t="str">
         <f>"!PART["&amp;A3&amp;"] {}"</f>
@@ -5367,11 +5784,179 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" t="str">
         <f>"!PART["&amp;A4&amp;"] {}"</f>
         <v>!PART[rn_junoii_sgt_3_dec] {}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Engine List.xlsx
+++ b/Engine List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\ROEngines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92787D0B-0FFF-492E-B18E-30181A022ADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576E5C8-2518-4279-846A-2890A431DF02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="469">
   <si>
     <t>engineType</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>S2_253</t>
+  </si>
+  <si>
+    <t>New PartName</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1535,6 +1538,10 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1636,28 +1643,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N208" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N208" xr:uid="{706ADF05-A576-48C0-A74A-211533E4316B}"/>
-  <sortState ref="A2:M209">
-    <sortCondition ref="A1:A209"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:O208" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:O208" xr:uid="{D8A4B5D7-661A-45F8-85FA-D34EA2D03167}"/>
+  <sortState ref="A2:O208">
+    <sortCondition ref="A1:A208"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mods" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Craft" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Year" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Include" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mod Choice" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PartName" dataDxfId="5"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mods" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Craft" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Year" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Include" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mod Choice" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PartName" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="New PartName" dataDxfId="5">
+      <calculatedColumnFormula>IF(I2="","",IF(ISERROR(FIND("-",I2,FIND("-",I2,1)+1)),I2,LEFT(I2,FIND("-",I2,FIND("-",I2,1)+1)-1)))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Added to RP1" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="REMOVE?" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="REMOVE" dataDxfId="1">
       <calculatedColumnFormula>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{2F73DAB8-E40A-47E9-A710-3D3BAD6159FD}" name="PatchManager" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PatchManager" dataDxfId="0">
       <calculatedColumnFormula>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2196,11 +2206,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2213,13 +2221,14 @@
     <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -2248,22 +2257,25 @@
         <v>352</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>463</v>
       </c>
@@ -2288,20 +2300,24 @@
       <c r="I2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="str">
+        <f>IF(I2="","",IF(ISERROR(FIND("-",I2,FIND("-",I2,1)+1)),I2,LEFT(I2,FIND("-",I2,FIND("-",I2,1)+1)-1)))</f>
+        <v>ROE-A4</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="1" t="str">
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[A4]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="O2" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2322,7 +2338,7 @@
 }</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2347,20 +2363,24 @@
       <c r="I3" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="str">
+        <f>IF(I3="","",IF(ISERROR(FIND("-",I3,FIND("-",I3,1)+1)),I3,LEFT(I3,FIND("-",I3,FIND("-",I3,1)+1)-1)))</f>
+        <v>ROE-Aerobee</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="1" t="str">
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A3&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Aerobee]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="O3" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2381,7 +2401,7 @@
 }</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -2403,30 +2423,34 @@
       <c r="I4" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="str">
+        <f>IF(I4="","",IF(ISERROR(FIND("-",I4,FIND("-",I4,1)+1)),I4,LEFT(I4,FIND("-",I4,FIND("-",I4,1)+1)-1)))</f>
+        <v>ROE-18KS7800</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A4&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N4" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -2448,30 +2472,34 @@
       <c r="I5" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+      <c r="J5" s="2" t="str">
+        <f>IF(I5="","",IF(ISERROR(FIND("-",I5,FIND("-",I5,1)+1)),I5,LEFT(I5,FIND("-",I5,FIND("-",I5,1)+1)-1)))</f>
+        <v>ROE-25KS18000</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A5&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N5" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2485,24 +2513,28 @@
         <v>1996</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="M6" s="1" t="str">
+      <c r="J6" s="2" t="str">
+        <f>IF(I6="","",IF(ISERROR(FIND("-",I6,FIND("-",I6,1)+1)),I6,LEFT(I6,FIND("-",I6,FIND("-",I6,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N6" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A6&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N6" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2527,20 +2559,24 @@
       <c r="I7" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
+      <c r="J7" s="2" t="str">
+        <f>IF(I7="","",IF(ISERROR(FIND("-",I7,FIND("-",I7,1)+1)),I7,LEFT(I7,FIND("-",I7,FIND("-",I7,1)+1)-1)))</f>
+        <v>ROE-Agena8048</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="1" t="str">
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A7&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Agena]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="O7" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2561,7 +2597,7 @@
 }</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2586,30 +2622,34 @@
       <c r="I8" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
+      <c r="J8" s="2" t="str">
+        <f>IF(I8="","",IF(ISERROR(FIND("-",I8,FIND("-",I8,1)+1)),I8,LEFT(I8,FIND("-",I8,FIND("-",I8,1)+1)-1)))</f>
+        <v>ROE-Agena8096</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A8&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N8" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2623,24 +2663,28 @@
         <v>1965</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="M9" s="1" t="str">
+      <c r="J9" s="2" t="str">
+        <f>IF(I9="","",IF(ISERROR(FIND("-",I9,FIND("-",I9,1)+1)),I9,LEFT(I9,FIND("-",I9,FIND("-",I9,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N9" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A9&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N9" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2665,20 +2709,24 @@
       <c r="I10" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
+      <c r="J10" s="2" t="str">
+        <f>IF(I10="","",IF(ISERROR(FIND("-",I10,FIND("-",I10,1)+1)),I10,LEFT(I10,FIND("-",I10,FIND("-",I10,1)+1)-1)))</f>
+        <v>ROE-AJ10</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="1" t="str">
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*|SSTU-SC-B-SM]&amp;#engineType["&amp;A10&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*|SSTU-SC-B-SM]&amp;#engineType[AJ10_137]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="O10" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2699,7 +2747,7 @@
 }</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2724,20 +2772,24 @@
       <c r="I11" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>68</v>
+      <c r="J11" s="2" t="str">
+        <f>IF(I11="","",IF(ISERROR(FIND("-",I11,FIND("-",I11,1)+1)),I11,LEFT(I11,FIND("-",I11,FIND("-",I11,1)+1)-1)))</f>
+        <v>ROE-AJ10</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="1" t="str">
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A11&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_190]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="O11" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2758,7 +2810,7 @@
 }</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2780,20 +2832,24 @@
       <c r="I12" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>68</v>
+      <c r="J12" s="2" t="str">
+        <f>IF(I12="","",IF(ISERROR(FIND("-",I12,FIND("-",I12,1)+1)),I12,LEFT(I12,FIND("-",I12,FIND("-",I12,1)+1)-1)))</f>
+        <v>ROE-AJ10Adv</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="1" t="str">
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A12&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Adv]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="O12" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2814,7 +2870,7 @@
 }</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2836,20 +2892,24 @@
       <c r="I13" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
+      <c r="J13" s="2" t="str">
+        <f>IF(I13="","",IF(ISERROR(FIND("-",I13,FIND("-",I13,1)+1)),I13,LEFT(I13,FIND("-",I13,FIND("-",I13,1)+1)-1)))</f>
+        <v>ROE-AJ10Early</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="1" t="str">
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A13&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Early]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="O13" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2870,7 +2930,7 @@
 }</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2892,20 +2952,24 @@
       <c r="I14" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>68</v>
+      <c r="J14" s="2" t="str">
+        <f>IF(I14="","",IF(ISERROR(FIND("-",I14,FIND("-",I14,1)+1)),I14,LEFT(I14,FIND("-",I14,FIND("-",I14,1)+1)-1)))</f>
+        <v>ROE-AJ10Mid</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="1" t="str">
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A14&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ10_Mid]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="O14" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2926,7 +2990,7 @@
 }</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -2951,20 +3015,24 @@
       <c r="I15" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>68</v>
+      <c r="J15" s="2" t="str">
+        <f>IF(I15="","",IF(ISERROR(FIND("-",I15,FIND("-",I15,1)+1)),I15,LEFT(I15,FIND("-",I15,FIND("-",I15,1)+1)-1)))</f>
+        <v>ROE-AJ260FLA</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="1" t="str">
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A15&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[AJ260]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="O15" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2985,7 +3053,7 @@
 }</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3010,30 +3078,34 @@
       <c r="I16" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>68</v>
+      <c r="J16" s="2" t="str">
+        <f>IF(I16="","",IF(ISERROR(FIND("-",I16,FIND("-",I16,1)+1)),I16,LEFT(I16,FIND("-",I16,FIND("-",I16,1)+1)-1)))</f>
+        <v>ROE-AJ260FLF</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="L16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A16&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N16" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3058,31 +3130,35 @@
       <c r="I17" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>68</v>
+      <c r="J17" s="2" t="str">
+        <f>IF(I17="","",IF(ISERROR(FIND("-",I17,FIND("-",I17,1)+1)),I17,LEFT(I17,FIND("-",I17,FIND("-",I17,1)+1)-1)))</f>
+        <v>ROE-AJ260SLA</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="1" t="str">
+      <c r="L17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A17&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N17" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3107,30 +3183,34 @@
       <c r="I18" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>68</v>
+      <c r="J18" s="2" t="str">
+        <f>IF(I18="","",IF(ISERROR(FIND("-",I18,FIND("-",I18,1)+1)),I18,LEFT(I18,FIND("-",I18,FIND("-",I18,1)+1)-1)))</f>
+        <v>ROE-AJ260SLF</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="L18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A18&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N18" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3150,24 +3230,28 @@
         <v>68</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="M19" s="1" t="str">
+      <c r="J19" s="2" t="str">
+        <f>IF(I19="","",IF(ISERROR(FIND("-",I19,FIND("-",I19,1)+1)),I19,LEFT(I19,FIND("-",I19,FIND("-",I19,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N19" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A19&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N19" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -3187,24 +3271,28 @@
         <v>1974</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="M20" s="1" t="str">
+      <c r="J20" s="2" t="str">
+        <f>IF(I20="","",IF(ISERROR(FIND("-",I20,FIND("-",I20,1)+1)),I20,LEFT(I20,FIND("-",I20,FIND("-",I20,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N20" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A20&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N20" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3221,24 +3309,28 @@
         <v>1960</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="M21" s="1" t="str">
+      <c r="J21" s="2" t="str">
+        <f>IF(I21="","",IF(ISERROR(FIND("-",I21,FIND("-",I21,1)+1)),I21,LEFT(I21,FIND("-",I21,FIND("-",I21,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N21" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A21&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N21" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3258,24 +3350,28 @@
         <v>68</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="M22" s="1" t="str">
+      <c r="J22" s="2" t="str">
+        <f>IF(I22="","",IF(ISERROR(FIND("-",I22,FIND("-",I22,1)+1)),I22,LEFT(I22,FIND("-",I22,FIND("-",I22,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N22" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A22&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N22" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3292,24 +3388,28 @@
         <v>1972</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="M23" s="1" t="str">
+      <c r="J23" s="2" t="str">
+        <f>IF(I23="","",IF(ISERROR(FIND("-",I23,FIND("-",I23,1)+1)),I23,LEFT(I23,FIND("-",I23,FIND("-",I23,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N23" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A23&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N23" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -3337,20 +3437,24 @@
       <c r="I24" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
+      <c r="J24" s="2" t="str">
+        <f>IF(I24="","",IF(ISERROR(FIND("-",I24,FIND("-",I24,1)+1)),I24,LEFT(I24,FIND("-",I24,FIND("-",I24,1)+1)-1)))</f>
+        <v>ROE-Altair</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="1" t="str">
+      <c r="L24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A24&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Altair]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N24" s="1" t="str">
+      <c r="O24" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -3371,9 +3475,9 @@
 }</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -3382,13 +3486,13 @@
         <v>386</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>68</v>
@@ -3397,22 +3501,92 @@
         <v>333</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IF(I25="","",IF(ISERROR(FIND("-",I25,FIND("-",I25,1)+1)),I25,LEFT(I25,FIND("-",I25,FIND("-",I25,1)+1)-1)))</f>
+        <v>ROE-AltairII</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A25&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Altair-II]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/Altair-II.cfg
+ patchName = Altair-II
+ shortDescr = Altair-II
+ longDescr = Removes the duplicated Altair-II engines from other mods.
+ installedWithMod = True
+}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>1965</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A25&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="J26" s="2" t="str">
+        <f>IF(I26="","",IF(ISERROR(FIND("-",I26,FIND("-",I26,1)+1)),I26,LEFT(I26,FIND("-",I26,FIND("-",I26,1)+1)-1)))</f>
+        <v>ROE-AltairIII</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A26&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Altair-III]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N25" s="1" t="str">
+      <c r="O26" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -3433,69 +3607,7 @@
 }</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26">
-        <v>1963</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A26&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Altair-II]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
-      </c>
-      <c r="N26" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v>PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/Altair-II.cfg
- patchName = Altair-II
- shortDescr = Altair-II
- longDescr = Removes the duplicated Altair-II engines from other mods.
- installedWithMod = True
-}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3515,24 +3627,28 @@
         <v>1960</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="M27" s="1" t="str">
+      <c r="J27" s="2" t="str">
+        <f>IF(I27="","",IF(ISERROR(FIND("-",I27,FIND("-",I27,1)+1)),I27,LEFT(I27,FIND("-",I27,FIND("-",I27,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N27" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A27&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N27" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3555,24 +3671,28 @@
         <v>68</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="M28" s="1" t="str">
+      <c r="J28" s="2" t="str">
+        <f>IF(I28="","",IF(ISERROR(FIND("-",I28,FIND("-",I28,1)+1)),I28,LEFT(I28,FIND("-",I28,FIND("-",I28,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N28" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A28&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N28" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3589,24 +3709,28 @@
         <v>1979</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="M29" s="1" t="str">
+      <c r="J29" s="2" t="str">
+        <f>IF(I29="","",IF(ISERROR(FIND("-",I29,FIND("-",I29,1)+1)),I29,LEFT(I29,FIND("-",I29,FIND("-",I29,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N29" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A29&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N29" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3623,24 +3747,28 @@
         <v>2018</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="M30" s="1" t="str">
+      <c r="J30" s="2" t="str">
+        <f>IF(I30="","",IF(ISERROR(FIND("-",I30,FIND("-",I30,1)+1)),I30,LEFT(I30,FIND("-",I30,FIND("-",I30,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N30" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A30&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N30" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3657,24 +3785,28 @@
         <v>1968</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="M31" s="1" t="str">
+      <c r="J31" s="2" t="str">
+        <f>IF(I31="","",IF(ISERROR(FIND("-",I31,FIND("-",I31,1)+1)),I31,LEFT(I31,FIND("-",I31,FIND("-",I31,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N31" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A31&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N31" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -3699,20 +3831,24 @@
       <c r="I32" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
+      <c r="J32" s="2" t="str">
+        <f>IF(I32="","",IF(ISERROR(FIND("-",I32,FIND("-",I32,1)+1)),I32,LEFT(I32,FIND("-",I32,FIND("-",I32,1)+1)-1)))</f>
+        <v>ROE-BabySergeant</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M32" s="1" t="str">
+      <c r="L32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A32&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[BabySergeant]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="O32" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -3733,7 +3869,7 @@
 }</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -3758,30 +3894,34 @@
       <c r="I33" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>68</v>
+      <c r="J33" s="2" t="str">
+        <f>IF(I33="","",IF(ISERROR(FIND("-",I33,FIND("-",I33,1)+1)),I33,LEFT(I33,FIND("-",I33,FIND("-",I33,1)+1)-1)))</f>
+        <v>ROE-BabySergeantX3</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="L33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A33&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N33" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -3806,30 +3946,34 @@
       <c r="I34" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>68</v>
+      <c r="J34" s="2" t="str">
+        <f>IF(I34="","",IF(ISERROR(FIND("-",I34,FIND("-",I34,1)+1)),I34,LEFT(I34,FIND("-",I34,FIND("-",I34,1)+1)-1)))</f>
+        <v>ROE-BabySergeantX11</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="L34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A34&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N34" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>337</v>
       </c>
@@ -3848,20 +3992,24 @@
       <c r="I35" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>68</v>
+      <c r="J35" s="2" t="str">
+        <f>IF(I35="","",IF(ISERROR(FIND("-",I35,FIND("-",I35,1)+1)),I35,LEFT(I35,FIND("-",I35,FIND("-",I35,1)+1)-1)))</f>
+        <v>ROE-BE3</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="1" t="str">
+      <c r="L35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A35&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[BE-3]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="O35" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -3882,7 +4030,7 @@
 }</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3896,24 +4044,28 @@
         <v>83</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="M36" s="1" t="str">
+      <c r="J36" s="2" t="str">
+        <f>IF(I36="","",IF(ISERROR(FIND("-",I36,FIND("-",I36,1)+1)),I36,LEFT(I36,FIND("-",I36,FIND("-",I36,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N36" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A36&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N36" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3924,24 +4076,28 @@
         <v>80</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="M37" s="1" t="str">
+      <c r="J37" s="2" t="str">
+        <f>IF(I37="","",IF(ISERROR(FIND("-",I37,FIND("-",I37,1)+1)),I37,LEFT(I37,FIND("-",I37,FIND("-",I37,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N37" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A37&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N37" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -3952,24 +4108,28 @@
         <v>115</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="M38" s="1" t="str">
+      <c r="J38" s="2" t="str">
+        <f>IF(I38="","",IF(ISERROR(FIND("-",I38,FIND("-",I38,1)+1)),I38,LEFT(I38,FIND("-",I38,FIND("-",I38,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N38" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A38&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N38" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3994,20 +4154,24 @@
       <c r="I39" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>68</v>
+      <c r="J39" s="2" t="str">
+        <f>IF(I39="","",IF(ISERROR(FIND("-",I39,FIND("-",I39,1)+1)),I39,LEFT(I39,FIND("-",I39,FIND("-",I39,1)+1)-1)))</f>
+        <v>ROE-Castor1</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="1" t="str">
+      <c r="L39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A39&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Castor-1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="O39" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4028,7 +4192,7 @@
 }</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -4042,24 +4206,28 @@
         <v>1989</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="M40" s="1" t="str">
+      <c r="J40" s="2" t="str">
+        <f>IF(I40="","",IF(ISERROR(FIND("-",I40,FIND("-",I40,1)+1)),I40,LEFT(I40,FIND("-",I40,FIND("-",I40,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N40" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A40&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N40" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -4084,20 +4252,24 @@
       <c r="I41" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>68</v>
+      <c r="J41" s="2" t="str">
+        <f>IF(I41="","",IF(ISERROR(FIND("-",I41,FIND("-",I41,1)+1)),I41,LEFT(I41,FIND("-",I41,FIND("-",I41,1)+1)-1)))</f>
+        <v>ROE-Castor2</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M41" s="1" t="str">
+      <c r="L41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A41&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Castor-2]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="O41" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4118,7 +4290,7 @@
 }</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -4129,24 +4301,28 @@
         <v>2013</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="M42" s="1" t="str">
+      <c r="J42" s="2" t="str">
+        <f>IF(I42="","",IF(ISERROR(FIND("-",I42,FIND("-",I42,1)+1)),I42,LEFT(I42,FIND("-",I42,FIND("-",I42,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N42" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A42&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N42" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -4157,24 +4333,28 @@
         <v>2013</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="M43" s="1" t="str">
+      <c r="J43" s="2" t="str">
+        <f>IF(I43="","",IF(ISERROR(FIND("-",I43,FIND("-",I43,1)+1)),I43,LEFT(I43,FIND("-",I43,FIND("-",I43,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N43" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A43&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N43" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -4188,24 +4368,28 @@
         <v>2013</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="M44" s="1" t="str">
+      <c r="J44" s="2" t="str">
+        <f>IF(I44="","",IF(ISERROR(FIND("-",I44,FIND("-",I44,1)+1)),I44,LEFT(I44,FIND("-",I44,FIND("-",I44,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N44" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A44&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N44" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -4219,24 +4403,28 @@
         <v>1975</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="M45" s="1" t="str">
+      <c r="J45" s="2" t="str">
+        <f>IF(I45="","",IF(ISERROR(FIND("-",I45,FIND("-",I45,1)+1)),I45,LEFT(I45,FIND("-",I45,FIND("-",I45,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N45" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A45&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N45" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4250,24 +4438,28 @@
         <v>1989</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="M46" s="1" t="str">
+      <c r="J46" s="2" t="str">
+        <f>IF(I46="","",IF(ISERROR(FIND("-",I46,FIND("-",I46,1)+1)),I46,LEFT(I46,FIND("-",I46,FIND("-",I46,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N46" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A46&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N46" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -4281,24 +4473,28 @@
         <v>2001</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="M47" s="1" t="str">
+      <c r="J47" s="2" t="str">
+        <f>IF(I47="","",IF(ISERROR(FIND("-",I47,FIND("-",I47,1)+1)),I47,LEFT(I47,FIND("-",I47,FIND("-",I47,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N47" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A47&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N47" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4315,24 +4511,28 @@
         <v>1970</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="M48" s="1" t="str">
+      <c r="J48" s="2" t="str">
+        <f>IF(I48="","",IF(ISERROR(FIND("-",I48,FIND("-",I48,1)+1)),I48,LEFT(I48,FIND("-",I48,FIND("-",I48,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N48" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A48&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N48" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4354,20 +4554,24 @@
       <c r="I49" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>68</v>
+      <c r="J49" s="2" t="str">
+        <f>IF(I49="","",IF(ISERROR(FIND("-",I49,FIND("-",I49,1)+1)),I49,LEFT(I49,FIND("-",I49,FIND("-",I49,1)+1)-1)))</f>
+        <v>ROE-E1</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M49" s="1" t="str">
+      <c r="L49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N49" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A49&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[E1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N49" s="1" t="str">
+      <c r="O49" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4388,7 +4592,7 @@
 }</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4408,24 +4612,28 @@
         <v>2002</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="M50" s="1" t="str">
+      <c r="J50" s="2" t="str">
+        <f>IF(I50="","",IF(ISERROR(FIND("-",I50,FIND("-",I50,1)+1)),I50,LEFT(I50,FIND("-",I50,FIND("-",I50,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N50" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A50&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N50" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4450,20 +4658,24 @@
       <c r="I51" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>68</v>
+      <c r="J51" s="2" t="str">
+        <f>IF(I51="","",IF(ISERROR(FIND("-",I51,FIND("-",I51,1)+1)),I51,LEFT(I51,FIND("-",I51,FIND("-",I51,1)+1)-1)))</f>
+        <v>ROE-F1</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M51" s="1" t="str">
+      <c r="L51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N51" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A51&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[F1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N51" s="1" t="str">
+      <c r="O51" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4484,7 +4696,7 @@
 }</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -4498,24 +4710,28 @@
         <v>1977</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="M52" s="1" t="str">
+      <c r="J52" s="2" t="str">
+        <f>IF(I52="","",IF(ISERROR(FIND("-",I52,FIND("-",I52,1)+1)),I52,LEFT(I52,FIND("-",I52,FIND("-",I52,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N52" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A52&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N52" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -4529,24 +4745,28 @@
         <v>2022</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="M53" s="1" t="str">
+      <c r="J53" s="2" t="str">
+        <f>IF(I53="","",IF(ISERROR(FIND("-",I53,FIND("-",I53,1)+1)),I53,LEFT(I53,FIND("-",I53,FIND("-",I53,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N53" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A53&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N53" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -4560,24 +4780,28 @@
         <v>1956</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="M54" s="1" t="str">
+      <c r="J54" s="2" t="str">
+        <f>IF(I54="","",IF(ISERROR(FIND("-",I54,FIND("-",I54,1)+1)),I54,LEFT(I54,FIND("-",I54,FIND("-",I54,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N54" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A54&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N54" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -4591,24 +4815,28 @@
         <v>1956</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="M55" s="1" t="str">
+      <c r="J55" s="2" t="str">
+        <f>IF(I55="","",IF(ISERROR(FIND("-",I55,FIND("-",I55,1)+1)),I55,LEFT(I55,FIND("-",I55,FIND("-",I55,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N55" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A55&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N55" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -4633,20 +4861,24 @@
       <c r="I56" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>68</v>
+      <c r="J56" s="2" t="str">
+        <f>IF(I56="","",IF(ISERROR(FIND("-",I56,FIND("-",I56,1)+1)),I56,LEFT(I56,FIND("-",I56,FIND("-",I56,1)+1)-1)))</f>
+        <v>ROE-GCRC</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M56" s="1" t="str">
+      <c r="L56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N56" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A56&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[GCRC]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N56" s="1" t="str">
+      <c r="O56" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4667,7 +4899,7 @@
 }</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -4684,24 +4916,28 @@
         <v>68</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="M57" s="1" t="str">
+      <c r="J57" s="2" t="str">
+        <f>IF(I57="","",IF(ISERROR(FIND("-",I57,FIND("-",I57,1)+1)),I57,LEFT(I57,FIND("-",I57,FIND("-",I57,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N57" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A57&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N57" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -4718,24 +4954,28 @@
         <v>68</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="M58" s="1" t="str">
+      <c r="J58" s="2" t="str">
+        <f>IF(I58="","",IF(ISERROR(FIND("-",I58,FIND("-",I58,1)+1)),I58,LEFT(I58,FIND("-",I58,FIND("-",I58,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N58" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A58&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N58" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -4752,24 +4992,28 @@
         <v>68</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="M59" s="1" t="str">
+      <c r="J59" s="2" t="str">
+        <f>IF(I59="","",IF(ISERROR(FIND("-",I59,FIND("-",I59,1)+1)),I59,LEFT(I59,FIND("-",I59,FIND("-",I59,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N59" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A59&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N59" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -4783,24 +5027,28 @@
         <v>2018</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="M60" s="1" t="str">
+      <c r="J60" s="2" t="str">
+        <f>IF(I60="","",IF(ISERROR(FIND("-",I60,FIND("-",I60,1)+1)),I60,LEFT(I60,FIND("-",I60,FIND("-",I60,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N60" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A60&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N60" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -4814,24 +5062,28 @@
         <v>2020</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="M61" s="1" t="str">
+      <c r="J61" s="2" t="str">
+        <f>IF(I61="","",IF(ISERROR(FIND("-",I61,FIND("-",I61,1)+1)),I61,LEFT(I61,FIND("-",I61,FIND("-",I61,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N61" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A61&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N61" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -4856,20 +5108,24 @@
       <c r="I62" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>68</v>
+      <c r="J62" s="2" t="str">
+        <f>IF(I62="","",IF(ISERROR(FIND("-",I62,FIND("-",I62,1)+1)),I62,LEFT(I62,FIND("-",I62,FIND("-",I62,1)+1)-1)))</f>
+        <v>ROE-H1C</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M62" s="1" t="str">
+      <c r="L62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N62" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A62&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[H1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N62" s="1" t="str">
+      <c r="O62" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -4890,7 +5146,7 @@
 }</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -4915,30 +5171,34 @@
       <c r="I63" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>68</v>
+      <c r="J63" s="2" t="str">
+        <f>IF(I63="","",IF(ISERROR(FIND("-",I63,FIND("-",I63,1)+1)),I63,LEFT(I63,FIND("-",I63,FIND("-",I63,1)+1)-1)))</f>
+        <v>ROE-H1D</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M63" s="1" t="str">
+      <c r="L63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N63" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A63&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N63" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -4949,24 +5209,28 @@
         <v>130</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="M64" s="1" t="str">
+      <c r="J64" s="2" t="str">
+        <f>IF(I64="","",IF(ISERROR(FIND("-",I64,FIND("-",I64,1)+1)),I64,LEFT(I64,FIND("-",I64,FIND("-",I64,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N64" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A64&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N64" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -4977,24 +5241,28 @@
         <v>128</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="M65" s="1" t="str">
+      <c r="J65" s="2" t="str">
+        <f>IF(I65="","",IF(ISERROR(FIND("-",I65,FIND("-",I65,1)+1)),I65,LEFT(I65,FIND("-",I65,FIND("-",I65,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N65" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A65&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N65" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5013,20 +5281,24 @@
       <c r="I66" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>68</v>
+      <c r="J66" s="2" t="str">
+        <f>IF(I66="","",IF(ISERROR(FIND("-",I66,FIND("-",I66,1)+1)),I66,LEFT(I66,FIND("-",I66,FIND("-",I66,1)+1)-1)))</f>
+        <v>ROE-J2</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M66" s="1" t="str">
+      <c r="L66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N66" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A66&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N66" s="1" t="str">
+      <c r="O66" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5047,7 +5319,7 @@
 }</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -5058,24 +5330,28 @@
         <v>32</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="M67" s="1" t="str">
+      <c r="J67" s="2" t="str">
+        <f>IF(I67="","",IF(ISERROR(FIND("-",I67,FIND("-",I67,1)+1)),I67,LEFT(I67,FIND("-",I67,FIND("-",I67,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N67" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A67&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N67" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -5094,20 +5370,24 @@
       <c r="I68" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>68</v>
+      <c r="J68" s="2" t="str">
+        <f>IF(I68="","",IF(ISERROR(FIND("-",I68,FIND("-",I68,1)+1)),I68,LEFT(I68,FIND("-",I68,FIND("-",I68,1)+1)-1)))</f>
+        <v>ROE-J2X</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M68" s="1" t="str">
+      <c r="L68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N68" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A68&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[J2X]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N68" s="1" t="str">
+      <c r="O68" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5128,7 +5408,7 @@
 }</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -5145,24 +5425,28 @@
         <v>1963</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="M69" s="1" t="str">
+      <c r="J69" s="2" t="str">
+        <f>IF(I69="","",IF(ISERROR(FIND("-",I69,FIND("-",I69,1)+1)),I69,LEFT(I69,FIND("-",I69,FIND("-",I69,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N69" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A69&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N69" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -5185,24 +5469,28 @@
         <v>32</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="M70" s="1" t="str">
+      <c r="J70" s="2" t="str">
+        <f>IF(I70="","",IF(ISERROR(FIND("-",I70,FIND("-",I70,1)+1)),I70,LEFT(I70,FIND("-",I70,FIND("-",I70,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N70" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A70&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N70" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -5216,24 +5504,28 @@
         <v>2006</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="M71" s="1" t="str">
+      <c r="J71" s="2" t="str">
+        <f>IF(I71="","",IF(ISERROR(FIND("-",I71,FIND("-",I71,1)+1)),I71,LEFT(I71,FIND("-",I71,FIND("-",I71,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N71" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A71&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N71" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -5247,24 +5539,28 @@
         <v>2008</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="M72" s="1" t="str">
+      <c r="J72" s="2" t="str">
+        <f>IF(I72="","",IF(ISERROR(FIND("-",I72,FIND("-",I72,1)+1)),I72,LEFT(I72,FIND("-",I72,FIND("-",I72,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N72" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A72&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N72" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5272,24 +5568,28 @@
         <v>79</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="M73" s="1" t="str">
+      <c r="J73" s="2" t="str">
+        <f>IF(I73="","",IF(ISERROR(FIND("-",I73,FIND("-",I73,1)+1)),I73,LEFT(I73,FIND("-",I73,FIND("-",I73,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N73" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A73&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N73" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -5297,24 +5597,28 @@
         <v>79</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="M74" s="1" t="str">
+      <c r="J74" s="2" t="str">
+        <f>IF(I74="","",IF(ISERROR(FIND("-",I74,FIND("-",I74,1)+1)),I74,LEFT(I74,FIND("-",I74,FIND("-",I74,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N74" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A74&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N74" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -5331,24 +5635,28 @@
         <v>1966</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="M75" s="1" t="str">
+      <c r="J75" s="2" t="str">
+        <f>IF(I75="","",IF(ISERROR(FIND("-",I75,FIND("-",I75,1)+1)),I75,LEFT(I75,FIND("-",I75,FIND("-",I75,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N75" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A75&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N75" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -5362,24 +5670,28 @@
         <v>167</v>
       </c>
       <c r="I76" s="2"/>
-      <c r="M76" s="1" t="str">
+      <c r="J76" s="2" t="str">
+        <f>IF(I76="","",IF(ISERROR(FIND("-",I76,FIND("-",I76,1)+1)),I76,LEFT(I76,FIND("-",I76,FIND("-",I76,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N76" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A76&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N76" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -5390,24 +5702,28 @@
         <v>165</v>
       </c>
       <c r="I77" s="2"/>
-      <c r="M77" s="1" t="str">
+      <c r="J77" s="2" t="str">
+        <f>IF(I77="","",IF(ISERROR(FIND("-",I77,FIND("-",I77,1)+1)),I77,LEFT(I77,FIND("-",I77,FIND("-",I77,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N77" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A77&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N77" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -5418,24 +5734,28 @@
         <v>163</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="M78" s="1" t="str">
+      <c r="J78" s="2" t="str">
+        <f>IF(I78="","",IF(ISERROR(FIND("-",I78,FIND("-",I78,1)+1)),I78,LEFT(I78,FIND("-",I78,FIND("-",I78,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N78" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A78&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N78" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>466</v>
       </c>
@@ -5457,20 +5777,24 @@
       <c r="I79" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>68</v>
+      <c r="J79" s="2" t="str">
+        <f>IF(I79="","",IF(ISERROR(FIND("-",I79,FIND("-",I79,1)+1)),I79,LEFT(I79,FIND("-",I79,FIND("-",I79,1)+1)-1)))</f>
+        <v>ROE-LEROS1B</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M79" s="1" t="str">
+      <c r="L79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N79" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A79&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LEROS]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N79" s="1" t="str">
+      <c r="O79" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5491,7 +5815,7 @@
 }</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>436</v>
       </c>
@@ -5513,31 +5837,35 @@
       <c r="I80" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>68</v>
+      <c r="J80" s="2" t="str">
+        <f>IF(I80="","",IF(ISERROR(FIND("-",I80,FIND("-",I80,1)+1)),I80,LEFT(I80,FIND("-",I80,FIND("-",I80,1)+1)-1)))</f>
+        <v>ROE-LEROS4</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="1" t="str">
+      <c r="L80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A80&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N80" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5557,24 +5885,28 @@
         <v>70</v>
       </c>
       <c r="I81" s="2"/>
-      <c r="M81" s="1" t="str">
+      <c r="J81" s="2" t="str">
+        <f>IF(I81="","",IF(ISERROR(FIND("-",I81,FIND("-",I81,1)+1)),I81,LEFT(I81,FIND("-",I81,FIND("-",I81,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N81" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A81&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N81" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -5594,24 +5926,28 @@
         <v>70</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="M82" s="1" t="str">
+      <c r="J82" s="2" t="str">
+        <f>IF(I82="","",IF(ISERROR(FIND("-",I82,FIND("-",I82,1)+1)),I82,LEFT(I82,FIND("-",I82,FIND("-",I82,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N82" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A82&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N82" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -5636,20 +5972,24 @@
       <c r="I83" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>68</v>
+      <c r="J83" s="2" t="str">
+        <f>IF(I83="","",IF(ISERROR(FIND("-",I83,FIND("-",I83,1)+1)),I83,LEFT(I83,FIND("-",I83,FIND("-",I83,1)+1)-1)))</f>
+        <v>ROE-LR101</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M83" s="1" t="str">
+      <c r="L83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N83" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A83&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR101]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N83" s="1" t="str">
+      <c r="O83" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5670,7 +6010,7 @@
 }</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5695,20 +6035,24 @@
       <c r="I84" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>68</v>
+      <c r="J84" s="2" t="str">
+        <f>IF(I84="","",IF(ISERROR(FIND("-",I84,FIND("-",I84,1)+1)),I84,LEFT(I84,FIND("-",I84,FIND("-",I84,1)+1)-1)))</f>
+        <v>ROE-LR105</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M84" s="1" t="str">
+      <c r="L84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N84" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A84&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR105]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N84" s="1" t="str">
+      <c r="O84" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5729,7 +6073,7 @@
 }</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -5754,20 +6098,24 @@
       <c r="I85" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>68</v>
+      <c r="J85" s="2" t="str">
+        <f>IF(I85="","",IF(ISERROR(FIND("-",I85,FIND("-",I85,1)+1)),I85,LEFT(I85,FIND("-",I85,FIND("-",I85,1)+1)-1)))</f>
+        <v>ROE-LR79</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M85" s="1" t="str">
+      <c r="L85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N85" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A85&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR79]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N85" s="1" t="str">
+      <c r="O85" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5788,7 +6136,7 @@
 }</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -5802,24 +6150,28 @@
         <v>1958</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="M86" s="1" t="str">
+      <c r="J86" s="2" t="str">
+        <f>IF(I86="","",IF(ISERROR(FIND("-",I86,FIND("-",I86,1)+1)),I86,LEFT(I86,FIND("-",I86,FIND("-",I86,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N86" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A86&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N86" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -5841,20 +6193,24 @@
       <c r="I87" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>68</v>
+      <c r="J87" s="2" t="str">
+        <f>IF(I87="","",IF(ISERROR(FIND("-",I87,FIND("-",I87,1)+1)),I87,LEFT(I87,FIND("-",I87,FIND("-",I87,1)+1)-1)))</f>
+        <v>ROE-LR87</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M87" s="1" t="str">
+      <c r="L87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N87" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A87&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR87]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N87" s="1" t="str">
+      <c r="O87" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5875,7 +6231,7 @@
 }</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -5886,24 +6242,28 @@
         <v>68</v>
       </c>
       <c r="I88" s="2"/>
-      <c r="M88" s="1" t="str">
+      <c r="J88" s="2" t="str">
+        <f>IF(I88="","",IF(ISERROR(FIND("-",I88,FIND("-",I88,1)+1)),I88,LEFT(I88,FIND("-",I88,FIND("-",I88,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N88" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A88&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N88" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -5928,20 +6288,24 @@
       <c r="I89" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>68</v>
+      <c r="J89" s="2" t="str">
+        <f>IF(I89="","",IF(ISERROR(FIND("-",I89,FIND("-",I89,1)+1)),I89,LEFT(I89,FIND("-",I89,FIND("-",I89,1)+1)-1)))</f>
+        <v>ROE-LR89</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M89" s="1" t="str">
+      <c r="L89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N89" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A89&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR89]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N89" s="1" t="str">
+      <c r="O89" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -5962,7 +6326,7 @@
 }</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -5984,20 +6348,24 @@
       <c r="I90" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>68</v>
+      <c r="J90" s="2" t="str">
+        <f>IF(I90="","",IF(ISERROR(FIND("-",I90,FIND("-",I90,1)+1)),I90,LEFT(I90,FIND("-",I90,FIND("-",I90,1)+1)-1)))</f>
+        <v>ROE-LR91</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M90" s="1" t="str">
+      <c r="L90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N90" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A90&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[LR91]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N90" s="1" t="str">
+      <c r="O90" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6018,7 +6386,7 @@
 }</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -6035,24 +6403,28 @@
         <v>70</v>
       </c>
       <c r="I91" s="2"/>
-      <c r="M91" s="1" t="str">
+      <c r="J91" s="2" t="str">
+        <f>IF(I91="","",IF(ISERROR(FIND("-",I91,FIND("-",I91,1)+1)),I91,LEFT(I91,FIND("-",I91,FIND("-",I91,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N91" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A91&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N91" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -6066,24 +6438,28 @@
         <v>1962</v>
       </c>
       <c r="I92" s="2"/>
-      <c r="M92" s="1" t="str">
+      <c r="J92" s="2" t="str">
+        <f>IF(I92="","",IF(ISERROR(FIND("-",I92,FIND("-",I92,1)+1)),I92,LEFT(I92,FIND("-",I92,FIND("-",I92,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N92" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A92&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N92" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -6106,24 +6482,28 @@
         <v>70</v>
       </c>
       <c r="I93" s="2"/>
-      <c r="M93" s="1" t="str">
+      <c r="J93" s="2" t="str">
+        <f>IF(I93="","",IF(ISERROR(FIND("-",I93,FIND("-",I93,1)+1)),I93,LEFT(I93,FIND("-",I93,FIND("-",I93,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N93" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A93&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N93" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -6134,24 +6514,28 @@
         <v>182</v>
       </c>
       <c r="I94" s="2"/>
-      <c r="M94" s="1" t="str">
+      <c r="J94" s="2" t="str">
+        <f>IF(I94="","",IF(ISERROR(FIND("-",I94,FIND("-",I94,1)+1)),I94,LEFT(I94,FIND("-",I94,FIND("-",I94,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N94" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A94&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N94" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>439</v>
       </c>
@@ -6173,31 +6557,35 @@
       <c r="I95" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>68</v>
+      <c r="J95" s="2" t="str">
+        <f>IF(I95="","",IF(ISERROR(FIND("-",I95,FIND("-",I95,1)+1)),I95,LEFT(I95,FIND("-",I95,FIND("-",I95,1)+1)-1)))</f>
+        <v>ROE-MR80B</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L95" s="3"/>
-      <c r="M95" s="1" t="str">
+      <c r="L95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A95&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N95" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>180</v>
       </c>
@@ -6208,24 +6596,28 @@
         <v>185</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="M96" s="1" t="str">
+      <c r="J96" s="2" t="str">
+        <f>IF(I96="","",IF(ISERROR(FIND("-",I96,FIND("-",I96,1)+1)),I96,LEFT(I96,FIND("-",I96,FIND("-",I96,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N96" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A96&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N96" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -6236,24 +6628,28 @@
         <v>184</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="M97" s="1" t="str">
+      <c r="J97" s="2" t="str">
+        <f>IF(I97="","",IF(ISERROR(FIND("-",I97,FIND("-",I97,1)+1)),I97,LEFT(I97,FIND("-",I97,FIND("-",I97,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N97" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A97&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N97" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -6264,24 +6660,28 @@
         <v>183</v>
       </c>
       <c r="I98" s="2"/>
-      <c r="M98" s="1" t="str">
+      <c r="J98" s="2" t="str">
+        <f>IF(I98="","",IF(ISERROR(FIND("-",I98,FIND("-",I98,1)+1)),I98,LEFT(I98,FIND("-",I98,FIND("-",I98,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N98" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A98&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N98" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -6306,20 +6706,24 @@
       <c r="I99" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>68</v>
+      <c r="J99" s="2" t="str">
+        <f>IF(I99="","",IF(ISERROR(FIND("-",I99,FIND("-",I99,1)+1)),I99,LEFT(I99,FIND("-",I99,FIND("-",I99,1)+1)-1)))</f>
+        <v>ROE-A7</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M99" s="1" t="str">
+      <c r="L99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N99" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A99&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NAA75_110]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N99" s="1" t="str">
+      <c r="O99" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6340,7 +6744,7 @@
 }</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -6348,24 +6752,28 @@
         <v>79</v>
       </c>
       <c r="I100" s="2"/>
-      <c r="M100" s="1" t="str">
+      <c r="J100" s="2" t="str">
+        <f>IF(I100="","",IF(ISERROR(FIND("-",I100,FIND("-",I100,1)+1)),I100,LEFT(I100,FIND("-",I100,FIND("-",I100,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N100" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A100&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N100" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -6373,24 +6781,28 @@
         <v>79</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="M101" s="1" t="str">
+      <c r="J101" s="2" t="str">
+        <f>IF(I101="","",IF(ISERROR(FIND("-",I101,FIND("-",I101,1)+1)),I101,LEFT(I101,FIND("-",I101,FIND("-",I101,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N101" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A101&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N101" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>176</v>
       </c>
@@ -6398,24 +6810,28 @@
         <v>79</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="M102" s="1" t="str">
+      <c r="J102" s="2" t="str">
+        <f>IF(I102="","",IF(ISERROR(FIND("-",I102,FIND("-",I102,1)+1)),I102,LEFT(I102,FIND("-",I102,FIND("-",I102,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N102" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A102&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N102" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -6423,24 +6839,28 @@
         <v>79</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="M103" s="1" t="str">
+      <c r="J103" s="2" t="str">
+        <f>IF(I103="","",IF(ISERROR(FIND("-",I103,FIND("-",I103,1)+1)),I103,LEFT(I103,FIND("-",I103,FIND("-",I103,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N103" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A103&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N103" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -6465,20 +6885,24 @@
       <c r="I104" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>68</v>
+      <c r="J104" s="2" t="str">
+        <f>IF(I104="","",IF(ISERROR(FIND("-",I104,FIND("-",I104,1)+1)),I104,LEFT(I104,FIND("-",I104,FIND("-",I104,1)+1)-1)))</f>
+        <v>ROE-NikeM5E1</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L104" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M104" s="1" t="str">
+      <c r="L104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N104" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A104&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Nike-M5E1]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N104" s="1" t="str">
+      <c r="O104" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6499,7 +6923,7 @@
 }</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -6521,20 +6945,24 @@
       <c r="I105" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>68</v>
+      <c r="J105" s="2" t="str">
+        <f>IF(I105="","",IF(ISERROR(FIND("-",I105,FIND("-",I105,1)+1)),I105,LEFT(I105,FIND("-",I105,FIND("-",I105,1)+1)-1)))</f>
+        <v>ROE-NK33</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L105" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M105" s="1" t="str">
+      <c r="L105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N105" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A105&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NK33]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N105" s="1" t="str">
+      <c r="O105" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6555,7 +6983,7 @@
 }</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6577,20 +7005,24 @@
       <c r="I106" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>68</v>
+      <c r="J106" s="2" t="str">
+        <f>IF(I106="","",IF(ISERROR(FIND("-",I106,FIND("-",I106,1)+1)),I106,LEFT(I106,FIND("-",I106,FIND("-",I106,1)+1)-1)))</f>
+        <v>ROE-NK43</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L106" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M106" s="1" t="str">
+      <c r="L106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N106" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A106&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NK43]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N106" s="1" t="str">
+      <c r="O106" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6611,7 +7043,7 @@
 }</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -6625,24 +7057,28 @@
         <v>68</v>
       </c>
       <c r="I107" s="2"/>
-      <c r="M107" s="1" t="str">
+      <c r="J107" s="2" t="str">
+        <f>IF(I107="","",IF(ISERROR(FIND("-",I107,FIND("-",I107,1)+1)),I107,LEFT(I107,FIND("-",I107,FIND("-",I107,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N107" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A107&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N107" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -6656,24 +7092,28 @@
         <v>68</v>
       </c>
       <c r="I108" s="2"/>
-      <c r="M108" s="1" t="str">
+      <c r="J108" s="2" t="str">
+        <f>IF(I108="","",IF(ISERROR(FIND("-",I108,FIND("-",I108,1)+1)),I108,LEFT(I108,FIND("-",I108,FIND("-",I108,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N108" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A108&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N108" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>209</v>
       </c>
@@ -6681,24 +7121,28 @@
         <v>210</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="M109" s="1" t="str">
+      <c r="J109" s="2" t="str">
+        <f>IF(I109="","",IF(ISERROR(FIND("-",I109,FIND("-",I109,1)+1)),I109,LEFT(I109,FIND("-",I109,FIND("-",I109,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N109" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A109&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N109" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -6706,24 +7150,28 @@
         <v>79</v>
       </c>
       <c r="I110" s="2"/>
-      <c r="M110" s="1" t="str">
+      <c r="J110" s="2" t="str">
+        <f>IF(I110="","",IF(ISERROR(FIND("-",I110,FIND("-",I110,1)+1)),I110,LEFT(I110,FIND("-",I110,FIND("-",I110,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N110" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A110&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N110" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -6731,24 +7179,28 @@
         <v>79</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="M111" s="1" t="str">
+      <c r="J111" s="2" t="str">
+        <f>IF(I111="","",IF(ISERROR(FIND("-",I111,FIND("-",I111,1)+1)),I111,LEFT(I111,FIND("-",I111,FIND("-",I111,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N111" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A111&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N111" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -6756,24 +7208,28 @@
         <v>79</v>
       </c>
       <c r="I112" s="2"/>
-      <c r="M112" s="1" t="str">
+      <c r="J112" s="2" t="str">
+        <f>IF(I112="","",IF(ISERROR(FIND("-",I112,FIND("-",I112,1)+1)),I112,LEFT(I112,FIND("-",I112,FIND("-",I112,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N112" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A112&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N112" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -6798,30 +7254,34 @@
       <c r="I113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>68</v>
+      <c r="J113" s="2" t="str">
+        <f>IF(I113="","",IF(ISERROR(FIND("-",I113,FIND("-",I113,1)+1)),I113,LEFT(I113,FIND("-",I113,FIND("-",I113,1)+1)-1)))</f>
+        <v>ROE-R40B</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M113" s="1" t="str">
+      <c r="L113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N113" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A113&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N113" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -6843,30 +7303,34 @@
       <c r="I114" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>68</v>
+      <c r="J114" s="2" t="str">
+        <f>IF(I114="","",IF(ISERROR(FIND("-",I114,FIND("-",I114,1)+1)),I114,LEFT(I114,FIND("-",I114,FIND("-",I114,1)+1)-1)))</f>
+        <v>ROE-R42</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M114" s="1" t="str">
+      <c r="L114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N114" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A114&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N114" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -6888,20 +7352,24 @@
       <c r="I115" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>68</v>
+      <c r="J115" s="2" t="str">
+        <f>IF(I115="","",IF(ISERROR(FIND("-",I115,FIND("-",I115,1)+1)),I115,LEFT(I115,FIND("-",I115,FIND("-",I115,1)+1)-1)))</f>
+        <v>ROE-HiPAT</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L115" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M115" s="1" t="str">
+      <c r="L115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N115" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A115&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[R4D11]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N115" s="1" t="str">
+      <c r="O115" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -6922,7 +7390,7 @@
 }</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -6942,24 +7410,28 @@
         <v>67</v>
       </c>
       <c r="I116" s="2"/>
-      <c r="M116" s="1" t="str">
+      <c r="J116" s="2" t="str">
+        <f>IF(I116="","",IF(ISERROR(FIND("-",I116,FIND("-",I116,1)+1)),I116,LEFT(I116,FIND("-",I116,FIND("-",I116,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N116" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A116&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N116" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>440</v>
       </c>
@@ -6981,30 +7453,34 @@
       <c r="I117" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>68</v>
+      <c r="J117" s="2" t="str">
+        <f>IF(I117="","",IF(ISERROR(FIND("-",I117,FIND("-",I117,1)+1)),I117,LEFT(I117,FIND("-",I117,FIND("-",I117,1)+1)-1)))</f>
+        <v>ROE-MR104</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M117" s="1" t="str">
+      <c r="L117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N117" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A117&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N117" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>449</v>
       </c>
@@ -7023,30 +7499,34 @@
       <c r="I118" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>68</v>
+      <c r="J118" s="2" t="str">
+        <f>IF(I118="","",IF(ISERROR(FIND("-",I118,FIND("-",I118,1)+1)),I118,LEFT(I118,FIND("-",I118,FIND("-",I118,1)+1)-1)))</f>
+        <v>ROE-PLE</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M118" s="1" t="str">
+      <c r="L118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N118" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A118&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N118" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>443</v>
       </c>
@@ -7065,30 +7545,34 @@
       <c r="I119" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>68</v>
+      <c r="J119" s="2" t="str">
+        <f>IF(I119="","",IF(ISERROR(FIND("-",I119,FIND("-",I119,1)+1)),I119,LEFT(I119,FIND("-",I119,FIND("-",I119,1)+1)-1)))</f>
+        <v>ROE-S400</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M119" s="1" t="str">
+      <c r="L119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N119" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A119&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N119" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>195</v>
       </c>
@@ -7110,27 +7594,31 @@
       <c r="I120" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M120" s="1" t="str">
+      <c r="J120" s="2" t="str">
+        <f>IF(I120="","",IF(ISERROR(FIND("-",I120,FIND("-",I120,1)+1)),I120,LEFT(I120,FIND("-",I120,FIND("-",I120,1)+1)-1)))</f>
+        <v>ROE-RD0105</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N120" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A120&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N120" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -7152,20 +7640,24 @@
       <c r="I121" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>68</v>
+      <c r="J121" s="2" t="str">
+        <f>IF(I121="","",IF(ISERROR(FIND("-",I121,FIND("-",I121,1)+1)),I121,LEFT(I121,FIND("-",I121,FIND("-",I121,1)+1)-1)))</f>
+        <v>ROE-RD0110</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L121" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M121" s="1" t="str">
+      <c r="L121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N121" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A121&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD0110]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N121" s="1" t="str">
+      <c r="O121" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7186,7 +7678,7 @@
 }</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>190</v>
       </c>
@@ -7203,24 +7695,28 @@
         <v>2013</v>
       </c>
       <c r="I122" s="2"/>
-      <c r="M122" s="1" t="str">
+      <c r="J122" s="2" t="str">
+        <f>IF(I122="","",IF(ISERROR(FIND("-",I122,FIND("-",I122,1)+1)),I122,LEFT(I122,FIND("-",I122,FIND("-",I122,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N122" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A122&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N122" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -7237,24 +7733,28 @@
         <v>2013</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="M123" s="1" t="str">
+      <c r="J123" s="2" t="str">
+        <f>IF(I123="","",IF(ISERROR(FIND("-",I123,FIND("-",I123,1)+1)),I123,LEFT(I123,FIND("-",I123,FIND("-",I123,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N123" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A123&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N123" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -7268,24 +7768,28 @@
         <v>68</v>
       </c>
       <c r="I124" s="2"/>
-      <c r="M124" s="1" t="str">
+      <c r="J124" s="2" t="str">
+        <f>IF(I124="","",IF(ISERROR(FIND("-",I124,FIND("-",I124,1)+1)),I124,LEFT(I124,FIND("-",I124,FIND("-",I124,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N124" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A124&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N124" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -7296,24 +7800,28 @@
         <v>216</v>
       </c>
       <c r="I125" s="2"/>
-      <c r="M125" s="1" t="str">
+      <c r="J125" s="2" t="str">
+        <f>IF(I125="","",IF(ISERROR(FIND("-",I125,FIND("-",I125,1)+1)),I125,LEFT(I125,FIND("-",I125,FIND("-",I125,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N125" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A125&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N125" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>213</v>
       </c>
@@ -7324,24 +7832,28 @@
         <v>214</v>
       </c>
       <c r="I126" s="2"/>
-      <c r="M126" s="1" t="str">
+      <c r="J126" s="2" t="str">
+        <f>IF(I126="","",IF(ISERROR(FIND("-",I126,FIND("-",I126,1)+1)),I126,LEFT(I126,FIND("-",I126,FIND("-",I126,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N126" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A126&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N126" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -7352,24 +7864,28 @@
         <v>234</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="M127" s="1" t="str">
+      <c r="J127" s="2" t="str">
+        <f>IF(I127="","",IF(ISERROR(FIND("-",I127,FIND("-",I127,1)+1)),I127,LEFT(I127,FIND("-",I127,FIND("-",I127,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N127" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A127&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N127" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>238</v>
       </c>
@@ -7380,24 +7896,28 @@
         <v>234</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="M128" s="1" t="str">
+      <c r="J128" s="2" t="str">
+        <f>IF(I128="","",IF(ISERROR(FIND("-",I128,FIND("-",I128,1)+1)),I128,LEFT(I128,FIND("-",I128,FIND("-",I128,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N128" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A128&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N128" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>237</v>
       </c>
@@ -7408,24 +7928,28 @@
         <v>234</v>
       </c>
       <c r="I129" s="2"/>
-      <c r="M129" s="1" t="str">
+      <c r="J129" s="2" t="str">
+        <f>IF(I129="","",IF(ISERROR(FIND("-",I129,FIND("-",I129,1)+1)),I129,LEFT(I129,FIND("-",I129,FIND("-",I129,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N129" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A129&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N129" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>236</v>
       </c>
@@ -7439,24 +7963,28 @@
         <v>234</v>
       </c>
       <c r="I130" s="2"/>
-      <c r="M130" s="1" t="str">
+      <c r="J130" s="2" t="str">
+        <f>IF(I130="","",IF(ISERROR(FIND("-",I130,FIND("-",I130,1)+1)),I130,LEFT(I130,FIND("-",I130,FIND("-",I130,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N130" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A130&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N130" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>235</v>
       </c>
@@ -7464,24 +7992,28 @@
         <v>63</v>
       </c>
       <c r="I131" s="2"/>
-      <c r="M131" s="1" t="str">
+      <c r="J131" s="2" t="str">
+        <f>IF(I131="","",IF(ISERROR(FIND("-",I131,FIND("-",I131,1)+1)),I131,LEFT(I131,FIND("-",I131,FIND("-",I131,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N131" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A131&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N131" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>228</v>
       </c>
@@ -7489,24 +8021,28 @@
         <v>79</v>
       </c>
       <c r="I132" s="2"/>
-      <c r="M132" s="1" t="str">
+      <c r="J132" s="2" t="str">
+        <f>IF(I132="","",IF(ISERROR(FIND("-",I132,FIND("-",I132,1)+1)),I132,LEFT(I132,FIND("-",I132,FIND("-",I132,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N132" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A132&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N132" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -7528,20 +8064,24 @@
       <c r="I133" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>68</v>
+      <c r="J133" s="2" t="str">
+        <f>IF(I133="","",IF(ISERROR(FIND("-",I133,FIND("-",I133,1)+1)),I133,LEFT(I133,FIND("-",I133,FIND("-",I133,1)+1)-1)))</f>
+        <v>ROE-RD100</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L133" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M133" s="1" t="str">
+      <c r="L133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N133" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A133&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD100]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N133" s="1" t="str">
+      <c r="O133" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7562,7 +8102,7 @@
 }</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -7587,20 +8127,24 @@
       <c r="I134" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>68</v>
+      <c r="J134" s="2" t="str">
+        <f>IF(I134="","",IF(ISERROR(FIND("-",I134,FIND("-",I134,1)+1)),I134,LEFT(I134,FIND("-",I134,FIND("-",I134,1)+1)-1)))</f>
+        <v>ROE-RD107</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L134" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M134" s="1" t="str">
+      <c r="L134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N134" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A134&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD107-117]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N134" s="1" t="str">
+      <c r="O134" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7621,7 +8165,7 @@
 }</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -7646,20 +8190,24 @@
       <c r="I135" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>68</v>
+      <c r="J135" s="2" t="str">
+        <f>IF(I135="","",IF(ISERROR(FIND("-",I135,FIND("-",I135,1)+1)),I135,LEFT(I135,FIND("-",I135,FIND("-",I135,1)+1)-1)))</f>
+        <v>ROE-RD108</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L135" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M135" s="1" t="str">
+      <c r="L135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N135" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A135&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD108-118]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N135" s="1" t="str">
+      <c r="O135" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7680,7 +8228,7 @@
 }</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -7691,24 +8239,28 @@
         <v>200</v>
       </c>
       <c r="I136" s="2"/>
-      <c r="M136" s="1" t="str">
+      <c r="J136" s="2" t="str">
+        <f>IF(I136="","",IF(ISERROR(FIND("-",I136,FIND("-",I136,1)+1)),I136,LEFT(I136,FIND("-",I136,FIND("-",I136,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N136" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A136&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N136" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7730,20 +8282,24 @@
       <c r="I137" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>68</v>
+      <c r="J137" s="2" t="str">
+        <f>IF(I137="","",IF(ISERROR(FIND("-",I137,FIND("-",I137,1)+1)),I137,LEFT(I137,FIND("-",I137,FIND("-",I137,1)+1)-1)))</f>
+        <v>ROE-RD170</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L137" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M137" s="1" t="str">
+      <c r="L137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N137" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A137&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD170]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N137" s="1" t="str">
+      <c r="O137" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7764,7 +8320,7 @@
 }</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7786,20 +8342,24 @@
       <c r="I138" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>68</v>
+      <c r="J138" s="2" t="str">
+        <f>IF(I138="","",IF(ISERROR(FIND("-",I138,FIND("-",I138,1)+1)),I138,LEFT(I138,FIND("-",I138,FIND("-",I138,1)+1)-1)))</f>
+        <v>ROE-RD180</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L138" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M138" s="1" t="str">
+      <c r="L138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N138" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A138&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD180]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N138" s="1" t="str">
+      <c r="O138" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7820,7 +8380,7 @@
 }</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -7842,20 +8402,24 @@
       <c r="I139" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J139" s="1" t="s">
-        <v>68</v>
+      <c r="J139" s="2" t="str">
+        <f>IF(I139="","",IF(ISERROR(FIND("-",I139,FIND("-",I139,1)+1)),I139,LEFT(I139,FIND("-",I139,FIND("-",I139,1)+1)-1)))</f>
+        <v>ROE-RD191</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L139" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M139" s="1" t="str">
+      <c r="L139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N139" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A139&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD191]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N139" s="1" t="str">
+      <c r="O139" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -7876,7 +8440,7 @@
 }</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -7887,24 +8451,28 @@
         <v>234</v>
       </c>
       <c r="I140" s="2"/>
-      <c r="M140" s="1" t="str">
+      <c r="J140" s="2" t="str">
+        <f>IF(I140="","",IF(ISERROR(FIND("-",I140,FIND("-",I140,1)+1)),I140,LEFT(I140,FIND("-",I140,FIND("-",I140,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N140" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A140&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N140" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>231</v>
       </c>
@@ -7915,24 +8483,28 @@
         <v>232</v>
       </c>
       <c r="I141" s="2"/>
-      <c r="M141" s="1" t="str">
+      <c r="J141" s="2" t="str">
+        <f>IF(I141="","",IF(ISERROR(FIND("-",I141,FIND("-",I141,1)+1)),I141,LEFT(I141,FIND("-",I141,FIND("-",I141,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N141" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A141&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N141" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -7943,24 +8515,28 @@
         <v>230</v>
       </c>
       <c r="I142" s="2"/>
-      <c r="M142" s="1" t="str">
+      <c r="J142" s="2" t="str">
+        <f>IF(I142="","",IF(ISERROR(FIND("-",I142,FIND("-",I142,1)+1)),I142,LEFT(I142,FIND("-",I142,FIND("-",I142,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N142" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A142&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N142" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -7971,24 +8547,28 @@
         <v>187</v>
       </c>
       <c r="I143" s="2"/>
-      <c r="M143" s="1" t="str">
+      <c r="J143" s="2" t="str">
+        <f>IF(I143="","",IF(ISERROR(FIND("-",I143,FIND("-",I143,1)+1)),I143,LEFT(I143,FIND("-",I143,FIND("-",I143,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N143" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A143&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N143" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -8007,20 +8587,24 @@
       <c r="I144" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>68</v>
+      <c r="J144" s="2" t="str">
+        <f>IF(I144="","",IF(ISERROR(FIND("-",I144,FIND("-",I144,1)+1)),I144,LEFT(I144,FIND("-",I144,FIND("-",I144,1)+1)-1)))</f>
+        <v>ROE-RD58</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L144" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M144" s="1" t="str">
+      <c r="L144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N144" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A144&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD58]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N144" s="1" t="str">
+      <c r="O144" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8041,7 +8625,7 @@
 }</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -8052,24 +8636,28 @@
         <v>226</v>
       </c>
       <c r="I145" s="2"/>
-      <c r="M145" s="1" t="str">
+      <c r="J145" s="2" t="str">
+        <f>IF(I145="","",IF(ISERROR(FIND("-",I145,FIND("-",I145,1)+1)),I145,LEFT(I145,FIND("-",I145,FIND("-",I145,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N145" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A145&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N145" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>225</v>
       </c>
@@ -8080,24 +8668,28 @@
         <v>226</v>
       </c>
       <c r="I146" s="2"/>
-      <c r="M146" s="1" t="str">
+      <c r="J146" s="2" t="str">
+        <f>IF(I146="","",IF(ISERROR(FIND("-",I146,FIND("-",I146,1)+1)),I146,LEFT(I146,FIND("-",I146,FIND("-",I146,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N146" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A146&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N146" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>199</v>
       </c>
@@ -8119,20 +8711,24 @@
       <c r="I147" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J147" s="1" t="s">
-        <v>68</v>
+      <c r="J147" s="2" t="str">
+        <f>IF(I147="","",IF(ISERROR(FIND("-",I147,FIND("-",I147,1)+1)),I147,LEFT(I147,FIND("-",I147,FIND("-",I147,1)+1)-1)))</f>
+        <v>ROE-RD8</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L147" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M147" s="1" t="str">
+      <c r="L147" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N147" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A147&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD8]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N147" s="1" t="str">
+      <c r="O147" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8153,7 +8749,7 @@
 }</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>224</v>
       </c>
@@ -8164,24 +8760,28 @@
         <v>200</v>
       </c>
       <c r="I148" s="2"/>
-      <c r="M148" s="1" t="str">
+      <c r="J148" s="2" t="str">
+        <f>IF(I148="","",IF(ISERROR(FIND("-",I148,FIND("-",I148,1)+1)),I148,LEFT(I148,FIND("-",I148,FIND("-",I148,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N148" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A148&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N148" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>222</v>
       </c>
@@ -8198,24 +8798,28 @@
         <v>1964</v>
       </c>
       <c r="I149" s="2"/>
-      <c r="M149" s="1" t="str">
+      <c r="J149" s="2" t="str">
+        <f>IF(I149="","",IF(ISERROR(FIND("-",I149,FIND("-",I149,1)+1)),I149,LEFT(I149,FIND("-",I149,FIND("-",I149,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N149" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A149&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N149" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -8232,24 +8836,28 @@
         <v>1964</v>
       </c>
       <c r="I150" s="2"/>
-      <c r="M150" s="1" t="str">
+      <c r="J150" s="2" t="str">
+        <f>IF(I150="","",IF(ISERROR(FIND("-",I150,FIND("-",I150,1)+1)),I150,LEFT(I150,FIND("-",I150,FIND("-",I150,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N150" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A150&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N150" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>244</v>
       </c>
@@ -8266,24 +8874,28 @@
         <v>1975</v>
       </c>
       <c r="I151" s="2"/>
-      <c r="M151" s="1" t="str">
+      <c r="J151" s="2" t="str">
+        <f>IF(I151="","",IF(ISERROR(FIND("-",I151,FIND("-",I151,1)+1)),I151,LEFT(I151,FIND("-",I151,FIND("-",I151,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N151" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A151&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N151" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -8305,20 +8917,24 @@
       <c r="I152" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J152" s="1" t="s">
-        <v>68</v>
+      <c r="J152" s="2" t="str">
+        <f>IF(I152="","",IF(ISERROR(FIND("-",I152,FIND("-",I152,1)+1)),I152,LEFT(I152,FIND("-",I152,FIND("-",I152,1)+1)-1)))</f>
+        <v>ROE-RL10A3</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L152" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M152" s="1" t="str">
+      <c r="L152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N152" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A152&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RL10]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N152" s="1" t="str">
+      <c r="O152" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8339,7 +8955,7 @@
 }</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -8361,30 +8977,34 @@
       <c r="I153" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J153" s="1" t="s">
-        <v>68</v>
+      <c r="J153" s="2" t="str">
+        <f>IF(I153="","",IF(ISERROR(FIND("-",I153,FIND("-",I153,1)+1)),I153,LEFT(I153,FIND("-",I153,FIND("-",I153,1)+1)-1)))</f>
+        <v>ROE-RL10A3</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M153" s="1" t="str">
+      <c r="L153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N153" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A153&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N153" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -8406,30 +9026,34 @@
       <c r="I154" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="J154" s="1" t="s">
-        <v>68</v>
+      <c r="J154" s="2" t="str">
+        <f>IF(I154="","",IF(ISERROR(FIND("-",I154,FIND("-",I154,1)+1)),I154,LEFT(I154,FIND("-",I154,FIND("-",I154,1)+1)-1)))</f>
+        <v>ROE-RL10A5</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M154" s="1" t="str">
+      <c r="L154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N154" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A154&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N154" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -8451,30 +9075,34 @@
       <c r="I155" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J155" s="1" t="s">
-        <v>68</v>
+      <c r="J155" s="2" t="str">
+        <f>IF(I155="","",IF(ISERROR(FIND("-",I155,FIND("-",I155,1)+1)),I155,LEFT(I155,FIND("-",I155,FIND("-",I155,1)+1)-1)))</f>
+        <v>ROE-RL10B2</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M155" s="1" t="str">
+      <c r="L155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N155" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A155&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N155" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>241</v>
       </c>
@@ -8485,24 +9113,28 @@
         <v>242</v>
       </c>
       <c r="I156" s="2"/>
-      <c r="M156" s="1" t="str">
+      <c r="J156" s="2" t="str">
+        <f>IF(I156="","",IF(ISERROR(FIND("-",I156,FIND("-",I156,1)+1)),I156,LEFT(I156,FIND("-",I156,FIND("-",I156,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N156" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A156&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N156" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -8524,20 +9156,24 @@
       <c r="I157" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>68</v>
+      <c r="J157" s="2" t="str">
+        <f>IF(I157="","",IF(ISERROR(FIND("-",I157,FIND("-",I157,1)+1)),I157,LEFT(I157,FIND("-",I157,FIND("-",I157,1)+1)-1)))</f>
+        <v>ROE-RS68</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L157" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M157" s="1" t="str">
+      <c r="L157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N157" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A157&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RS68]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N157" s="1" t="str">
+      <c r="O157" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8558,7 +9194,7 @@
 }</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>265</v>
       </c>
@@ -8569,24 +9205,28 @@
         <v>266</v>
       </c>
       <c r="I158" s="2"/>
-      <c r="M158" s="1" t="str">
+      <c r="J158" s="2" t="str">
+        <f>IF(I158="","",IF(ISERROR(FIND("-",I158,FIND("-",I158,1)+1)),I158,LEFT(I158,FIND("-",I158,FIND("-",I158,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N158" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A158&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N158" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>264</v>
       </c>
@@ -8603,24 +9243,28 @@
         <v>68</v>
       </c>
       <c r="I159" s="2"/>
-      <c r="M159" s="1" t="str">
+      <c r="J159" s="2" t="str">
+        <f>IF(I159="","",IF(ISERROR(FIND("-",I159,FIND("-",I159,1)+1)),I159,LEFT(I159,FIND("-",I159,FIND("-",I159,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N159" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A159&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N159" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>262</v>
       </c>
@@ -8634,24 +9278,28 @@
         <v>2012</v>
       </c>
       <c r="I160" s="2"/>
-      <c r="M160" s="1" t="str">
+      <c r="J160" s="2" t="str">
+        <f>IF(I160="","",IF(ISERROR(FIND("-",I160,FIND("-",I160,1)+1)),I160,LEFT(I160,FIND("-",I160,FIND("-",I160,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N160" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A160&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N160" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>261</v>
       </c>
@@ -8668,24 +9316,28 @@
         <v>1965</v>
       </c>
       <c r="I161" s="2"/>
-      <c r="M161" s="1" t="str">
+      <c r="J161" s="2" t="str">
+        <f>IF(I161="","",IF(ISERROR(FIND("-",I161,FIND("-",I161,1)+1)),I161,LEFT(I161,FIND("-",I161,FIND("-",I161,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N161" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A161&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N161" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -8704,20 +9356,24 @@
       <c r="I162" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>68</v>
+      <c r="J162" s="2" t="str">
+        <f>IF(I162="","",IF(ISERROR(FIND("-",I162,FIND("-",I162,1)+1)),I162,LEFT(I162,FIND("-",I162,FIND("-",I162,1)+1)-1)))</f>
+        <v>ROE-Rutherford</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L162" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M162" s="1" t="str">
+      <c r="L162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N162" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A162&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Rutherford]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N162" s="1" t="str">
+      <c r="O162" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8738,7 +9394,7 @@
 }</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>340</v>
       </c>
@@ -8757,31 +9413,35 @@
       <c r="I163" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>68</v>
+      <c r="J163" s="2" t="str">
+        <f>IF(I163="","",IF(ISERROR(FIND("-",I163,FIND("-",I163,1)+1)),I163,LEFT(I163,FIND("-",I163,FIND("-",I163,1)+1)-1)))</f>
+        <v>ROE-RutherfordVac</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L163" s="3"/>
-      <c r="M163" s="1" t="str">
+      <c r="L163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M163" s="3"/>
+      <c r="N163" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A163&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N163" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>467</v>
       </c>
@@ -8806,20 +9466,24 @@
       <c r="I164" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>68</v>
+      <c r="J164" s="2" t="str">
+        <f>IF(I164="","",IF(ISERROR(FIND("-",I164,FIND("-",I164,1)+1)),I164,LEFT(I164,FIND("-",I164,FIND("-",I164,1)+1)-1)))</f>
+        <v>ROE-S2253</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L164" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M164" s="1" t="str">
+      <c r="L164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N164" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A164&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S2_253]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N164" s="1" t="str">
+      <c r="O164" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8840,7 +9504,7 @@
 }</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -8862,20 +9526,24 @@
       <c r="I165" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>68</v>
+      <c r="J165" s="2" t="str">
+        <f>IF(I165="","",IF(ISERROR(FIND("-",I165,FIND("-",I165,1)+1)),I165,LEFT(I165,FIND("-",I165,FIND("-",I165,1)+1)-1)))</f>
+        <v>ROE-S592</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L165" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M165" s="1" t="str">
+      <c r="L165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N165" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A165&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S5_92]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N165" s="1" t="str">
+      <c r="O165" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8896,7 +9564,7 @@
 }</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -8921,20 +9589,24 @@
       <c r="I166" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J166" s="1" t="s">
-        <v>68</v>
+      <c r="J166" s="2" t="str">
+        <f>IF(I166="","",IF(ISERROR(FIND("-",I166,FIND("-",I166,1)+1)),I166,LEFT(I166,FIND("-",I166,FIND("-",I166,1)+1)-1)))</f>
+        <v>ROE-S598M</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L166" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M166" s="1" t="str">
+      <c r="L166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N166" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A166&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S5_98M]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N166" s="1" t="str">
+      <c r="O166" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8955,7 +9627,7 @@
 }</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>254</v>
       </c>
@@ -8972,24 +9644,28 @@
         <v>1967</v>
       </c>
       <c r="I167" s="2"/>
-      <c r="M167" s="1" t="str">
+      <c r="J167" s="2" t="str">
+        <f>IF(I167="","",IF(ISERROR(FIND("-",I167,FIND("-",I167,1)+1)),I167,LEFT(I167,FIND("-",I167,FIND("-",I167,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N167" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A167&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N167" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>253</v>
       </c>
@@ -8997,24 +9673,28 @@
         <v>79</v>
       </c>
       <c r="I168" s="2"/>
-      <c r="M168" s="1" t="str">
+      <c r="J168" s="2" t="str">
+        <f>IF(I168="","",IF(ISERROR(FIND("-",I168,FIND("-",I168,1)+1)),I168,LEFT(I168,FIND("-",I168,FIND("-",I168,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N168" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A168&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N168" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>251</v>
       </c>
@@ -9031,24 +9711,28 @@
         <v>68</v>
       </c>
       <c r="I169" s="2"/>
-      <c r="M169" s="1" t="str">
+      <c r="J169" s="2" t="str">
+        <f>IF(I169="","",IF(ISERROR(FIND("-",I169,FIND("-",I169,1)+1)),I169,LEFT(I169,FIND("-",I169,FIND("-",I169,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N169" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A169&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N169" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -9070,20 +9754,24 @@
       <c r="I170" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J170" s="1" t="s">
-        <v>68</v>
+      <c r="J170" s="2" t="str">
+        <f>IF(I170="","",IF(ISERROR(FIND("-",I170,FIND("-",I170,1)+1)),I170,LEFT(I170,FIND("-",I170,FIND("-",I170,1)+1)-1)))</f>
+        <v>ROE-RS25</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L170" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M170" s="1" t="str">
+      <c r="L170" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N170" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A170&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[SSME]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N170" s="1" t="str">
+      <c r="O170" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9104,7 +9792,7 @@
 }</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>278</v>
       </c>
@@ -9112,24 +9800,28 @@
         <v>31</v>
       </c>
       <c r="I171" s="2"/>
-      <c r="M171" s="1" t="str">
+      <c r="J171" s="2" t="str">
+        <f>IF(I171="","",IF(ISERROR(FIND("-",I171,FIND("-",I171,1)+1)),I171,LEFT(I171,FIND("-",I171,FIND("-",I171,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N171" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A171&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N171" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -9137,24 +9829,28 @@
         <v>31</v>
       </c>
       <c r="I172" s="2"/>
-      <c r="M172" s="1" t="str">
+      <c r="J172" s="2" t="str">
+        <f>IF(I172="","",IF(ISERROR(FIND("-",I172,FIND("-",I172,1)+1)),I172,LEFT(I172,FIND("-",I172,FIND("-",I172,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N172" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A172&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N172" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>276</v>
       </c>
@@ -9165,24 +9861,28 @@
         <v>1968</v>
       </c>
       <c r="I173" s="2"/>
-      <c r="M173" s="1" t="str">
+      <c r="J173" s="2" t="str">
+        <f>IF(I173="","",IF(ISERROR(FIND("-",I173,FIND("-",I173,1)+1)),I173,LEFT(I173,FIND("-",I173,FIND("-",I173,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N173" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A173&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N173" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>275</v>
       </c>
@@ -9190,24 +9890,28 @@
         <v>31</v>
       </c>
       <c r="I174" s="2"/>
-      <c r="M174" s="1" t="str">
+      <c r="J174" s="2" t="str">
+        <f>IF(I174="","",IF(ISERROR(FIND("-",I174,FIND("-",I174,1)+1)),I174,LEFT(I174,FIND("-",I174,FIND("-",I174,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N174" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A174&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N174" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>274</v>
       </c>
@@ -9215,24 +9919,28 @@
         <v>31</v>
       </c>
       <c r="I175" s="2"/>
-      <c r="M175" s="1" t="str">
+      <c r="J175" s="2" t="str">
+        <f>IF(I175="","",IF(ISERROR(FIND("-",I175,FIND("-",I175,1)+1)),I175,LEFT(I175,FIND("-",I175,FIND("-",I175,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N175" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A175&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N175" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>273</v>
       </c>
@@ -9240,24 +9948,28 @@
         <v>31</v>
       </c>
       <c r="I176" s="2"/>
-      <c r="M176" s="1" t="str">
+      <c r="J176" s="2" t="str">
+        <f>IF(I176="","",IF(ISERROR(FIND("-",I176,FIND("-",I176,1)+1)),I176,LEFT(I176,FIND("-",I176,FIND("-",I176,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N176" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A176&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N176" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -9265,24 +9977,28 @@
         <v>31</v>
       </c>
       <c r="I177" s="2"/>
-      <c r="M177" s="1" t="str">
+      <c r="J177" s="2" t="str">
+        <f>IF(I177="","",IF(ISERROR(FIND("-",I177,FIND("-",I177,1)+1)),I177,LEFT(I177,FIND("-",I177,FIND("-",I177,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N177" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A177&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N177" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>250</v>
       </c>
@@ -9290,24 +10006,28 @@
         <v>31</v>
       </c>
       <c r="I178" s="2"/>
-      <c r="M178" s="1" t="str">
+      <c r="J178" s="2" t="str">
+        <f>IF(I178="","",IF(ISERROR(FIND("-",I178,FIND("-",I178,1)+1)),I178,LEFT(I178,FIND("-",I178,FIND("-",I178,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N178" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A178&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N178" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>271</v>
       </c>
@@ -9315,24 +10035,28 @@
         <v>31</v>
       </c>
       <c r="I179" s="2"/>
-      <c r="M179" s="1" t="str">
+      <c r="J179" s="2" t="str">
+        <f>IF(I179="","",IF(ISERROR(FIND("-",I179,FIND("-",I179,1)+1)),I179,LEFT(I179,FIND("-",I179,FIND("-",I179,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N179" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A179&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N179" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>270</v>
       </c>
@@ -9340,24 +10064,28 @@
         <v>31</v>
       </c>
       <c r="I180" s="2"/>
-      <c r="M180" s="1" t="str">
+      <c r="J180" s="2" t="str">
+        <f>IF(I180="","",IF(ISERROR(FIND("-",I180,FIND("-",I180,1)+1)),I180,LEFT(I180,FIND("-",I180,FIND("-",I180,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N180" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A180&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N180" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>269</v>
       </c>
@@ -9368,24 +10096,28 @@
         <v>1966</v>
       </c>
       <c r="I181" s="2"/>
-      <c r="M181" s="1" t="str">
+      <c r="J181" s="2" t="str">
+        <f>IF(I181="","",IF(ISERROR(FIND("-",I181,FIND("-",I181,1)+1)),I181,LEFT(I181,FIND("-",I181,FIND("-",I181,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N181" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A181&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N181" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -9396,24 +10128,28 @@
         <v>1966</v>
       </c>
       <c r="I182" s="2"/>
-      <c r="M182" s="1" t="str">
+      <c r="J182" s="2" t="str">
+        <f>IF(I182="","",IF(ISERROR(FIND("-",I182,FIND("-",I182,1)+1)),I182,LEFT(I182,FIND("-",I182,FIND("-",I182,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N182" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A182&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N182" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -9424,24 +10160,28 @@
         <v>1984</v>
       </c>
       <c r="I183" s="2"/>
-      <c r="M183" s="1" t="str">
+      <c r="J183" s="2" t="str">
+        <f>IF(I183="","",IF(ISERROR(FIND("-",I183,FIND("-",I183,1)+1)),I183,LEFT(I183,FIND("-",I183,FIND("-",I183,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N183" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A183&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N183" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>302</v>
       </c>
@@ -9452,24 +10192,28 @@
         <v>1985</v>
       </c>
       <c r="I184" s="2"/>
-      <c r="M184" s="1" t="str">
+      <c r="J184" s="2" t="str">
+        <f>IF(I184="","",IF(ISERROR(FIND("-",I184,FIND("-",I184,1)+1)),I184,LEFT(I184,FIND("-",I184,FIND("-",I184,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N184" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A184&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N184" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>249</v>
       </c>
@@ -9480,24 +10224,28 @@
         <v>2000</v>
       </c>
       <c r="I185" s="2"/>
-      <c r="M185" s="1" t="str">
+      <c r="J185" s="2" t="str">
+        <f>IF(I185="","",IF(ISERROR(FIND("-",I185,FIND("-",I185,1)+1)),I185,LEFT(I185,FIND("-",I185,FIND("-",I185,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N185" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A185&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N185" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -9508,24 +10256,28 @@
         <v>1989</v>
       </c>
       <c r="I186" s="2"/>
-      <c r="M186" s="1" t="str">
+      <c r="J186" s="2" t="str">
+        <f>IF(I186="","",IF(ISERROR(FIND("-",I186,FIND("-",I186,1)+1)),I186,LEFT(I186,FIND("-",I186,FIND("-",I186,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N186" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A186&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N186" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>344</v>
       </c>
@@ -9547,20 +10299,24 @@
       <c r="I187" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>68</v>
+      <c r="J187" s="2" t="str">
+        <f>IF(I187="","",IF(ISERROR(FIND("-",I187,FIND("-",I187,1)+1)),I187,LEFT(I187,FIND("-",I187,FIND("-",I187,1)+1)-1)))</f>
+        <v>ROE-Star5D</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L187" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M187" s="1" t="str">
+      <c r="L187" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N187" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A187&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Star-5D]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N187" s="1" t="str">
+      <c r="O187" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9581,7 +10337,7 @@
 }</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>309</v>
       </c>
@@ -9592,24 +10348,28 @@
         <v>1985</v>
       </c>
       <c r="I188" s="2"/>
-      <c r="M188" s="1" t="str">
+      <c r="J188" s="2" t="str">
+        <f>IF(I188="","",IF(ISERROR(FIND("-",I188,FIND("-",I188,1)+1)),I188,LEFT(I188,FIND("-",I188,FIND("-",I188,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N188" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A188&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N188" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>247</v>
       </c>
@@ -9620,24 +10380,28 @@
         <v>1985</v>
       </c>
       <c r="I189" s="2"/>
-      <c r="M189" s="1" t="str">
+      <c r="J189" s="2" t="str">
+        <f>IF(I189="","",IF(ISERROR(FIND("-",I189,FIND("-",I189,1)+1)),I189,LEFT(I189,FIND("-",I189,FIND("-",I189,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N189" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A189&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N189" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>346</v>
       </c>
@@ -9659,20 +10423,24 @@
       <c r="I190" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="J190" s="1" t="s">
-        <v>68</v>
+      <c r="J190" s="2" t="str">
+        <f>IF(I190="","",IF(ISERROR(FIND("-",I190,FIND("-",I190,1)+1)),I190,LEFT(I190,FIND("-",I190,FIND("-",I190,1)+1)-1)))</f>
+        <v>ROE-Star8</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L190" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M190" s="1" t="str">
+      <c r="L190" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N190" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A190&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Star-8]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N190" s="1" t="str">
+      <c r="O190" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9693,7 +10461,7 @@
 }</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>246</v>
       </c>
@@ -9704,24 +10472,28 @@
         <v>1993</v>
       </c>
       <c r="I191" s="2"/>
-      <c r="M191" s="1" t="str">
+      <c r="J191" s="2" t="str">
+        <f>IF(I191="","",IF(ISERROR(FIND("-",I191,FIND("-",I191,1)+1)),I191,LEFT(I191,FIND("-",I191,FIND("-",I191,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N191" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A191&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N191" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>300</v>
       </c>
@@ -9743,30 +10515,34 @@
       <c r="I192" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J192" s="1" t="s">
-        <v>68</v>
+      <c r="J192" s="2" t="str">
+        <f>IF(I192="","",IF(ISERROR(FIND("-",I192,FIND("-",I192,1)+1)),I192,LEFT(I192,FIND("-",I192,FIND("-",I192,1)+1)-1)))</f>
+        <v>ROE-SuperDraco</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M192" s="1" t="str">
+      <c r="L192" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N192" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A192&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N192" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>453</v>
       </c>
@@ -9788,30 +10564,34 @@
       <c r="I193" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J193" s="1" t="s">
-        <v>68</v>
+      <c r="J193" s="2" t="str">
+        <f>IF(I193="","",IF(ISERROR(FIND("-",I193,FIND("-",I193,1)+1)),I193,LEFT(I193,FIND("-",I193,FIND("-",I193,1)+1)-1)))</f>
+        <v>ROE-SuperDracoDouble</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M193" s="1" t="str">
+      <c r="L193" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N193" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A193&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N193" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>298</v>
       </c>
@@ -9830,20 +10610,24 @@
       <c r="I194" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>68</v>
+      <c r="J194" s="2" t="str">
+        <f>IF(I194="","",IF(ISERROR(FIND("-",I194,FIND("-",I194,1)+1)),I194,LEFT(I194,FIND("-",I194,FIND("-",I194,1)+1)-1)))</f>
+        <v>ROE-TD339</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L194" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M194" s="1" t="str">
+      <c r="L194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N194" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A194&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[TD339]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N194" s="1" t="str">
+      <c r="O194" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9864,7 +10648,7 @@
 }</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>438</v>
       </c>
@@ -9886,20 +10670,24 @@
       <c r="I195" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>68</v>
+      <c r="J195" s="2" t="str">
+        <f>IF(I195="","",IF(ISERROR(FIND("-",I195,FIND("-",I195,1)+1)),I195,LEFT(I195,FIND("-",I195,FIND("-",I195,1)+1)-1)))</f>
+        <v>ROE-MR80TDE</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L195" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M195" s="1" t="str">
+      <c r="L195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N195" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A195&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[TDE]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N195" s="1" t="str">
+      <c r="O195" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9920,7 +10708,7 @@
 }</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>297</v>
       </c>
@@ -9934,24 +10722,28 @@
         <v>1965</v>
       </c>
       <c r="I196" s="2"/>
-      <c r="M196" s="1" t="str">
+      <c r="J196" s="2" t="str">
+        <f>IF(I196="","",IF(ISERROR(FIND("-",I196,FIND("-",I196,1)+1)),I196,LEFT(I196,FIND("-",I196,FIND("-",I196,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N196" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A196&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N196" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>295</v>
       </c>
@@ -9968,24 +10760,28 @@
         <v>68</v>
       </c>
       <c r="I197" s="2"/>
-      <c r="M197" s="1" t="str">
+      <c r="J197" s="2" t="str">
+        <f>IF(I197="","",IF(ISERROR(FIND("-",I197,FIND("-",I197,1)+1)),I197,LEFT(I197,FIND("-",I197,FIND("-",I197,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N197" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A197&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N197" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>293</v>
       </c>
@@ -10002,24 +10798,28 @@
         <v>68</v>
       </c>
       <c r="I198" s="2"/>
-      <c r="M198" s="1" t="str">
+      <c r="J198" s="2" t="str">
+        <f>IF(I198="","",IF(ISERROR(FIND("-",I198,FIND("-",I198,1)+1)),I198,LEFT(I198,FIND("-",I198,FIND("-",I198,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N198" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A198&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N198" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>292</v>
       </c>
@@ -10033,24 +10833,28 @@
         <v>1964</v>
       </c>
       <c r="I199" s="2"/>
-      <c r="M199" s="1" t="str">
+      <c r="J199" s="2" t="str">
+        <f>IF(I199="","",IF(ISERROR(FIND("-",I199,FIND("-",I199,1)+1)),I199,LEFT(I199,FIND("-",I199,FIND("-",I199,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N199" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A199&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N199" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>290</v>
       </c>
@@ -10061,24 +10865,28 @@
         <v>291</v>
       </c>
       <c r="I200" s="2"/>
-      <c r="M200" s="1" t="str">
+      <c r="J200" s="2" t="str">
+        <f>IF(I200="","",IF(ISERROR(FIND("-",I200,FIND("-",I200,1)+1)),I200,LEFT(I200,FIND("-",I200,FIND("-",I200,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N200" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A200&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N200" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>288</v>
       </c>
@@ -10089,24 +10897,28 @@
         <v>289</v>
       </c>
       <c r="I201" s="2"/>
-      <c r="M201" s="1" t="str">
+      <c r="J201" s="2" t="str">
+        <f>IF(I201="","",IF(ISERROR(FIND("-",I201,FIND("-",I201,1)+1)),I201,LEFT(I201,FIND("-",I201,FIND("-",I201,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N201" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A201&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N201" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>287</v>
       </c>
@@ -10120,24 +10932,28 @@
         <v>1967</v>
       </c>
       <c r="I202" s="2"/>
-      <c r="M202" s="1" t="str">
+      <c r="J202" s="2" t="str">
+        <f>IF(I202="","",IF(ISERROR(FIND("-",I202,FIND("-",I202,1)+1)),I202,LEFT(I202,FIND("-",I202,FIND("-",I202,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N202" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A202&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N202" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -10162,20 +10978,24 @@
       <c r="I203" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J203" s="1" t="s">
-        <v>68</v>
+      <c r="J203" s="2" t="str">
+        <f>IF(I203="","",IF(ISERROR(FIND("-",I203,FIND("-",I203,1)+1)),I203,LEFT(I203,FIND("-",I203,FIND("-",I203,1)+1)-1)))</f>
+        <v>ROE-X405</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L203" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M203" s="1" t="str">
+      <c r="L203" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N203" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A203&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[X405]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N203" s="1" t="str">
+      <c r="O203" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10196,7 +11016,7 @@
 }</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -10218,20 +11038,24 @@
       <c r="I204" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J204" s="1" t="s">
-        <v>68</v>
+      <c r="J204" s="2" t="str">
+        <f>IF(I204="","",IF(ISERROR(FIND("-",I204,FIND("-",I204,1)+1)),I204,LEFT(I204,FIND("-",I204,FIND("-",I204,1)+1)-1)))</f>
+        <v>ROE-X405H</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L204" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M204" s="1" t="str">
+      <c r="L204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N204" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A204&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[X405H]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="N204" s="1" t="str">
+      <c r="O204" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10252,7 +11076,7 @@
 }</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>285</v>
       </c>
@@ -10260,24 +11084,28 @@
         <v>210</v>
       </c>
       <c r="I205" s="2"/>
-      <c r="M205" s="1" t="str">
+      <c r="J205" s="2" t="str">
+        <f>IF(I205="","",IF(ISERROR(FIND("-",I205,FIND("-",I205,1)+1)),I205,LEFT(I205,FIND("-",I205,FIND("-",I205,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N205" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A205&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N205" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>283</v>
       </c>
@@ -10291,24 +11119,28 @@
         <v>0</v>
       </c>
       <c r="I206" s="2"/>
-      <c r="M206" s="1" t="str">
+      <c r="J206" s="2" t="str">
+        <f>IF(I206="","",IF(ISERROR(FIND("-",I206,FIND("-",I206,1)+1)),I206,LEFT(I206,FIND("-",I206,FIND("-",I206,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N206" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A206&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N206" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>281</v>
       </c>
@@ -10322,24 +11154,28 @@
         <v>1959</v>
       </c>
       <c r="I207" s="2"/>
-      <c r="M207" s="1" t="str">
+      <c r="J207" s="2" t="str">
+        <f>IF(I207="","",IF(ISERROR(FIND("-",I207,FIND("-",I207,1)+1)),I207,LEFT(I207,FIND("-",I207,FIND("-",I207,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N207" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A207&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N207" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>279</v>
       </c>
@@ -10350,11 +11186,15 @@
         <v>280</v>
       </c>
       <c r="I208" s="2"/>
-      <c r="M208" s="1" t="str">
+      <c r="J208" s="2" t="str">
+        <f>IF(I208="","",IF(ISERROR(FIND("-",I208,FIND("-",I208,1)+1)),I208,LEFT(I208,FIND("-",I208,FIND("-",I208,1)+1)-1)))</f>
+        <v/>
+      </c>
+      <c r="N208" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A208&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
       </c>
-      <c r="N208" s="1" t="str">
+      <c r="O208" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines

--- a/Engine List.xlsx
+++ b/Engine List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="489">
   <si>
     <t>engineType</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Gamma2</t>
   </si>
   <si>
-    <t>Merlin1</t>
-  </si>
-  <si>
     <t>Falcon 9</t>
   </si>
   <si>
@@ -1467,6 +1464,36 @@
   </si>
   <si>
     <t>Soviet Engines</t>
+  </si>
+  <si>
+    <t>ROE-Merlin1A</t>
+  </si>
+  <si>
+    <t>ROE-Merlin1C</t>
+  </si>
+  <si>
+    <t>ROE-Merlin1CV</t>
+  </si>
+  <si>
+    <t>ROE-Merlin1D</t>
+  </si>
+  <si>
+    <t>ROE-Merlin1DV</t>
+  </si>
+  <si>
+    <t>Merlin1C</t>
+  </si>
+  <si>
+    <t>Merlin1CVac</t>
+  </si>
+  <si>
+    <t>Merlin1D</t>
+  </si>
+  <si>
+    <t>Merlin1DVac</t>
+  </si>
+  <si>
+    <t>Merlin1A</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,14 +1546,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1573,6 +1610,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1678,10 +1718,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P208" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P212" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P212">
     <filterColumn colId="11">
-      <filters blank="1"/>
+      <filters>
+        <filter val="ADD"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:O208">
@@ -1700,14 +1742,14 @@
     <tableColumn id="15" name="New PartName" dataDxfId="6">
       <calculatedColumnFormula>IF(I2="","",IF(ISERROR(FIND("-",I2,FIND("-",I2,1)+1)),I2,LEFT(I2,FIND("-",I2,FIND("-",I2,1)+1)-1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="TU Support" dataDxfId="0"/>
-    <tableColumn id="8" name="Complete" dataDxfId="5"/>
-    <tableColumn id="9" name="Added to RP1" dataDxfId="4"/>
-    <tableColumn id="13" name="REMOVE?" dataDxfId="3"/>
-    <tableColumn id="10" name="REMOVE" dataDxfId="2">
+    <tableColumn id="16" name="TU Support" dataDxfId="5"/>
+    <tableColumn id="8" name="Complete" dataDxfId="4"/>
+    <tableColumn id="9" name="Added to RP1" dataDxfId="3"/>
+    <tableColumn id="13" name="REMOVE?" dataDxfId="2"/>
+    <tableColumn id="10" name="REMOVE" dataDxfId="1">
       <calculatedColumnFormula>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A2&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="PatchManager" dataDxfId="1">
+    <tableColumn id="14" name="PatchManager" dataDxfId="0">
       <calculatedColumnFormula>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -2248,10 +2290,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:P212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="L209" sqref="L209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2331,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>64</v>
@@ -2298,33 +2340,33 @@
         <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -2345,14 +2387,14 @@
         <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J2" s="2" t="str">
         <f t="shared" ref="J2:J65" si="0">IF(I2="","",IF(ISERROR(FIND("-",I2,FIND("-",I2,1)+1)),I2,LEFT(I2,FIND("-",I2,FIND("-",I2,1)+1)-1)))</f>
         <v>ROE-A4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>68</v>
@@ -2411,14 +2453,14 @@
         <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-Aerobee</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>68</v>
@@ -2456,13 +2498,13 @@
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -2471,10 +2513,10 @@
         <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2506,13 +2548,13 @@
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2521,10 +2563,10 @@
         <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2554,7 +2596,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -2613,14 +2655,14 @@
         <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-Agena8048</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>68</v>
@@ -2679,14 +2721,14 @@
         <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-Agena8096</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>68</v>
@@ -2711,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2755,7 +2797,7 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E10" t="s">
         <v>72</v>
@@ -2767,17 +2809,17 @@
         <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-AJ10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>68</v>
@@ -2836,14 +2878,14 @@
         <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-AJ10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>68</v>
@@ -2887,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F12">
         <v>1972</v>
@@ -2896,17 +2938,17 @@
         <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-AJ10Adv</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>68</v>
@@ -2950,7 +2992,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13">
         <v>1959</v>
@@ -2962,14 +3004,14 @@
         <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-AJ10Early</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>68</v>
@@ -3013,7 +3055,7 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14">
         <v>1960</v>
@@ -3025,14 +3067,14 @@
         <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-AJ10Mid</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>68</v>
@@ -3070,7 +3112,7 @@
     </row>
     <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -3091,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3157,7 +3199,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3212,7 +3254,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3268,7 +3310,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3300,7 +3342,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3342,7 +3384,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -3384,7 +3426,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3423,7 +3465,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3465,7 +3507,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3506,13 +3548,13 @@
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
@@ -3527,10 +3569,10 @@
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3575,13 +3617,13 @@
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -3596,10 +3638,10 @@
         <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3650,7 +3692,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -3665,10 +3707,10 @@
         <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3711,7 +3753,7 @@
 }</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3753,7 +3795,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3798,7 +3840,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3837,7 +3879,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3876,7 +3918,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3917,13 +3959,13 @@
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
@@ -3935,10 +3977,10 @@
         <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3983,13 +4025,13 @@
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
         <v>84</v>
@@ -4001,10 +4043,10 @@
         <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4038,13 +4080,13 @@
     </row>
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
         <v>84</v>
@@ -4056,10 +4098,10 @@
         <v>68</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4093,22 +4135,22 @@
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" t="s">
         <v>337</v>
       </c>
-      <c r="B35" t="s">
-        <v>338</v>
-      </c>
       <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4149,7 +4191,7 @@
 }</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4185,7 +4227,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4218,7 +4260,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -4259,7 +4301,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
@@ -4271,10 +4313,10 @@
         <v>68</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4315,7 +4357,7 @@
 }</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -4359,7 +4401,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -4371,10 +4413,10 @@
         <v>68</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4415,7 +4457,7 @@
 }</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -4448,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -4481,7 +4523,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -4517,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -4553,7 +4595,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4589,7 +4631,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -4625,7 +4667,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4684,14 +4726,14 @@
         <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-E1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>68</v>
@@ -4727,7 +4769,7 @@
 }</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4792,14 +4834,14 @@
         <v>70</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-F1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>68</v>
@@ -4835,7 +4877,7 @@
 }</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -4871,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -4907,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -4943,7 +4985,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -4987,7 +5029,7 @@
         <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E56" t="s">
         <v>142</v>
@@ -4999,10 +5041,10 @@
         <v>68</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5043,7 +5085,7 @@
 }</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -5082,7 +5124,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -5121,7 +5163,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -5160,7 +5202,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -5196,7 +5238,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -5255,14 +5297,14 @@
         <v>70</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-H1C</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>68</v>
@@ -5321,14 +5363,14 @@
         <v>70</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ROE-H1D</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>68</v>
@@ -5353,7 +5395,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -5386,7 +5428,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -5436,14 +5478,14 @@
         <v>70</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" ref="J66:J129" si="1">IF(I66="","",IF(ISERROR(FIND("-",I66,FIND("-",I66,1)+1)),I66,LEFT(I66,FIND("-",I66,FIND("-",I66,1)+1)-1)))</f>
         <v>ROE-J2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>68</v>
@@ -5479,7 +5521,7 @@
 }</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -5529,14 +5571,14 @@
         <v>70</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-J2X</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>68</v>
@@ -5572,7 +5614,7 @@
 }</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -5611,7 +5653,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -5656,7 +5698,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -5692,7 +5734,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -5728,7 +5770,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5758,7 +5800,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -5788,9 +5830,9 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
@@ -5799,7 +5841,7 @@
         <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75">
         <v>1966</v>
@@ -5814,7 +5856,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O75" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A75&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -5833,18 +5875,18 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="str">
@@ -5869,15 +5911,15 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="str">
@@ -5902,15 +5944,15 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
         <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="str">
@@ -5937,25 +5979,25 @@
     </row>
     <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E79" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E79" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I79" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5998,25 +6040,25 @@
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>435</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>334</v>
+      </c>
+      <c r="E80" t="s">
+        <v>347</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B80" t="s">
-        <v>338</v>
-      </c>
-      <c r="C80" t="s">
-        <v>335</v>
-      </c>
-      <c r="E80" t="s">
-        <v>348</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6047,18 +6089,18 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>68</v>
@@ -6073,7 +6115,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O81" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A81&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -6092,18 +6134,18 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>68</v>
@@ -6118,7 +6160,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O82" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A82&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -6148,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F83">
         <v>1956</v>
@@ -6160,14 +6202,14 @@
         <v>32</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-LR101</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>68</v>
@@ -6214,7 +6256,7 @@
         <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F84">
         <v>1958</v>
@@ -6226,14 +6268,14 @@
         <v>32</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-LR105</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>68</v>
@@ -6277,10 +6319,10 @@
         <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F85">
         <v>1956</v>
@@ -6289,17 +6331,17 @@
         <v>68</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-LR79</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>68</v>
@@ -6335,15 +6377,15 @@
 }</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F86">
         <v>1958</v>
@@ -6373,13 +6415,13 @@
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F87">
         <v>1959</v>
@@ -6388,10 +6430,10 @@
         <v>68</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J87" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6432,9 +6474,9 @@
 }</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
         <v>63</v>
@@ -6476,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F89">
         <v>1958</v>
@@ -6488,14 +6530,14 @@
         <v>32</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-LR89</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>68</v>
@@ -6533,13 +6575,13 @@
     </row>
     <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90">
         <v>1959</v>
@@ -6548,10 +6590,10 @@
         <v>68</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J90" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6594,7 +6636,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
@@ -6614,6 +6656,9 @@
         <v/>
       </c>
       <c r="K91" s="2"/>
+      <c r="L91" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="O91" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A91&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -6631,15 +6676,15 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F92">
         <v>1962</v>
@@ -6669,7 +6714,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>488</v>
       </c>
       <c r="B93" t="s">
         <v>63</v>
@@ -6678,7 +6723,7 @@
         <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F93">
         <v>2006</v>
@@ -6689,15 +6734,28 @@
       <c r="H93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="J93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K93" s="2"/>
+        <v>ROE-Merlin1A</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O93" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A93&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Merlin1A]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P93" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -6709,18 +6767,26 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/Merlin1A.cfg
+ patchName = Merlin1A
+ shortDescr = Merlin1A
+ longDescr = Removes the duplicated Merlin1A engines from other mods.
+ installedWithMod = True
+}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
         <v>63</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="str">
@@ -6747,25 +6813,25 @@
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
+        <v>334</v>
+      </c>
+      <c r="E95" t="s">
+        <v>340</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E95" t="s">
-        <v>341</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I95" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J95" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6796,15 +6862,15 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
         <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="str">
@@ -6829,15 +6895,15 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>63</v>
       </c>
       <c r="E97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="str">
@@ -6862,15 +6928,15 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
         <v>63</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="str">
@@ -6906,7 +6972,7 @@
         <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F99">
         <v>1952</v>
@@ -6918,7 +6984,7 @@
         <v>67</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J99" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6959,9 +7025,9 @@
 }</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
         <v>79</v>
@@ -6989,9 +7055,9 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -7019,9 +7085,9 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
         <v>79</v>
@@ -7049,9 +7115,9 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
         <v>79</v>
@@ -7081,16 +7147,16 @@
     </row>
     <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F104">
         <v>1955</v>
@@ -7099,10 +7165,10 @@
         <v>68</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J104" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7145,7 +7211,7 @@
     </row>
     <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
         <v>63</v>
@@ -7154,7 +7220,7 @@
         <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>68</v>
@@ -7163,7 +7229,7 @@
         <v>67</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J105" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7206,7 +7272,7 @@
     </row>
     <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -7215,7 +7281,7 @@
         <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>68</v>
@@ -7224,7 +7290,7 @@
         <v>67</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J106" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7265,15 +7331,15 @@
 }</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B107" t="s">
         <v>63</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>68</v>
@@ -7288,7 +7354,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O107" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A107&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -7307,15 +7373,15 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>68</v>
@@ -7330,7 +7396,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O108" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A108&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -7349,12 +7415,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" t="s">
         <v>209</v>
-      </c>
-      <c r="B109" t="s">
-        <v>210</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="str">
@@ -7379,9 +7445,9 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B110" t="s">
         <v>79</v>
@@ -7409,9 +7475,9 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111" t="s">
         <v>79</v>
@@ -7439,9 +7505,9 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -7471,16 +7537,16 @@
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
         <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E113" t="s">
         <v>71</v>
@@ -7489,10 +7555,10 @@
         <v>68</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J113" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7524,25 +7590,25 @@
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
       </c>
       <c r="C114" t="s">
+        <v>334</v>
+      </c>
+      <c r="E114" t="s">
+        <v>333</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E114" t="s">
-        <v>334</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I114" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J114" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7574,25 +7640,25 @@
     </row>
     <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
         <v>63</v>
       </c>
       <c r="C115" t="s">
+        <v>334</v>
+      </c>
+      <c r="E115" t="s">
+        <v>347</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E115" t="s">
-        <v>348</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I115" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J115" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7633,9 +7699,9 @@
 }</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
         <v>63</v>
@@ -7644,7 +7710,7 @@
         <v>67</v>
       </c>
       <c r="E116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>68</v>
@@ -7659,7 +7725,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O116" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A116&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -7680,32 +7746,32 @@
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C117" t="s">
+        <v>334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E117" t="s">
-        <v>343</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I117" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-MR104</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>68</v>
@@ -7732,29 +7798,29 @@
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>448</v>
+      </c>
+      <c r="B118" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" t="s">
+        <v>334</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B118" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" t="s">
-        <v>335</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="J118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-PLE</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>68</v>
@@ -7781,29 +7847,29 @@
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B119" t="s">
-        <v>338</v>
-      </c>
-      <c r="C119" t="s">
-        <v>335</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="J119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-S400</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>68</v>
@@ -7830,13 +7896,13 @@
     </row>
     <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B120" t="s">
         <v>63</v>
       </c>
       <c r="E120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F120">
         <v>1958</v>
@@ -7845,10 +7911,10 @@
         <v>68</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J120" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7883,7 +7949,7 @@
         <v>63</v>
       </c>
       <c r="E121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F121">
         <v>1960</v>
@@ -7895,7 +7961,7 @@
         <v>70</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J121" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7936,18 +8002,18 @@
 }</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
         <v>63</v>
       </c>
       <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
         <v>191</v>
-      </c>
-      <c r="E122" t="s">
-        <v>192</v>
       </c>
       <c r="F122">
         <v>2013</v>
@@ -7975,18 +8041,18 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
         <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F123">
         <v>2013</v>
@@ -8014,15 +8080,15 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B124" t="s">
         <v>63</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>68</v>
@@ -8037,7 +8103,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O124" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A124&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8056,15 +8122,15 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B125" t="s">
         <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>67</v>
@@ -8076,7 +8142,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O125" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A125&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8095,15 +8161,15 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s">
         <v>63</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>67</v>
@@ -8115,7 +8181,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O126" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A126&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8134,15 +8200,15 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B127" t="s">
         <v>63</v>
       </c>
       <c r="E127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>67</v>
@@ -8154,7 +8220,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O127" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A127&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8173,15 +8239,15 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
         <v>63</v>
       </c>
       <c r="E128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>67</v>
@@ -8193,7 +8259,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O128" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A128&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8212,15 +8278,15 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B129" t="s">
         <v>63</v>
       </c>
       <c r="E129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="str">
@@ -8245,18 +8311,18 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
         <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="str">
@@ -8281,9 +8347,9 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
@@ -8311,9 +8377,9 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
         <v>79</v>
@@ -8361,7 +8427,7 @@
         <v>67</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J133" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8413,7 +8479,7 @@
         <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F134">
         <v>1956</v>
@@ -8425,14 +8491,14 @@
         <v>70</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RD107</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>68</v>
@@ -8479,7 +8545,7 @@
         <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F135">
         <v>1956</v>
@@ -8491,14 +8557,14 @@
         <v>70</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J135" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RD108</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>68</v>
@@ -8534,15 +8600,15 @@
 }</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
         <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="str">
@@ -8578,7 +8644,7 @@
         <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>68</v>
@@ -8587,14 +8653,14 @@
         <v>70</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J137" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RD170</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>68</v>
@@ -8650,14 +8716,14 @@
         <v>70</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J138" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RD180</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>68</v>
@@ -8704,7 +8770,7 @@
         <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>68</v>
@@ -8713,14 +8779,14 @@
         <v>70</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J139" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RD191</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>68</v>
@@ -8756,15 +8822,15 @@
 }</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
       </c>
       <c r="E140" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>67</v>
@@ -8776,7 +8842,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O140" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A140&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8795,18 +8861,18 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
       </c>
       <c r="D141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2" t="str">
@@ -8815,7 +8881,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O141" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A141&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8834,18 +8900,18 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
       </c>
       <c r="E142" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="str">
@@ -8854,7 +8920,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O142" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A142&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8873,15 +8939,15 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
       </c>
       <c r="E143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="str">
@@ -8890,7 +8956,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O143" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A143&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -8911,13 +8977,13 @@
     </row>
     <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>68</v>
@@ -8926,7 +8992,7 @@
         <v>67</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J144" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8967,15 +9033,15 @@
 }</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
       </c>
       <c r="E145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2" t="str">
@@ -9000,15 +9066,15 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
       </c>
       <c r="E146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="str">
@@ -9035,16 +9101,16 @@
     </row>
     <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B147" t="s">
         <v>63</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>68</v>
@@ -9053,7 +9119,7 @@
         <v>67</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J147" s="2" t="str">
         <f t="shared" si="2"/>
@@ -9094,15 +9160,15 @@
 }</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
         <v>63</v>
       </c>
       <c r="E148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>67</v>
@@ -9114,7 +9180,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O148" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A148&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -9133,18 +9199,18 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B149" t="s">
         <v>63</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E149" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F149">
         <v>1964</v>
@@ -9172,18 +9238,18 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B150" t="s">
         <v>63</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F150">
         <v>1964</v>
@@ -9198,7 +9264,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O150" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A150&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
@@ -9217,9 +9283,9 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>31</v>
@@ -9267,7 +9333,7 @@
         <v>70</v>
       </c>
       <c r="E152" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>68</v>
@@ -9276,14 +9342,14 @@
         <v>70</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J152" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RL10A3</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>68</v>
@@ -9330,7 +9396,7 @@
         <v>70</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>68</v>
@@ -9339,14 +9405,14 @@
         <v>70</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J153" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RL10A3</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>68</v>
@@ -9382,7 +9448,7 @@
         <v>70</v>
       </c>
       <c r="E154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>68</v>
@@ -9391,14 +9457,14 @@
         <v>70</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J154" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RL10A5</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>68</v>
@@ -9434,7 +9500,7 @@
         <v>70</v>
       </c>
       <c r="E155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>68</v>
@@ -9443,14 +9509,14 @@
         <v>70</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J155" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RL10B2</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>68</v>
@@ -9475,15 +9541,15 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B156" t="s">
         <v>63</v>
       </c>
       <c r="E156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="str">
@@ -9528,14 +9594,14 @@
         <v>70</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J157" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RS68</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>68</v>
@@ -9571,15 +9637,15 @@
 }</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B158" t="s">
         <v>63</v>
       </c>
       <c r="E158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="str">
@@ -9604,9 +9670,9 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
         <v>31</v>
@@ -9643,15 +9709,15 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F160">
         <v>2012</v>
@@ -9679,9 +9745,9 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
@@ -9720,22 +9786,22 @@
     </row>
     <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C162" t="s">
+        <v>334</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I162" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J162" s="2" t="str">
         <f t="shared" si="2"/>
@@ -9778,22 +9844,22 @@
     </row>
     <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C163" t="s">
+        <v>334</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I163" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J163" s="2" t="str">
         <f t="shared" si="2"/>
@@ -9826,16 +9892,16 @@
     </row>
     <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B164" t="s">
         <v>63</v>
       </c>
       <c r="C164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F164">
         <v>1953</v>
@@ -9844,10 +9910,10 @@
         <v>68</v>
       </c>
       <c r="H164" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I164" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="J164" s="2" t="str">
         <f t="shared" si="2"/>
@@ -9890,16 +9956,16 @@
     </row>
     <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F165">
         <v>2000</v>
@@ -9908,14 +9974,14 @@
         <v>68</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J165" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-S592</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>68</v>
@@ -9953,16 +10019,16 @@
     </row>
     <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>63</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E166" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F166">
         <v>2000</v>
@@ -9971,10 +10037,10 @@
         <v>68</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J166" s="2" t="str">
         <f t="shared" si="2"/>
@@ -10015,15 +10081,15 @@
 }</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
         <v>63</v>
       </c>
       <c r="D167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E167" t="s">
         <v>92</v>
@@ -10054,9 +10120,9 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B168" t="s">
         <v>79</v>
@@ -10084,15 +10150,15 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B169" t="s">
         <v>31</v>
       </c>
       <c r="E169" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F169">
         <v>1989</v>
@@ -10143,14 +10209,14 @@
         <v>70</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J170" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ROE-RS25</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>68</v>
@@ -10186,9 +10252,9 @@
 }</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
@@ -10216,9 +10282,9 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B172" t="s">
         <v>31</v>
@@ -10246,9 +10312,9 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B173" t="s">
         <v>31</v>
@@ -10279,9 +10345,9 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
@@ -10309,9 +10375,9 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
@@ -10339,9 +10405,9 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>31</v>
@@ -10369,9 +10435,9 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
@@ -10399,9 +10465,9 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B178" t="s">
         <v>31</v>
@@ -10429,9 +10495,9 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>31</v>
@@ -10459,9 +10525,9 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
@@ -10489,9 +10555,9 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
         <v>31</v>
@@ -10522,9 +10588,9 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
@@ -10555,9 +10621,9 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
@@ -10588,9 +10654,9 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
@@ -10621,9 +10687,9 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B185" t="s">
         <v>31</v>
@@ -10654,9 +10720,9 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B186" t="s">
         <v>31</v>
@@ -10689,25 +10755,25 @@
     </row>
     <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>343</v>
+      </c>
+      <c r="B187" t="s">
+        <v>337</v>
+      </c>
+      <c r="C187" t="s">
+        <v>334</v>
+      </c>
+      <c r="E187" t="s">
         <v>344</v>
       </c>
-      <c r="B187" t="s">
-        <v>338</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="G187" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E187" t="s">
-        <v>345</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I187" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J187" s="2" t="str">
         <f t="shared" si="2"/>
@@ -10748,9 +10814,9 @@
 }</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -10781,9 +10847,9 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
         <v>31</v>
@@ -10816,25 +10882,25 @@
     </row>
     <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" t="s">
+        <v>337</v>
+      </c>
+      <c r="C190" t="s">
+        <v>334</v>
+      </c>
+      <c r="E190" t="s">
         <v>346</v>
       </c>
-      <c r="B190" t="s">
-        <v>338</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="G190" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E190" t="s">
-        <v>347</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I190" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J190" s="2" t="str">
         <f t="shared" si="2"/>
@@ -10875,9 +10941,9 @@
 }</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
         <v>31</v>
@@ -10910,25 +10976,25 @@
     </row>
     <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
         <v>63</v>
       </c>
       <c r="C192" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E192" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J192" s="2" t="str">
         <f t="shared" si="2"/>
@@ -10960,25 +11026,25 @@
     </row>
     <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B193" t="s">
         <v>63</v>
       </c>
       <c r="C193" t="s">
+        <v>334</v>
+      </c>
+      <c r="E193" t="s">
+        <v>300</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E193" t="s">
-        <v>301</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I193" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J193" s="2" t="str">
         <f t="shared" si="2"/>
@@ -11010,25 +11076,25 @@
     </row>
     <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
         <v>63</v>
       </c>
       <c r="E194" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J194" s="2" t="str">
-        <f t="shared" ref="J194:J257" si="3">IF(I194="","",IF(ISERROR(FIND("-",I194,FIND("-",I194,1)+1)),I194,LEFT(I194,FIND("-",I194,FIND("-",I194,1)+1)-1)))</f>
+        <f t="shared" ref="J194:J212" si="3">IF(I194="","",IF(ISERROR(FIND("-",I194,FIND("-",I194,1)+1)),I194,LEFT(I194,FIND("-",I194,FIND("-",I194,1)+1)-1)))</f>
         <v>ROE-TD339</v>
       </c>
       <c r="K194" s="2"/>
@@ -11068,25 +11134,25 @@
     </row>
     <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C195" t="s">
+        <v>334</v>
+      </c>
+      <c r="E195" t="s">
+        <v>341</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E195" t="s">
-        <v>342</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="I195" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J195" s="2" t="str">
         <f t="shared" si="3"/>
@@ -11127,9 +11193,9 @@
 }</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B196" t="s">
         <v>31</v>
@@ -11163,15 +11229,15 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
         <v>31</v>
       </c>
       <c r="E197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F197">
         <v>1965</v>
@@ -11202,15 +11268,15 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B198" t="s">
         <v>31</v>
       </c>
       <c r="E198" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F198">
         <v>1989</v>
@@ -11241,9 +11307,9 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B199" t="s">
         <v>63</v>
@@ -11277,15 +11343,15 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B200" t="s">
         <v>63</v>
       </c>
       <c r="E200" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2" t="str">
@@ -11310,15 +11376,15 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B201" t="s">
         <v>63</v>
       </c>
       <c r="E201" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2" t="str">
@@ -11343,9 +11409,9 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B202" t="s">
         <v>31</v>
@@ -11381,13 +11447,13 @@
     </row>
     <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B203" t="s">
         <v>63</v>
       </c>
       <c r="C203" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E203" t="s">
         <v>142</v>
@@ -11402,14 +11468,14 @@
         <v>32</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J203" s="2" t="str">
         <f t="shared" si="3"/>
         <v>ROE-X405</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L203" s="1" t="s">
         <v>68</v>
@@ -11447,7 +11513,7 @@
     </row>
     <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B204" t="s">
         <v>63</v>
@@ -11456,7 +11522,7 @@
         <v>32</v>
       </c>
       <c r="E204" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>68</v>
@@ -11465,14 +11531,14 @@
         <v>32</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J204" s="2" t="str">
         <f t="shared" si="3"/>
         <v>ROE-X405H</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>68</v>
@@ -11508,12 +11574,12 @@
 }</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2" t="str">
@@ -11538,15 +11604,15 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
         <v>63</v>
       </c>
       <c r="E206" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -11574,15 +11640,15 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B207" t="s">
         <v>63</v>
       </c>
       <c r="E207" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F207">
         <v>1959</v>
@@ -11610,15 +11676,15 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B208" t="s">
         <v>63</v>
       </c>
       <c r="E208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="2" t="str">
@@ -11631,6 +11697,234 @@
         <v/>
       </c>
       <c r="P208" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F209" s="4">
+        <v>2006</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="J209" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Merlin1C</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M209" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N209" s="5"/>
+      <c r="O209" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A209&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P209" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" s="4">
+        <v>2006</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J210" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Merlin1CV</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N210" s="5"/>
+      <c r="O210" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A210&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P210" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F211" s="4">
+        <v>2006</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="J211" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Merlin1D</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L211" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M211" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N211" s="5"/>
+      <c r="O211" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A211&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P211" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" s="4">
+        <v>2006</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J212" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Merlin1DV</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N212" s="5"/>
+      <c r="O212" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A212&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P212" s="8" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -11668,7 +11962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" t="str">
         <f>"!PART["&amp;A1&amp;"] {}"</f>
@@ -11677,7 +11971,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" t="str">
         <f>"!PART["&amp;A2&amp;"] {}"</f>
@@ -11686,7 +11980,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" t="str">
         <f>"!PART["&amp;A3&amp;"] {}"</f>
@@ -11695,7 +11989,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" t="str">
         <f>"!PART["&amp;A4&amp;"] {}"</f>
@@ -11733,24 +12027,24 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2" t="s">
         <v>424</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>425</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>426</v>
-      </c>
-      <c r="N2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
@@ -11771,7 +12065,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1">
         <v>5</v>
@@ -11796,7 +12090,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
@@ -11821,7 +12115,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J6" s="1">
         <v>7</v>
@@ -11842,13 +12136,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8">
         <v>3.35</v>
       </c>
       <c r="M8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N8">
         <v>3.048</v>
@@ -11856,7 +12150,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N9">
         <v>8.5299999999999994</v>
@@ -11864,68 +12158,68 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s">
         <v>323</v>
-      </c>
-      <c r="E15" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" t="s">
         <v>325</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" t="s">
         <v>328</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>329</v>
-      </c>
-      <c r="F19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
         <v>320</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>321</v>
-      </c>
-      <c r="D20" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Engine List.xlsx
+++ b/Engine List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="5085" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remove" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="496">
   <si>
     <t>engineType</t>
   </si>
@@ -1494,6 +1500,27 @@
   </si>
   <si>
     <t>Merlin1A</t>
+  </si>
+  <si>
+    <t>ROE-RD275</t>
+  </si>
+  <si>
+    <t>ROE-NK9</t>
+  </si>
+  <si>
+    <t>ROE-NK9V</t>
+  </si>
+  <si>
+    <t>ROE-RD0120</t>
+  </si>
+  <si>
+    <t>ROE-Raptor</t>
+  </si>
+  <si>
+    <t>Raptor Vacuum</t>
+  </si>
+  <si>
+    <t>ROE-RaptorVac</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1745,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P212" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:P213" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P213">
     <filterColumn colId="11">
       <filters>
         <filter val="ADD"/>
@@ -2290,10 +2317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P212"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L209" sqref="L209"/>
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5508,7 @@
         <v>382</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" ref="J66:J129" si="1">IF(I66="","",IF(ISERROR(FIND("-",I66,FIND("-",I66,1)+1)),I66,LEFT(I66,FIND("-",I66,FIND("-",I66,1)+1)-1)))</f>
+        <f t="shared" ref="J66:J130" si="1">IF(I66="","",IF(ISERROR(FIND("-",I66,FIND("-",I66,1)+1)),I66,LEFT(I66,FIND("-",I66,FIND("-",I66,1)+1)-1)))</f>
         <v>ROE-J2</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -6712,7 +6739,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>488</v>
       </c>
@@ -7331,13 +7358,16 @@
 }</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>188</v>
       </c>
       <c r="B107" t="s">
         <v>63</v>
       </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
       <c r="E107" t="s">
         <v>186</v>
       </c>
@@ -7347,18 +7377,23 @@
       <c r="H107" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="J107" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ROE-NK9</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="1" t="s">
-        <v>476</v>
+        <v>68</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="O107" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A107&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NK9]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P107" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -7370,16 +7405,27 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/NK9.cfg
+ patchName = NK9
+ shortDescr = NK9
+ longDescr = Removes the duplicated NK9 engines from other mods.
+ installedWithMod = True
+}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>187</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
       </c>
+      <c r="C108" t="s">
+        <v>67</v>
+      </c>
       <c r="E108" t="s">
         <v>186</v>
       </c>
@@ -7389,18 +7435,23 @@
       <c r="H108" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I108" s="2"/>
+      <c r="I108" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="J108" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ROE-NK9V</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="1" t="s">
-        <v>476</v>
+        <v>68</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="O108" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A108&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[NK9V]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P108" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -7412,7 +7463,15 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/NK9V.cfg
+ patchName = NK9V
+ shortDescr = NK9V
+ longDescr = Removes the duplicated NK9V engines from other mods.
+ installedWithMod = True
+}</v>
       </c>
     </row>
     <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -7699,7 +7758,7 @@
 }</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -7718,18 +7777,23 @@
       <c r="H116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="J116" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ROE-Raptor</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="1" t="s">
-        <v>476</v>
+        <v>68</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="O116" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A116&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Raptor]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P116" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -7741,247 +7805,302 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/Raptor.cfg
+ patchName = Raptor
+ shortDescr = Raptor
+ longDescr = Removes the duplicated Raptor engines from other mods.
+ installedWithMod = True
+}</v>
       </c>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>494</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J117" s="2" t="str">
+        <f t="shared" ref="J117" si="2">IF(I117="","",IF(ISERROR(FIND("-",I117,FIND("-",I117,1)+1)),I117,LEFT(I117,FIND("-",I117,FIND("-",I117,1)+1)-1)))</f>
+        <v>ROE-RaptorVac</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O117" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A117&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P117" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>439</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>337</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>334</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="G118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J117" s="2" t="str">
+      <c r="J118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-MR104</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K118" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O117" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A117&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P117" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="L118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O118" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A118&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P118" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>448</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>337</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>334</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H118" s="1" t="s">
+      <c r="G119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J118" s="2" t="str">
+      <c r="J119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-PLE</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O118" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A118&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P118" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="L119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O119" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A119&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P119" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>442</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>337</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>334</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="1" t="s">
+      <c r="G120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J119" s="2" t="str">
+      <c r="J120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-S400</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O119" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A119&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P119" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="L120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O120" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A120&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P120" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>194</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>63</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>399</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <v>1958</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H120" s="1" t="s">
+      <c r="G121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J120" s="2" t="str">
+      <c r="J121" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-RD0105</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O120" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A120&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P120" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O121" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A121&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P121" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>63</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>192</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>1960</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="1" t="s">
+      <c r="G122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J121" s="2" t="str">
+      <c r="J122" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ROE-RD0110</v>
       </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N121" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O121" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A121&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="K122" s="2"/>
+      <c r="L122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O122" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A122&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD0110]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P121" s="1" t="str">
+      <c r="P122" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8002,48 +8121,9 @@
 }</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" t="s">
-        <v>63</v>
-      </c>
-      <c r="D122" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" t="s">
-        <v>191</v>
-      </c>
-      <c r="F122">
-        <v>2013</v>
-      </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K122" s="2"/>
-      <c r="O122" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A122&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P122" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
         <v>63</v>
@@ -8052,7 +8132,7 @@
         <v>190</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F123">
         <v>2013</v>
@@ -8080,21 +8160,21 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
         <v>63</v>
       </c>
+      <c r="D124" t="s">
+        <v>190</v>
+      </c>
       <c r="E124" t="s">
-        <v>218</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>67</v>
+        <v>220</v>
+      </c>
+      <c r="F124">
+        <v>2013</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="str">
@@ -8102,9 +8182,6 @@
         <v/>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="O124" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A124&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -8122,31 +8199,39 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B125" t="s">
         <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="J125" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ROE-RD0120</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="1" t="s">
-        <v>476</v>
+        <v>68</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="O125" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A125&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD0120]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P125" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -8158,18 +8243,26 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/RD0120.cfg
+ patchName = RD0120
+ shortDescr = RD0120
+ longDescr = Removes the duplicated RD0120 engines from other mods.
+ installedWithMod = True
+}</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
         <v>63</v>
       </c>
-      <c r="D126" t="s">
-        <v>213</v>
+      <c r="E126" t="s">
+        <v>215</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>67</v>
@@ -8202,13 +8295,13 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B127" t="s">
         <v>63</v>
       </c>
-      <c r="E127" t="s">
-        <v>233</v>
+      <c r="D127" t="s">
+        <v>213</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>67</v>
@@ -8241,7 +8334,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
         <v>63</v>
@@ -8278,15 +8371,18 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
         <v>63</v>
       </c>
       <c r="E129" t="s">
         <v>233</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="str">
@@ -8294,6 +8390,9 @@
         <v/>
       </c>
       <c r="K129" s="2"/>
+      <c r="L129" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="O129" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A129&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -8313,20 +8412,17 @@
     </row>
     <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B130" t="s">
         <v>63</v>
       </c>
-      <c r="D130" t="s">
-        <v>190</v>
-      </c>
       <c r="E130" t="s">
         <v>233</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="str">
-        <f t="shared" ref="J130:J193" si="2">IF(I130="","",IF(ISERROR(FIND("-",I130,FIND("-",I130,1)+1)),I130,LEFT(I130,FIND("-",I130,FIND("-",I130,1)+1)-1)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K130" s="2"/>
@@ -8349,14 +8445,20 @@
     </row>
     <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
         <v>63</v>
       </c>
+      <c r="D131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" t="s">
+        <v>233</v>
+      </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J131:J194" si="3">IF(I131="","",IF(ISERROR(FIND("-",I131,FIND("-",I131,1)+1)),I131,LEFT(I131,FIND("-",I131,FIND("-",I131,1)+1)-1)))</f>
         <v/>
       </c>
       <c r="K131" s="2"/>
@@ -8379,14 +8481,14 @@
     </row>
     <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K132" s="2"/>
@@ -8409,45 +8511,75 @@
     </row>
     <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" t="s">
-        <v>67</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I133" s="2"/>
       <c r="J133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RD100</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K133" s="2"/>
-      <c r="L133" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O133" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A133&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P133" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J134" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RD100</v>
+      </c>
+      <c r="K134" s="2"/>
+      <c r="L134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O134" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A134&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD100]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P133" s="1" t="str">
+      <c r="P134" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8468,52 +8600,52 @@
 }</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>63</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>193</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <v>1956</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H134" s="1" t="s">
+      <c r="G135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J134" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J135" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-RD107</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K135" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O134" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A134&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O135" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A135&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD107-117]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P134" s="1" t="str">
+      <c r="P135" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8534,52 +8666,52 @@
 }</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>10</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>63</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>70</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>193</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>1956</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H135" s="1" t="s">
+      <c r="G136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J135" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J136" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-RD108</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K136" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N135" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O135" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A135&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O136" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A136&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD108-118]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P135" s="1" t="str">
+      <c r="P136" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8600,82 +8732,82 @@
 }</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" t="s">
-        <v>63</v>
-      </c>
-      <c r="E136" t="s">
-        <v>199</v>
-      </c>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="O136" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A136&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P136" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
       </c>
-      <c r="C137" t="s">
-        <v>70</v>
-      </c>
       <c r="E137" t="s">
-        <v>211</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>401</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I137" s="2"/>
       <c r="J137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RD170</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N137" s="3" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K137" s="2"/>
       <c r="O137" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A137&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P137" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J138" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RD170</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O138" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A138&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD170]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P137" s="1" t="str">
+      <c r="P138" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8696,49 +8828,49 @@
 }</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>7</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>63</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>70</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" t="s">
         <v>61</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H138" s="1" t="s">
+      <c r="G139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J138" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J139" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-RD180</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K139" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N138" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O138" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A138&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O139" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A139&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD180]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P138" s="1" t="str">
+      <c r="P139" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8759,49 +8891,49 @@
 }</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>6</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>63</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>70</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>239</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H139" s="1" t="s">
+      <c r="G140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J139" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J140" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-RD191</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K140" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L139" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O139" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A139&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O140" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A140&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD191]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P139" s="1" t="str">
+      <c r="P140" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -8822,70 +8954,42 @@
 }</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>232</v>
-      </c>
-      <c r="B140" t="s">
-        <v>63</v>
-      </c>
-      <c r="E140" t="s">
-        <v>233</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K140" s="2"/>
-      <c r="L140" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O140" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A140&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P140" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>230</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
       </c>
-      <c r="D141" t="s">
-        <v>231</v>
+      <c r="C141" t="s">
+        <v>67</v>
+      </c>
+      <c r="E141" t="s">
+        <v>233</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I141" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="J141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>ROE-RD275</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="1" t="s">
-        <v>476</v>
+        <v>68</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="O141" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A141&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
+        <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD253]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
       <c r="P141" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
@@ -8897,25 +9001,33 @@
  longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
  installedWithMod = True
 }","")</f>
-        <v/>
+        <v>PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/RD253.cfg
+ patchName = RD253
+ shortDescr = RD253
+ longDescr = Removes the duplicated RD253 engines from other mods.
+ installedWithMod = True
+}</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
       </c>
-      <c r="E142" t="s">
-        <v>229</v>
+      <c r="D142" t="s">
+        <v>231</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>478</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K142" s="2"/>
@@ -8941,17 +9053,20 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
+        <v>229</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K143" s="2"/>
@@ -8975,44 +9090,80 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>196</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>414</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="I144" s="2"/>
       <c r="J144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RD58</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N144" s="3" t="s">
-        <v>68</v>
+        <v>476</v>
       </c>
       <c r="O144" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A144&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P144" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J145" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RD58</v>
+      </c>
+      <c r="K145" s="2"/>
+      <c r="L145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O145" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A145&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD58]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P144" s="1" t="str">
+      <c r="P145" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9033,42 +9184,9 @@
 }</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>226</v>
-      </c>
-      <c r="B145" t="s">
-        <v>63</v>
-      </c>
-      <c r="E145" t="s">
-        <v>225</v>
-      </c>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K145" s="2"/>
-      <c r="O145" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A145&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P145" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -9078,7 +9196,7 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K146" s="2"/>
@@ -9101,45 +9219,78 @@
     </row>
     <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B147" t="s">
         <v>63</v>
       </c>
-      <c r="D147" t="s">
-        <v>190</v>
-      </c>
       <c r="E147" t="s">
-        <v>199</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>413</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="I147" s="2"/>
       <c r="J147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RD8</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N147" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O147" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A147&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P147" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" t="s">
+        <v>199</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J148" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RD8</v>
+      </c>
+      <c r="K148" s="2"/>
+      <c r="L148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O148" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A148&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RD8]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P147" s="1" t="str">
+      <c r="P148" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9160,67 +9311,28 @@
 }</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>223</v>
-      </c>
-      <c r="B148" t="s">
-        <v>63</v>
-      </c>
-      <c r="E148" t="s">
-        <v>199</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O148" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A148&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P148" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>221</v>
       </c>
       <c r="B149" t="s">
         <v>63</v>
       </c>
-      <c r="D149" t="s">
-        <v>190</v>
-      </c>
       <c r="E149" t="s">
-        <v>222</v>
-      </c>
-      <c r="F149">
-        <v>1964</v>
+        <v>199</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K149" s="2"/>
+      <c r="L149" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="O149" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A149&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -9238,9 +9350,9 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
         <v>63</v>
@@ -9254,18 +9366,12 @@
       <c r="F150">
         <v>1964</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="O150" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A150&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -9283,28 +9389,34 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>190</v>
       </c>
       <c r="E151" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="F151">
-        <v>1975</v>
+        <v>1964</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K151" s="2"/>
+      <c r="L151" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="O151" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A151&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -9324,47 +9436,86 @@
     </row>
     <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
-        <v>242</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F152">
+        <v>1975</v>
+      </c>
+      <c r="I152" s="2"/>
       <c r="J152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RL10A3</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N152" s="3" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K152" s="2"/>
       <c r="O152" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A152&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P152" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" t="s">
+        <v>70</v>
+      </c>
+      <c r="E153" t="s">
+        <v>242</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J153" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RL10A3</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O153" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A153&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RL10]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P152" s="1" t="str">
+      <c r="P153" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9385,58 +9536,6 @@
 }</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" t="s">
-        <v>63</v>
-      </c>
-      <c r="C153" t="s">
-        <v>70</v>
-      </c>
-      <c r="E153" t="s">
-        <v>242</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RL10A3</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O153" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A153&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P153" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
@@ -9457,11 +9556,11 @@
         <v>70</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RL10A5</v>
+        <f t="shared" si="3"/>
+        <v>ROE-RL10A3</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>471</v>
@@ -9509,11 +9608,11 @@
         <v>70</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RL10B2</v>
+        <f t="shared" si="3"/>
+        <v>ROE-RL10A5</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>471</v>
@@ -9543,20 +9642,39 @@
     </row>
     <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
         <v>63</v>
       </c>
+      <c r="C156" t="s">
+        <v>70</v>
+      </c>
       <c r="E156" t="s">
-        <v>241</v>
-      </c>
-      <c r="I156" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="J156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K156" s="2"/>
+        <f t="shared" si="3"/>
+        <v>ROE-RL10B2</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O156" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A156&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -9576,47 +9694,80 @@
     </row>
     <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
         <v>63</v>
       </c>
-      <c r="C157" t="s">
-        <v>70</v>
-      </c>
       <c r="E157" t="s">
-        <v>137</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="I157" s="2"/>
       <c r="J157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RS68</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N157" s="3" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K157" s="2"/>
       <c r="O157" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A157&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P157" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" t="s">
+        <v>70</v>
+      </c>
+      <c r="E158" t="s">
+        <v>137</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J158" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RS68</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O158" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A158&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[RS68]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P157" s="1" t="str">
+      <c r="P158" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9637,58 +9788,19 @@
 }</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>264</v>
-      </c>
-      <c r="B158" t="s">
-        <v>63</v>
-      </c>
-      <c r="E158" t="s">
-        <v>265</v>
-      </c>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K158" s="2"/>
-      <c r="O158" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A158&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P158" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E159" t="s">
-        <v>71</v>
-      </c>
-      <c r="F159">
-        <v>1981</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K159" s="2"/>
@@ -9711,20 +9823,23 @@
     </row>
     <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="F160">
-        <v>2012</v>
+        <v>1981</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K160" s="2"/>
@@ -9747,23 +9862,20 @@
     </row>
     <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
       </c>
-      <c r="C161" t="s">
-        <v>32</v>
-      </c>
       <c r="E161" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="F161">
-        <v>1965</v>
+        <v>2012</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K161" s="2"/>
@@ -9786,42 +9898,81 @@
     </row>
     <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="B162" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E162" t="s">
+        <v>98</v>
+      </c>
+      <c r="F162">
+        <v>1965</v>
+      </c>
+      <c r="I162" s="2"/>
       <c r="J162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-Rutherford</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O162" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A162&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P162" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" t="s">
+        <v>334</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J163" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Rutherford</v>
+      </c>
+      <c r="K163" s="2"/>
+      <c r="L163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O163" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A163&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Rutherford]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P162" s="1" t="str">
+      <c r="P163" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9842,82 +9993,28 @@
 }</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>339</v>
-      </c>
-      <c r="B163" t="s">
-        <v>337</v>
-      </c>
-      <c r="C163" t="s">
-        <v>334</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RutherfordVac</v>
-      </c>
-      <c r="K163" s="2"/>
-      <c r="L163" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N163" s="3"/>
-      <c r="O163" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A163&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P163" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
-      </c>
-      <c r="E164" t="s">
-        <v>259</v>
-      </c>
-      <c r="F164">
-        <v>1953</v>
+        <v>334</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-S2253</v>
+        <f t="shared" si="3"/>
+        <v>ROE-RutherfordVac</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="1" t="s">
@@ -9926,14 +10023,68 @@
       <c r="M164" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N164" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="N164" s="3"/>
       <c r="O164" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A164&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P164" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>466</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>457</v>
+      </c>
+      <c r="E165" t="s">
+        <v>259</v>
+      </c>
+      <c r="F165">
+        <v>1953</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J165" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-S2253</v>
+      </c>
+      <c r="K165" s="2"/>
+      <c r="L165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O165" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A165&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S2_253]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P164" s="1" t="str">
+      <c r="P165" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -9954,49 +10105,49 @@
 }</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>257</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>63</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>440</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E166" t="s">
         <v>258</v>
       </c>
-      <c r="F165">
+      <c r="F166">
         <v>2000</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I165" s="2" t="s">
+      <c r="G166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J165" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J166" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-S592</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K166" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L165" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N165" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O165" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A165&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O166" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A166&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S5_92]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P165" s="1" t="str">
+      <c r="P166" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10017,50 +10168,50 @@
 }</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>255</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>63</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>440</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E167" t="s">
         <v>256</v>
       </c>
-      <c r="F166">
+      <c r="F167">
         <v>2000</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H166" s="1" t="s">
+      <c r="G167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="I167" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J166" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J167" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>ROE-S598M</v>
       </c>
-      <c r="K166" s="2"/>
-      <c r="L166" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O166" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A166&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="K167" s="2"/>
+      <c r="L167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O167" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A167&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[S5_98M]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P166" s="1" t="str">
+      <c r="P167" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10081,55 +10232,25 @@
 }</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>253</v>
-      </c>
-      <c r="B167" t="s">
-        <v>63</v>
-      </c>
-      <c r="D167" t="s">
-        <v>254</v>
-      </c>
-      <c r="E167" t="s">
-        <v>92</v>
-      </c>
-      <c r="F167">
-        <v>1967</v>
-      </c>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K167" s="2"/>
-      <c r="O167" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A167&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P167" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B168" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" t="s">
+        <v>92</v>
+      </c>
+      <c r="F168">
+        <v>1967</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K168" s="2"/>
@@ -10152,23 +10273,14 @@
     </row>
     <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
-      </c>
-      <c r="E169" t="s">
-        <v>251</v>
-      </c>
-      <c r="F169">
-        <v>1989</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K169" s="2"/>
@@ -10191,47 +10303,86 @@
     </row>
     <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="B170" t="s">
-        <v>63</v>
-      </c>
-      <c r="C170" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>71</v>
+        <v>251</v>
+      </c>
+      <c r="F170">
+        <v>1989</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="I170" s="2"/>
       <c r="J170" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-RS25</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N170" s="3" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K170" s="2"/>
       <c r="O170" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A170&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P170" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" t="s">
+        <v>70</v>
+      </c>
+      <c r="E171" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J171" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-RS25</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O171" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A171&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[SSME]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P170" s="1" t="str">
+      <c r="P171" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10252,46 +10403,16 @@
 }</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>277</v>
-      </c>
-      <c r="B171" t="s">
-        <v>31</v>
-      </c>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K171" s="2"/>
-      <c r="O171" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A171&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P171" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
         <v>31</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K172" s="2"/>
@@ -10314,17 +10435,14 @@
     </row>
     <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
         <v>31</v>
       </c>
-      <c r="F173">
-        <v>1968</v>
-      </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K173" s="2"/>
@@ -10347,14 +10465,17 @@
     </row>
     <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
       </c>
+      <c r="F174">
+        <v>1968</v>
+      </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K174" s="2"/>
@@ -10377,14 +10498,14 @@
     </row>
     <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B175" t="s">
         <v>31</v>
       </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K175" s="2"/>
@@ -10407,14 +10528,14 @@
     </row>
     <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>31</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K176" s="2"/>
@@ -10437,14 +10558,14 @@
     </row>
     <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
         <v>31</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K177" s="2"/>
@@ -10467,14 +10588,14 @@
     </row>
     <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B178" t="s">
         <v>31</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K178" s="2"/>
@@ -10497,14 +10618,14 @@
     </row>
     <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B179" t="s">
         <v>31</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K179" s="2"/>
@@ -10527,14 +10648,14 @@
     </row>
     <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K180" s="2"/>
@@ -10557,17 +10678,14 @@
     </row>
     <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B181" t="s">
         <v>31</v>
       </c>
-      <c r="F181">
-        <v>1966</v>
-      </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K181" s="2"/>
@@ -10590,7 +10708,7 @@
     </row>
     <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
         <v>31</v>
@@ -10600,7 +10718,7 @@
       </c>
       <c r="I182" s="2"/>
       <c r="J182" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K182" s="2"/>
@@ -10623,17 +10741,17 @@
     </row>
     <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
       </c>
       <c r="F183">
-        <v>1984</v>
+        <v>1966</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K183" s="2"/>
@@ -10656,17 +10774,17 @@
     </row>
     <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
       </c>
       <c r="F184">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K184" s="2"/>
@@ -10689,17 +10807,17 @@
     </row>
     <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="B185" t="s">
         <v>31</v>
       </c>
       <c r="F185">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K185" s="2"/>
@@ -10722,17 +10840,17 @@
     </row>
     <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B186" t="s">
         <v>31</v>
       </c>
       <c r="F186">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K186" s="2"/>
@@ -10755,45 +10873,78 @@
     </row>
     <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>337</v>
-      </c>
-      <c r="C187" t="s">
-        <v>334</v>
-      </c>
-      <c r="E187" t="s">
-        <v>344</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>456</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F187">
+        <v>1989</v>
+      </c>
+      <c r="I187" s="2"/>
       <c r="J187" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-Star5D</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K187" s="2"/>
-      <c r="L187" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N187" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O187" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A187&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P187" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" t="s">
+        <v>337</v>
+      </c>
+      <c r="C188" t="s">
+        <v>334</v>
+      </c>
+      <c r="E188" t="s">
+        <v>344</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J188" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Star5D</v>
+      </c>
+      <c r="K188" s="2"/>
+      <c r="L188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O188" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A188&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Star-5D]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P187" s="1" t="str">
+      <c r="P188" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10814,42 +10965,9 @@
 }</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>308</v>
-      </c>
-      <c r="B188" t="s">
-        <v>31</v>
-      </c>
-      <c r="F188">
-        <v>1985</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K188" s="2"/>
-      <c r="O188" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A188&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P188" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="B189" t="s">
         <v>31</v>
@@ -10859,7 +10977,7 @@
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K189" s="2"/>
@@ -10882,45 +11000,78 @@
     </row>
     <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="B190" t="s">
-        <v>337</v>
-      </c>
-      <c r="C190" t="s">
-        <v>334</v>
-      </c>
-      <c r="E190" t="s">
-        <v>346</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>455</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F190">
+        <v>1985</v>
+      </c>
+      <c r="I190" s="2"/>
       <c r="J190" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-Star8</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N190" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O190" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A190&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P190" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>345</v>
+      </c>
+      <c r="B191" t="s">
+        <v>337</v>
+      </c>
+      <c r="C191" t="s">
+        <v>334</v>
+      </c>
+      <c r="E191" t="s">
+        <v>346</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J191" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ROE-Star8</v>
+      </c>
+      <c r="K191" s="2"/>
+      <c r="L191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O191" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A191&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[Star-8]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P190" s="1" t="str">
+      <c r="P191" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -10941,72 +11092,22 @@
 }</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>245</v>
-      </c>
-      <c r="B191" t="s">
-        <v>31</v>
-      </c>
-      <c r="F191">
-        <v>1993</v>
-      </c>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K191" s="2"/>
-      <c r="O191" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A191&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P191" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
-      </c>
-      <c r="C192" t="s">
-        <v>453</v>
-      </c>
-      <c r="E192" t="s">
-        <v>300</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F192">
+        <v>1993</v>
+      </c>
+      <c r="I192" s="2"/>
       <c r="J192" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-SuperDraco</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="K192" s="2"/>
-      <c r="L192" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M192" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="O192" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A192&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v/>
@@ -11026,13 +11127,13 @@
     </row>
     <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>299</v>
       </c>
       <c r="B193" t="s">
         <v>63</v>
       </c>
       <c r="C193" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="E193" t="s">
         <v>300</v>
@@ -11044,11 +11145,11 @@
         <v>335</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J193" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ROE-SuperDracoDouble</v>
+        <f t="shared" si="3"/>
+        <v>ROE-SuperDraco</v>
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="1" t="s">
@@ -11076,13 +11177,16 @@
     </row>
     <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>297</v>
+        <v>452</v>
       </c>
       <c r="B194" t="s">
         <v>63</v>
       </c>
+      <c r="C194" t="s">
+        <v>334</v>
+      </c>
       <c r="E194" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>68</v>
@@ -11091,11 +11195,11 @@
         <v>335</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J194" s="2" t="str">
-        <f t="shared" ref="J194:J212" si="3">IF(I194="","",IF(ISERROR(FIND("-",I194,FIND("-",I194,1)+1)),I194,LEFT(I194,FIND("-",I194,FIND("-",I194,1)+1)-1)))</f>
-        <v>ROE-TD339</v>
+        <f t="shared" si="3"/>
+        <v>ROE-SuperDracoDouble</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="1" t="s">
@@ -11104,14 +11208,61 @@
       <c r="M194" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N194" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O194" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A194&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P194" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>297</v>
+      </c>
+      <c r="B195" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" t="s">
+        <v>298</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J195" s="2" t="str">
+        <f t="shared" ref="J195:J213" si="4">IF(I195="","",IF(ISERROR(FIND("-",I195,FIND("-",I195,1)+1)),I195,LEFT(I195,FIND("-",I195,FIND("-",I195,1)+1)-1)))</f>
+        <v>ROE-TD339</v>
+      </c>
+      <c r="K195" s="2"/>
+      <c r="L195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O195" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A195&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[TD339]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P194" s="1" t="str">
+      <c r="P195" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -11132,47 +11283,47 @@
 }</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>437</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>337</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>334</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E196" t="s">
         <v>341</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H195" s="1" t="s">
+      <c r="G196" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="I196" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="J195" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="J196" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>ROE-MR80TDE</v>
       </c>
-      <c r="K195" s="2"/>
-      <c r="L195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N195" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O195" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A195&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="K196" s="2"/>
+      <c r="L196" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O196" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A196&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[TDE]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P195" s="1" t="str">
+      <c r="P196" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -11193,61 +11344,22 @@
 }</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>296</v>
-      </c>
-      <c r="B196" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" t="s">
-        <v>98</v>
-      </c>
-      <c r="F196">
-        <v>1965</v>
-      </c>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K196" s="2"/>
-      <c r="O196" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A196&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P196" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B197" t="s">
         <v>31</v>
       </c>
       <c r="E197" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="F197">
         <v>1965</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I197" s="2"/>
       <c r="J197" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K197" s="2"/>
@@ -11270,23 +11382,23 @@
     </row>
     <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B198" t="s">
         <v>31</v>
       </c>
       <c r="E198" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F198">
-        <v>1989</v>
+        <v>1965</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K198" s="2"/>
@@ -11309,20 +11421,23 @@
     </row>
     <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="F199">
-        <v>1964</v>
+        <v>1989</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I199" s="2"/>
       <c r="J199" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K199" s="2"/>
@@ -11345,17 +11460,20 @@
     </row>
     <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>63</v>
       </c>
       <c r="E200" t="s">
-        <v>290</v>
+        <v>98</v>
+      </c>
+      <c r="F200">
+        <v>1964</v>
       </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K200" s="2"/>
@@ -11378,17 +11496,17 @@
     </row>
     <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B201" t="s">
         <v>63</v>
       </c>
       <c r="E201" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K201" s="2"/>
@@ -11411,20 +11529,17 @@
     </row>
     <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E202" t="s">
-        <v>144</v>
-      </c>
-      <c r="F202">
-        <v>1967</v>
+        <v>288</v>
       </c>
       <c r="I202" s="2"/>
       <c r="J202" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K202" s="2"/>
@@ -11447,50 +11562,86 @@
     </row>
     <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>63</v>
-      </c>
-      <c r="C203" t="s">
-        <v>356</v>
+        <v>31</v>
       </c>
       <c r="E203" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F203">
-        <v>1956</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>357</v>
-      </c>
+        <v>1967</v>
+      </c>
+      <c r="I203" s="2"/>
       <c r="J203" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ROE-X405</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M203" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N203" s="3" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K203" s="2"/>
       <c r="O203" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A203&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P203" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" t="s">
+        <v>356</v>
+      </c>
+      <c r="E204" t="s">
+        <v>142</v>
+      </c>
+      <c r="F204">
+        <v>1956</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J204" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ROE-X405</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O204" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A204&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[X405]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P203" s="1" t="str">
+      <c r="P204" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -11511,49 +11662,49 @@
 }</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>358</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>63</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>32</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>359</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H204" s="1" t="s">
+      <c r="G205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I204" s="2" t="s">
+      <c r="I205" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J204" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="J205" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>ROE-X405H</v>
       </c>
-      <c r="K204" s="2" t="s">
+      <c r="K205" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N204" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O204" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A204&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+      <c r="L205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O205" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A205&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
         <v>!PART:HAS[~name[ROE-*]&amp;#engineType[X405H]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}</v>
       </c>
-      <c r="P204" s="1" t="str">
+      <c r="P205" s="1" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
@@ -11574,52 +11725,16 @@
 }</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>284</v>
-      </c>
-      <c r="B205" t="s">
-        <v>209</v>
-      </c>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K205" s="2"/>
-      <c r="O205" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A205&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P205" s="1" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
     <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>63</v>
-      </c>
-      <c r="E206" t="s">
-        <v>283</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K206" s="2"/>
@@ -11642,20 +11757,20 @@
     </row>
     <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
         <v>63</v>
       </c>
       <c r="E207" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F207">
-        <v>1959</v>
+        <v>0</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K207" s="2"/>
@@ -11678,17 +11793,20 @@
     </row>
     <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B208" t="s">
         <v>63</v>
       </c>
       <c r="E208" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="F208">
+        <v>1959</v>
       </c>
       <c r="I208" s="2"/>
       <c r="J208" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K208" s="2"/>
@@ -11709,66 +11827,42 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>278</v>
+      </c>
+      <c r="B209" t="s">
+        <v>63</v>
+      </c>
+      <c r="E209" t="s">
+        <v>279</v>
+      </c>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K209" s="2"/>
+      <c r="O209" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A209&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P209" s="1" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F209" s="4">
-        <v>2006</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I209" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="J209" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>ROE-Merlin1C</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="L209" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M209" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N209" s="5"/>
-      <c r="O209" s="8" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A209&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
-        <v/>
-      </c>
-      <c r="P209" s="8" t="str">
-        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
-{
- modName = ROEngines
- srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
- patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
- shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
- longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
- installedWithMod = True
-}","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>63</v>
@@ -11790,11 +11884,11 @@
         <v>70</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J210" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>ROE-Merlin1CV</v>
+        <f t="shared" si="4"/>
+        <v>ROE-Merlin1C</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>471</v>
@@ -11823,9 +11917,9 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>63</v>
@@ -11847,11 +11941,11 @@
         <v>70</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J211" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>ROE-Merlin1D</v>
+        <f t="shared" si="4"/>
+        <v>ROE-Merlin1CV</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>471</v>
@@ -11880,9 +11974,9 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>63</v>
@@ -11904,11 +11998,11 @@
         <v>70</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J212" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>ROE-Merlin1DV</v>
+        <f t="shared" si="4"/>
+        <v>ROE-Merlin1D</v>
       </c>
       <c r="K212" s="2" t="s">
         <v>471</v>
@@ -11925,6 +12019,63 @@
         <v/>
       </c>
       <c r="P212" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
+{
+ modName = ROEngines
+ srcPath = ROEngines/PatchManager/PluginData/"&amp;Table2[[#This Row],[Engine]]&amp;".cfg
+ patchName = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ shortDescr = "&amp;Table2[[#This Row],[Engine]]&amp;"
+ longDescr = Removes the duplicated "&amp;Table2[[#This Row],[Engine]]&amp;" engines from other mods.
+ installedWithMod = True
+}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F213" s="4">
+        <v>2006</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J213" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>ROE-Merlin1DV</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L213" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M213" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N213" s="5"/>
+      <c r="O213" s="8" t="str">
+        <f>IF(Table2[[#This Row],[REMOVE?]]="X","!PART:HAS[~name[ROE-*]&amp;#engineType["&amp;A213&amp;"]&amp;#category[Engine]]:BEFORE[zzzTagCleanup] {}","")</f>
+        <v/>
+      </c>
+      <c r="P213" s="8" t="str">
         <f>IF(Table2[[#This Row],[REMOVE?]]="X","PatchManager
 {
  modName = ROEngines
